--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,12 @@
     <t>['21', '26', '86']</t>
   </si>
   <si>
+    <t>['49', '53', '73']</t>
+  </si>
+  <si>
+    <t>['51', '74']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -368,6 +374,15 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,7 +1003,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1069,7 +1084,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1194,7 +1209,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1272,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1606,7 +1621,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1684,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>2.5</v>
@@ -1812,7 +1827,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1890,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2018,7 +2033,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2096,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2224,7 +2239,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2305,7 +2320,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2430,7 +2445,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2636,7 +2651,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2717,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3048,7 +3063,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3254,7 +3269,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3460,7 +3475,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3538,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3666,7 +3681,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>4.75</v>
@@ -3744,10 +3759,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -3872,7 +3887,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3953,7 +3968,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4159,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4284,7 +4299,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4362,7 +4377,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4490,7 +4505,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4568,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -4777,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5186,7 +5201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5314,7 +5329,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5726,7 +5741,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6138,7 +6153,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6344,7 +6359,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6550,7 +6565,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6707,6 +6722,1036 @@
       </c>
       <c r="BP29">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7287046</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q30">
+        <v>2.05</v>
+      </c>
+      <c r="R30">
+        <v>2.3</v>
+      </c>
+      <c r="S30">
+        <v>6.5</v>
+      </c>
+      <c r="T30">
+        <v>1.38</v>
+      </c>
+      <c r="U30">
+        <v>2.8</v>
+      </c>
+      <c r="V30">
+        <v>2.8</v>
+      </c>
+      <c r="W30">
+        <v>1.38</v>
+      </c>
+      <c r="X30">
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <v>1.08</v>
+      </c>
+      <c r="Z30">
+        <v>1.57</v>
+      </c>
+      <c r="AA30">
+        <v>3.78</v>
+      </c>
+      <c r="AB30">
+        <v>4.97</v>
+      </c>
+      <c r="AC30">
+        <v>1.05</v>
+      </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>1.29</v>
+      </c>
+      <c r="AF30">
+        <v>3.63</v>
+      </c>
+      <c r="AG30">
+        <v>1.81</v>
+      </c>
+      <c r="AH30">
+        <v>1.87</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
+        <v>1.75</v>
+      </c>
+      <c r="AK30">
+        <v>1.13</v>
+      </c>
+      <c r="AL30">
+        <v>1.2</v>
+      </c>
+      <c r="AM30">
+        <v>2.35</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1.5</v>
+      </c>
+      <c r="AP30">
+        <v>1.67</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1.27</v>
+      </c>
+      <c r="AS30">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT30">
+        <v>2.21</v>
+      </c>
+      <c r="AU30">
+        <v>9</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>10</v>
+      </c>
+      <c r="AX30">
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <v>19</v>
+      </c>
+      <c r="AZ30">
+        <v>5</v>
+      </c>
+      <c r="BA30">
+        <v>6</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>8</v>
+      </c>
+      <c r="BD30">
+        <v>1.33</v>
+      </c>
+      <c r="BE30">
+        <v>10.25</v>
+      </c>
+      <c r="BF30">
+        <v>4.1</v>
+      </c>
+      <c r="BG30">
+        <v>1.16</v>
+      </c>
+      <c r="BH30">
+        <v>4.8</v>
+      </c>
+      <c r="BI30">
+        <v>1.28</v>
+      </c>
+      <c r="BJ30">
+        <v>3.2</v>
+      </c>
+      <c r="BK30">
+        <v>2.2</v>
+      </c>
+      <c r="BL30">
+        <v>2.39</v>
+      </c>
+      <c r="BM30">
+        <v>1.92</v>
+      </c>
+      <c r="BN30">
+        <v>1.88</v>
+      </c>
+      <c r="BO30">
+        <v>2.42</v>
+      </c>
+      <c r="BP30">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7287044</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q31">
+        <v>2.5</v>
+      </c>
+      <c r="R31">
+        <v>2.05</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>1.48</v>
+      </c>
+      <c r="U31">
+        <v>2.5</v>
+      </c>
+      <c r="V31">
+        <v>3.2</v>
+      </c>
+      <c r="W31">
+        <v>1.3</v>
+      </c>
+      <c r="X31">
+        <v>8.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.05</v>
+      </c>
+      <c r="Z31">
+        <v>1.68</v>
+      </c>
+      <c r="AA31">
+        <v>3.24</v>
+      </c>
+      <c r="AB31">
+        <v>4.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.07</v>
+      </c>
+      <c r="AD31">
+        <v>8</v>
+      </c>
+      <c r="AE31">
+        <v>1.39</v>
+      </c>
+      <c r="AF31">
+        <v>2.99</v>
+      </c>
+      <c r="AG31">
+        <v>2.16</v>
+      </c>
+      <c r="AH31">
+        <v>1.62</v>
+      </c>
+      <c r="AI31">
+        <v>2.05</v>
+      </c>
+      <c r="AJ31">
+        <v>1.7</v>
+      </c>
+      <c r="AK31">
+        <v>1.2</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.95</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0.33</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>0.88</v>
+      </c>
+      <c r="AT31">
+        <v>1.88</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>6</v>
+      </c>
+      <c r="AZ31">
+        <v>5</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>8</v>
+      </c>
+      <c r="BD31">
+        <v>1.69</v>
+      </c>
+      <c r="BE31">
+        <v>8.9</v>
+      </c>
+      <c r="BF31">
+        <v>2.57</v>
+      </c>
+      <c r="BG31">
+        <v>1.4</v>
+      </c>
+      <c r="BH31">
+        <v>2.72</v>
+      </c>
+      <c r="BI31">
+        <v>1.78</v>
+      </c>
+      <c r="BJ31">
+        <v>2.03</v>
+      </c>
+      <c r="BK31">
+        <v>2.25</v>
+      </c>
+      <c r="BL31">
+        <v>1.62</v>
+      </c>
+      <c r="BM31">
+        <v>2.98</v>
+      </c>
+      <c r="BN31">
+        <v>1.32</v>
+      </c>
+      <c r="BO31">
+        <v>3.6</v>
+      </c>
+      <c r="BP31">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7287045</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q32">
+        <v>3.5</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>3.5</v>
+      </c>
+      <c r="T32">
+        <v>1.51</v>
+      </c>
+      <c r="U32">
+        <v>2.4</v>
+      </c>
+      <c r="V32">
+        <v>3.25</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>1.04</v>
+      </c>
+      <c r="Z32">
+        <v>2.42</v>
+      </c>
+      <c r="AA32">
+        <v>2.86</v>
+      </c>
+      <c r="AB32">
+        <v>2.73</v>
+      </c>
+      <c r="AC32">
+        <v>1.09</v>
+      </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
+      <c r="AE32">
+        <v>1.42</v>
+      </c>
+      <c r="AF32">
+        <v>2.7</v>
+      </c>
+      <c r="AG32">
+        <v>2.21</v>
+      </c>
+      <c r="AH32">
+        <v>1.59</v>
+      </c>
+      <c r="AI32">
+        <v>2</v>
+      </c>
+      <c r="AJ32">
+        <v>1.75</v>
+      </c>
+      <c r="AK32">
+        <v>1.4</v>
+      </c>
+      <c r="AL32">
+        <v>1.3</v>
+      </c>
+      <c r="AM32">
+        <v>1.52</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>1.33</v>
+      </c>
+      <c r="AQ32">
+        <v>2.33</v>
+      </c>
+      <c r="AR32">
+        <v>1.43</v>
+      </c>
+      <c r="AS32">
+        <v>1.27</v>
+      </c>
+      <c r="AT32">
+        <v>2.7</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <v>11</v>
+      </c>
+      <c r="AZ32">
+        <v>6</v>
+      </c>
+      <c r="BA32">
+        <v>7</v>
+      </c>
+      <c r="BB32">
+        <v>5</v>
+      </c>
+      <c r="BC32">
+        <v>12</v>
+      </c>
+      <c r="BD32">
+        <v>2.09</v>
+      </c>
+      <c r="BE32">
+        <v>7.6</v>
+      </c>
+      <c r="BF32">
+        <v>2.07</v>
+      </c>
+      <c r="BG32">
+        <v>1.22</v>
+      </c>
+      <c r="BH32">
+        <v>3.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.4</v>
+      </c>
+      <c r="BJ32">
+        <v>2.7</v>
+      </c>
+      <c r="BK32">
+        <v>2.2</v>
+      </c>
+      <c r="BL32">
+        <v>2.1</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.73</v>
+      </c>
+      <c r="BO32">
+        <v>2.5</v>
+      </c>
+      <c r="BP32">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7287042</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q33">
+        <v>2.4</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>1.35</v>
+      </c>
+      <c r="U33">
+        <v>2.95</v>
+      </c>
+      <c r="V33">
+        <v>2.6</v>
+      </c>
+      <c r="W33">
+        <v>1.44</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>1.1</v>
+      </c>
+      <c r="Z33">
+        <v>1.7</v>
+      </c>
+      <c r="AA33">
+        <v>3.38</v>
+      </c>
+      <c r="AB33">
+        <v>4.09</v>
+      </c>
+      <c r="AC33">
+        <v>1.05</v>
+      </c>
+      <c r="AD33">
+        <v>9.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.25</v>
+      </c>
+      <c r="AF33">
+        <v>3.75</v>
+      </c>
+      <c r="AG33">
+        <v>1.75</v>
+      </c>
+      <c r="AH33">
+        <v>1.96</v>
+      </c>
+      <c r="AI33">
+        <v>2.25</v>
+      </c>
+      <c r="AJ33">
+        <v>1.57</v>
+      </c>
+      <c r="AK33">
+        <v>1.2</v>
+      </c>
+      <c r="AL33">
+        <v>1.22</v>
+      </c>
+      <c r="AM33">
+        <v>1.9</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>1.5</v>
+      </c>
+      <c r="AP33">
+        <v>2.25</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>1.44</v>
+      </c>
+      <c r="AS33">
+        <v>1.34</v>
+      </c>
+      <c r="AT33">
+        <v>2.78</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>4</v>
+      </c>
+      <c r="AW33">
+        <v>10</v>
+      </c>
+      <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>8</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>10</v>
+      </c>
+      <c r="BD33">
+        <v>1.49</v>
+      </c>
+      <c r="BE33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF33">
+        <v>3.24</v>
+      </c>
+      <c r="BG33">
+        <v>1.29</v>
+      </c>
+      <c r="BH33">
+        <v>3.4</v>
+      </c>
+      <c r="BI33">
+        <v>1.48</v>
+      </c>
+      <c r="BJ33">
+        <v>2.5</v>
+      </c>
+      <c r="BK33">
+        <v>2.2</v>
+      </c>
+      <c r="BL33">
+        <v>2</v>
+      </c>
+      <c r="BM33">
+        <v>2.2</v>
+      </c>
+      <c r="BN33">
+        <v>1.62</v>
+      </c>
+      <c r="BO33">
+        <v>2.7</v>
+      </c>
+      <c r="BP33">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7287043</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>2.1</v>
+      </c>
+      <c r="S34">
+        <v>2.75</v>
+      </c>
+      <c r="T34">
+        <v>1.4</v>
+      </c>
+      <c r="U34">
+        <v>2.75</v>
+      </c>
+      <c r="V34">
+        <v>2.8</v>
+      </c>
+      <c r="W34">
+        <v>1.38</v>
+      </c>
+      <c r="X34">
+        <v>7.2</v>
+      </c>
+      <c r="Y34">
+        <v>1.08</v>
+      </c>
+      <c r="Z34">
+        <v>3.3</v>
+      </c>
+      <c r="AA34">
+        <v>3.16</v>
+      </c>
+      <c r="AB34">
+        <v>1.96</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>9</v>
+      </c>
+      <c r="AE34">
+        <v>1.3</v>
+      </c>
+      <c r="AF34">
+        <v>3.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.88</v>
+      </c>
+      <c r="AH34">
+        <v>1.73</v>
+      </c>
+      <c r="AI34">
+        <v>1.8</v>
+      </c>
+      <c r="AJ34">
+        <v>1.95</v>
+      </c>
+      <c r="AK34">
+        <v>1.73</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.3</v>
+      </c>
+      <c r="AN34">
+        <v>1.5</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1.4</v>
+      </c>
+      <c r="AS34">
+        <v>1.05</v>
+      </c>
+      <c r="AT34">
+        <v>2.45</v>
+      </c>
+      <c r="AU34">
+        <v>5</v>
+      </c>
+      <c r="AV34">
+        <v>2</v>
+      </c>
+      <c r="AW34">
+        <v>5</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>10</v>
+      </c>
+      <c r="AZ34">
+        <v>6</v>
+      </c>
+      <c r="BA34">
+        <v>8</v>
+      </c>
+      <c r="BB34">
+        <v>4</v>
+      </c>
+      <c r="BC34">
+        <v>12</v>
+      </c>
+      <c r="BD34">
+        <v>2.07</v>
+      </c>
+      <c r="BE34">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF34">
+        <v>1.99</v>
+      </c>
+      <c r="BG34">
+        <v>1.22</v>
+      </c>
+      <c r="BH34">
+        <v>3.8</v>
+      </c>
+      <c r="BI34">
+        <v>1.31</v>
+      </c>
+      <c r="BJ34">
+        <v>3.04</v>
+      </c>
+      <c r="BK34">
+        <v>1.91</v>
+      </c>
+      <c r="BL34">
+        <v>2.25</v>
+      </c>
+      <c r="BM34">
+        <v>2</v>
+      </c>
+      <c r="BN34">
+        <v>1.8</v>
+      </c>
+      <c r="BO34">
+        <v>2.52</v>
+      </c>
+      <c r="BP34">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,12 @@
     <t>['51', '74']</t>
   </si>
   <si>
+    <t>['10', '42', '86']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -349,9 +355,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['7', '14', '33', '39', '62']</t>
   </si>
   <si>
@@ -383,6 +386,12 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['55', '71']</t>
+  </si>
+  <si>
+    <t>['21', '57']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1012,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1084,7 +1093,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1209,7 +1218,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1290,7 +1299,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1493,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1621,7 +1630,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1699,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2.5</v>
@@ -1827,7 +1836,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -2033,7 +2042,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2239,7 +2248,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2317,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2445,7 +2454,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2523,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2651,7 +2660,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2729,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2938,7 +2947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3063,7 +3072,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3269,7 +3278,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3347,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3475,7 +3484,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3681,7 +3690,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q15">
         <v>4.75</v>
@@ -3762,7 +3771,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -3887,7 +3896,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3965,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4171,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4299,7 +4308,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4377,7 +4386,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4505,7 +4514,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4586,7 +4595,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4789,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -4995,10 +5004,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.34</v>
@@ -5329,7 +5338,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5616,7 +5625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5741,7 +5750,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5822,7 +5831,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.15</v>
@@ -6025,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6153,7 +6162,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6231,10 +6240,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6359,7 +6368,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6437,7 +6446,7 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>2.5</v>
@@ -6565,7 +6574,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6646,7 +6655,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -6771,7 +6780,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q30">
         <v>2.05</v>
@@ -6852,7 +6861,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -6977,7 +6986,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7055,7 +7064,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0.33</v>
@@ -7183,7 +7192,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7261,10 +7270,10 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7389,7 +7398,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7752,6 +7761,1036 @@
       </c>
       <c r="BP34">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7287047</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q35">
+        <v>2.88</v>
+      </c>
+      <c r="R35">
+        <v>2.1</v>
+      </c>
+      <c r="S35">
+        <v>3.75</v>
+      </c>
+      <c r="T35">
+        <v>1.37</v>
+      </c>
+      <c r="U35">
+        <v>2.95</v>
+      </c>
+      <c r="V35">
+        <v>2.71</v>
+      </c>
+      <c r="W35">
+        <v>1.43</v>
+      </c>
+      <c r="X35">
+        <v>6.7</v>
+      </c>
+      <c r="Y35">
+        <v>1.09</v>
+      </c>
+      <c r="Z35">
+        <v>2.2</v>
+      </c>
+      <c r="AA35">
+        <v>3.4</v>
+      </c>
+      <c r="AB35">
+        <v>3.1</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>3.6</v>
+      </c>
+      <c r="AE35">
+        <v>1.29</v>
+      </c>
+      <c r="AF35">
+        <v>3.6</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>1.8</v>
+      </c>
+      <c r="AI35">
+        <v>1.8</v>
+      </c>
+      <c r="AJ35">
+        <v>1.95</v>
+      </c>
+      <c r="AK35">
+        <v>1.32</v>
+      </c>
+      <c r="AL35">
+        <v>1.33</v>
+      </c>
+      <c r="AM35">
+        <v>1.89</v>
+      </c>
+      <c r="AN35">
+        <v>0.33</v>
+      </c>
+      <c r="AO35">
+        <v>0.33</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.43</v>
+      </c>
+      <c r="AS35">
+        <v>1.2</v>
+      </c>
+      <c r="AT35">
+        <v>2.63</v>
+      </c>
+      <c r="AU35">
+        <v>2</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>5</v>
+      </c>
+      <c r="AZ35">
+        <v>9</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>9</v>
+      </c>
+      <c r="BD35">
+        <v>1.64</v>
+      </c>
+      <c r="BE35">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF35">
+        <v>2.67</v>
+      </c>
+      <c r="BG35">
+        <v>1.24</v>
+      </c>
+      <c r="BH35">
+        <v>3.48</v>
+      </c>
+      <c r="BI35">
+        <v>1.46</v>
+      </c>
+      <c r="BJ35">
+        <v>2.52</v>
+      </c>
+      <c r="BK35">
+        <v>2.38</v>
+      </c>
+      <c r="BL35">
+        <v>1.92</v>
+      </c>
+      <c r="BM35">
+        <v>2.32</v>
+      </c>
+      <c r="BN35">
+        <v>1.54</v>
+      </c>
+      <c r="BO35">
+        <v>3.08</v>
+      </c>
+      <c r="BP35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7287049</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q36">
+        <v>3.75</v>
+      </c>
+      <c r="R36">
+        <v>1.91</v>
+      </c>
+      <c r="S36">
+        <v>3.4</v>
+      </c>
+      <c r="T36">
+        <v>1.56</v>
+      </c>
+      <c r="U36">
+        <v>2.34</v>
+      </c>
+      <c r="V36">
+        <v>3.64</v>
+      </c>
+      <c r="W36">
+        <v>1.26</v>
+      </c>
+      <c r="X36">
+        <v>10.25</v>
+      </c>
+      <c r="Y36">
+        <v>1.03</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2.55</v>
+      </c>
+      <c r="AC36">
+        <v>1.07</v>
+      </c>
+      <c r="AD36">
+        <v>2.48</v>
+      </c>
+      <c r="AE36">
+        <v>1.48</v>
+      </c>
+      <c r="AF36">
+        <v>2.48</v>
+      </c>
+      <c r="AG36">
+        <v>2.6</v>
+      </c>
+      <c r="AH36">
+        <v>1.48</v>
+      </c>
+      <c r="AI36">
+        <v>2.1</v>
+      </c>
+      <c r="AJ36">
+        <v>1.67</v>
+      </c>
+      <c r="AK36">
+        <v>1.59</v>
+      </c>
+      <c r="AL36">
+        <v>1.45</v>
+      </c>
+      <c r="AM36">
+        <v>1.4</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>0.67</v>
+      </c>
+      <c r="AP36">
+        <v>2.5</v>
+      </c>
+      <c r="AQ36">
+        <v>0.75</v>
+      </c>
+      <c r="AR36">
+        <v>0.99</v>
+      </c>
+      <c r="AS36">
+        <v>1.54</v>
+      </c>
+      <c r="AT36">
+        <v>2.53</v>
+      </c>
+      <c r="AU36">
+        <v>2</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36">
+        <v>6</v>
+      </c>
+      <c r="AY36">
+        <v>4</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
+        <v>5</v>
+      </c>
+      <c r="BC36">
+        <v>7</v>
+      </c>
+      <c r="BD36">
+        <v>2.22</v>
+      </c>
+      <c r="BE36">
+        <v>8.6</v>
+      </c>
+      <c r="BF36">
+        <v>1.9</v>
+      </c>
+      <c r="BG36">
+        <v>1.31</v>
+      </c>
+      <c r="BH36">
+        <v>3.04</v>
+      </c>
+      <c r="BI36">
+        <v>1.59</v>
+      </c>
+      <c r="BJ36">
+        <v>2.21</v>
+      </c>
+      <c r="BK36">
+        <v>2.02</v>
+      </c>
+      <c r="BL36">
+        <v>1.74</v>
+      </c>
+      <c r="BM36">
+        <v>2.65</v>
+      </c>
+      <c r="BN36">
+        <v>1.42</v>
+      </c>
+      <c r="BO36">
+        <v>3.64</v>
+      </c>
+      <c r="BP36">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7287050</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37">
+        <v>2.63</v>
+      </c>
+      <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>4.75</v>
+      </c>
+      <c r="T37">
+        <v>1.48</v>
+      </c>
+      <c r="U37">
+        <v>2.55</v>
+      </c>
+      <c r="V37">
+        <v>3.22</v>
+      </c>
+      <c r="W37">
+        <v>1.32</v>
+      </c>
+      <c r="X37">
+        <v>8.6</v>
+      </c>
+      <c r="Y37">
+        <v>1.05</v>
+      </c>
+      <c r="Z37">
+        <v>1.95</v>
+      </c>
+      <c r="AA37">
+        <v>3.25</v>
+      </c>
+      <c r="AB37">
+        <v>4.2</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
+        <v>2.98</v>
+      </c>
+      <c r="AE37">
+        <v>1.44</v>
+      </c>
+      <c r="AF37">
+        <v>2.98</v>
+      </c>
+      <c r="AG37">
+        <v>2.15</v>
+      </c>
+      <c r="AH37">
+        <v>1.67</v>
+      </c>
+      <c r="AI37">
+        <v>2</v>
+      </c>
+      <c r="AJ37">
+        <v>1.75</v>
+      </c>
+      <c r="AK37">
+        <v>1.35</v>
+      </c>
+      <c r="AL37">
+        <v>1.4</v>
+      </c>
+      <c r="AM37">
+        <v>1.71</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>2.33</v>
+      </c>
+      <c r="AP37">
+        <v>1.5</v>
+      </c>
+      <c r="AQ37">
+        <v>1.75</v>
+      </c>
+      <c r="AR37">
+        <v>1.47</v>
+      </c>
+      <c r="AS37">
+        <v>1.16</v>
+      </c>
+      <c r="AT37">
+        <v>2.63</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>10</v>
+      </c>
+      <c r="AX37">
+        <v>1</v>
+      </c>
+      <c r="AY37">
+        <v>17</v>
+      </c>
+      <c r="AZ37">
+        <v>6</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>8</v>
+      </c>
+      <c r="BD37">
+        <v>1.89</v>
+      </c>
+      <c r="BE37">
+        <v>8.9</v>
+      </c>
+      <c r="BF37">
+        <v>2.21</v>
+      </c>
+      <c r="BG37">
+        <v>1.21</v>
+      </c>
+      <c r="BH37">
+        <v>3.74</v>
+      </c>
+      <c r="BI37">
+        <v>1.42</v>
+      </c>
+      <c r="BJ37">
+        <v>2.65</v>
+      </c>
+      <c r="BK37">
+        <v>2.38</v>
+      </c>
+      <c r="BL37">
+        <v>2.02</v>
+      </c>
+      <c r="BM37">
+        <v>2.19</v>
+      </c>
+      <c r="BN37">
+        <v>1.6</v>
+      </c>
+      <c r="BO37">
+        <v>2.88</v>
+      </c>
+      <c r="BP37">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7287051</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>2.1</v>
+      </c>
+      <c r="S38">
+        <v>2.25</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38">
+        <v>2.75</v>
+      </c>
+      <c r="V38">
+        <v>2.97</v>
+      </c>
+      <c r="W38">
+        <v>1.31</v>
+      </c>
+      <c r="X38">
+        <v>7.3</v>
+      </c>
+      <c r="Y38">
+        <v>1.06</v>
+      </c>
+      <c r="Z38">
+        <v>5.25</v>
+      </c>
+      <c r="AA38">
+        <v>3.8</v>
+      </c>
+      <c r="AB38">
+        <v>1.62</v>
+      </c>
+      <c r="AC38">
+        <v>1.04</v>
+      </c>
+      <c r="AD38">
+        <v>2.98</v>
+      </c>
+      <c r="AE38">
+        <v>1.39</v>
+      </c>
+      <c r="AF38">
+        <v>2.98</v>
+      </c>
+      <c r="AG38">
+        <v>2.05</v>
+      </c>
+      <c r="AH38">
+        <v>1.75</v>
+      </c>
+      <c r="AI38">
+        <v>2.05</v>
+      </c>
+      <c r="AJ38">
+        <v>1.7</v>
+      </c>
+      <c r="AK38">
+        <v>2.04</v>
+      </c>
+      <c r="AL38">
+        <v>1.35</v>
+      </c>
+      <c r="AM38">
+        <v>1.21</v>
+      </c>
+      <c r="AN38">
+        <v>1.33</v>
+      </c>
+      <c r="AO38">
+        <v>1.33</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>1.75</v>
+      </c>
+      <c r="AR38">
+        <v>1.43</v>
+      </c>
+      <c r="AS38">
+        <v>1.68</v>
+      </c>
+      <c r="AT38">
+        <v>3.11</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
+        <v>7</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
+        <v>10</v>
+      </c>
+      <c r="BD38">
+        <v>2.92</v>
+      </c>
+      <c r="BE38">
+        <v>9.4</v>
+      </c>
+      <c r="BF38">
+        <v>1.55</v>
+      </c>
+      <c r="BG38">
+        <v>1.13</v>
+      </c>
+      <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
+        <v>1.25</v>
+      </c>
+      <c r="BJ38">
+        <v>3.6</v>
+      </c>
+      <c r="BK38">
+        <v>1.42</v>
+      </c>
+      <c r="BL38">
+        <v>2.62</v>
+      </c>
+      <c r="BM38">
+        <v>1.67</v>
+      </c>
+      <c r="BN38">
+        <v>2.16</v>
+      </c>
+      <c r="BO38">
+        <v>2.04</v>
+      </c>
+      <c r="BP38">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7287048</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45383.65625</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39">
+        <v>2.63</v>
+      </c>
+      <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
+        <v>4.75</v>
+      </c>
+      <c r="T39">
+        <v>1.44</v>
+      </c>
+      <c r="U39">
+        <v>2.62</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>1.3</v>
+      </c>
+      <c r="X39">
+        <v>7.3</v>
+      </c>
+      <c r="Y39">
+        <v>1.06</v>
+      </c>
+      <c r="Z39">
+        <v>1.96</v>
+      </c>
+      <c r="AA39">
+        <v>3.35</v>
+      </c>
+      <c r="AB39">
+        <v>3.49</v>
+      </c>
+      <c r="AC39">
+        <v>1.05</v>
+      </c>
+      <c r="AD39">
+        <v>2.9</v>
+      </c>
+      <c r="AE39">
+        <v>1.4</v>
+      </c>
+      <c r="AF39">
+        <v>2.9</v>
+      </c>
+      <c r="AG39">
+        <v>2.14</v>
+      </c>
+      <c r="AH39">
+        <v>1.63</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <v>1.75</v>
+      </c>
+      <c r="AK39">
+        <v>1.25</v>
+      </c>
+      <c r="AL39">
+        <v>1.34</v>
+      </c>
+      <c r="AM39">
+        <v>1.81</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0.8</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>1.28</v>
+      </c>
+      <c r="AS39">
+        <v>0.91</v>
+      </c>
+      <c r="AT39">
+        <v>2.19</v>
+      </c>
+      <c r="AU39">
+        <v>7</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>10</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>10</v>
+      </c>
+      <c r="BB39">
+        <v>13</v>
+      </c>
+      <c r="BC39">
+        <v>23</v>
+      </c>
+      <c r="BD39">
+        <v>1.57</v>
+      </c>
+      <c r="BE39">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF39">
+        <v>2.88</v>
+      </c>
+      <c r="BG39">
+        <v>1.15</v>
+      </c>
+      <c r="BH39">
+        <v>5</v>
+      </c>
+      <c r="BI39">
+        <v>1.3</v>
+      </c>
+      <c r="BJ39">
+        <v>3.4</v>
+      </c>
+      <c r="BK39">
+        <v>1.51</v>
+      </c>
+      <c r="BL39">
+        <v>2.46</v>
+      </c>
+      <c r="BM39">
+        <v>1.83</v>
+      </c>
+      <c r="BN39">
+        <v>1.9</v>
+      </c>
+      <c r="BO39">
+        <v>2.3</v>
+      </c>
+      <c r="BP39">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,15 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['21', '70']</t>
+  </si>
+  <si>
+    <t>['31', '46', '58', '65']</t>
+  </si>
+  <si>
+    <t>['53', '56']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -392,6 +401,18 @@
   </si>
   <si>
     <t>['21', '57']</t>
+  </si>
+  <si>
+    <t>['45', '90+4']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1033,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1090,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1218,7 +1239,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1296,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1630,7 +1651,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1711,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1836,7 +1857,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1917,7 +1938,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2042,7 +2063,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2120,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2248,7 +2269,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2454,7 +2475,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2535,7 +2556,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2660,7 +2681,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2738,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3072,7 +3093,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3153,7 +3174,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3278,7 +3299,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3359,7 +3380,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3484,7 +3505,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3562,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3768,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -3896,7 +3917,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4308,7 +4329,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4514,7 +4535,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4798,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5210,10 +5231,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5338,7 +5359,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5416,10 +5437,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR23">
         <v>1.54</v>
@@ -5625,7 +5646,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5750,7 +5771,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5828,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6037,7 +6058,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.35</v>
@@ -6162,7 +6183,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6243,7 +6264,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6368,7 +6389,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6446,10 +6467,10 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR28">
         <v>1.56</v>
@@ -6574,7 +6595,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6780,7 +6801,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>2.05</v>
@@ -6986,7 +7007,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7067,7 +7088,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7192,7 +7213,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7398,7 +7419,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7476,7 +7497,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -7682,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8300,7 +8321,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8428,7 +8449,7 @@
         <v>101</v>
       </c>
       <c r="P38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8509,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.43</v>
@@ -8634,7 +8655,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8791,6 +8812,830 @@
       </c>
       <c r="BP39">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7287054</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45387.65625</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q40">
+        <v>4.5</v>
+      </c>
+      <c r="R40">
+        <v>1.91</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>1.48</v>
+      </c>
+      <c r="U40">
+        <v>2.5</v>
+      </c>
+      <c r="V40">
+        <v>3.2</v>
+      </c>
+      <c r="W40">
+        <v>1.3</v>
+      </c>
+      <c r="X40">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y40">
+        <v>1.06</v>
+      </c>
+      <c r="Z40">
+        <v>4.53</v>
+      </c>
+      <c r="AA40">
+        <v>3.58</v>
+      </c>
+      <c r="AB40">
+        <v>1.81</v>
+      </c>
+      <c r="AC40">
+        <v>1.07</v>
+      </c>
+      <c r="AD40">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <v>1.49</v>
+      </c>
+      <c r="AF40">
+        <v>2.38</v>
+      </c>
+      <c r="AG40">
+        <v>2.28</v>
+      </c>
+      <c r="AH40">
+        <v>1.56</v>
+      </c>
+      <c r="AI40">
+        <v>2.2</v>
+      </c>
+      <c r="AJ40">
+        <v>1.62</v>
+      </c>
+      <c r="AK40">
+        <v>1.83</v>
+      </c>
+      <c r="AL40">
+        <v>1.25</v>
+      </c>
+      <c r="AM40">
+        <v>1.25</v>
+      </c>
+      <c r="AN40">
+        <v>1.33</v>
+      </c>
+      <c r="AO40">
+        <v>2.5</v>
+      </c>
+      <c r="AP40">
+        <v>1.25</v>
+      </c>
+      <c r="AQ40">
+        <v>2.2</v>
+      </c>
+      <c r="AR40">
+        <v>1.38</v>
+      </c>
+      <c r="AS40">
+        <v>1.05</v>
+      </c>
+      <c r="AT40">
+        <v>2.43</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>2</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>8</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
+      </c>
+      <c r="BD40">
+        <v>2.13</v>
+      </c>
+      <c r="BE40">
+        <v>9</v>
+      </c>
+      <c r="BF40">
+        <v>1.95</v>
+      </c>
+      <c r="BG40">
+        <v>1.24</v>
+      </c>
+      <c r="BH40">
+        <v>3.48</v>
+      </c>
+      <c r="BI40">
+        <v>1.47</v>
+      </c>
+      <c r="BJ40">
+        <v>2.49</v>
+      </c>
+      <c r="BK40">
+        <v>2.38</v>
+      </c>
+      <c r="BL40">
+        <v>1.91</v>
+      </c>
+      <c r="BM40">
+        <v>2.33</v>
+      </c>
+      <c r="BN40">
+        <v>1.53</v>
+      </c>
+      <c r="BO40">
+        <v>3.08</v>
+      </c>
+      <c r="BP40">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7287052</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45387.65625</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q41">
+        <v>2.63</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41">
+        <v>2.75</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>8</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>2.28</v>
+      </c>
+      <c r="AA41">
+        <v>3.45</v>
+      </c>
+      <c r="AB41">
+        <v>3.1</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>9</v>
+      </c>
+      <c r="AE41">
+        <v>1.27</v>
+      </c>
+      <c r="AF41">
+        <v>3.28</v>
+      </c>
+      <c r="AG41">
+        <v>1.94</v>
+      </c>
+      <c r="AH41">
+        <v>1.84</v>
+      </c>
+      <c r="AI41">
+        <v>1.91</v>
+      </c>
+      <c r="AJ41">
+        <v>1.91</v>
+      </c>
+      <c r="AK41">
+        <v>1.37</v>
+      </c>
+      <c r="AL41">
+        <v>1.31</v>
+      </c>
+      <c r="AM41">
+        <v>1.64</v>
+      </c>
+      <c r="AN41">
+        <v>1.33</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>1.4</v>
+      </c>
+      <c r="AR41">
+        <v>1.04</v>
+      </c>
+      <c r="AS41">
+        <v>0.98</v>
+      </c>
+      <c r="AT41">
+        <v>2.02</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>9</v>
+      </c>
+      <c r="AZ41">
+        <v>6</v>
+      </c>
+      <c r="BA41">
+        <v>8</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>2.01</v>
+      </c>
+      <c r="BE41">
+        <v>7.42</v>
+      </c>
+      <c r="BF41">
+        <v>2.41</v>
+      </c>
+      <c r="BG41">
+        <v>1.21</v>
+      </c>
+      <c r="BH41">
+        <v>3.74</v>
+      </c>
+      <c r="BI41">
+        <v>1.42</v>
+      </c>
+      <c r="BJ41">
+        <v>2.65</v>
+      </c>
+      <c r="BK41">
+        <v>2.2</v>
+      </c>
+      <c r="BL41">
+        <v>2.01</v>
+      </c>
+      <c r="BM41">
+        <v>2.19</v>
+      </c>
+      <c r="BN41">
+        <v>1.6</v>
+      </c>
+      <c r="BO41">
+        <v>2.91</v>
+      </c>
+      <c r="BP41">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7287053</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45387.65625</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>8.5</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.94</v>
+      </c>
+      <c r="V42">
+        <v>3.03</v>
+      </c>
+      <c r="W42">
+        <v>1.39</v>
+      </c>
+      <c r="X42">
+        <v>7.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>1.6</v>
+      </c>
+      <c r="AA42">
+        <v>4.05</v>
+      </c>
+      <c r="AB42">
+        <v>5.55</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>1.33</v>
+      </c>
+      <c r="AF42">
+        <v>3.25</v>
+      </c>
+      <c r="AG42">
+        <v>1.94</v>
+      </c>
+      <c r="AH42">
+        <v>1.83</v>
+      </c>
+      <c r="AI42">
+        <v>2.5</v>
+      </c>
+      <c r="AJ42">
+        <v>1.5</v>
+      </c>
+      <c r="AK42">
+        <v>1.11</v>
+      </c>
+      <c r="AL42">
+        <v>1.18</v>
+      </c>
+      <c r="AM42">
+        <v>2.4</v>
+      </c>
+      <c r="AN42">
+        <v>2.25</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>2.4</v>
+      </c>
+      <c r="AQ42">
+        <v>0.25</v>
+      </c>
+      <c r="AR42">
+        <v>1.34</v>
+      </c>
+      <c r="AS42">
+        <v>0.93</v>
+      </c>
+      <c r="AT42">
+        <v>2.27</v>
+      </c>
+      <c r="AU42">
+        <v>6</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>11</v>
+      </c>
+      <c r="AZ42">
+        <v>5</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BD42">
+        <v>1.29</v>
+      </c>
+      <c r="BE42">
+        <v>9.85</v>
+      </c>
+      <c r="BF42">
+        <v>5.8</v>
+      </c>
+      <c r="BG42">
+        <v>1.3</v>
+      </c>
+      <c r="BH42">
+        <v>3.08</v>
+      </c>
+      <c r="BI42">
+        <v>1.56</v>
+      </c>
+      <c r="BJ42">
+        <v>2.27</v>
+      </c>
+      <c r="BK42">
+        <v>1.98</v>
+      </c>
+      <c r="BL42">
+        <v>1.82</v>
+      </c>
+      <c r="BM42">
+        <v>2.58</v>
+      </c>
+      <c r="BN42">
+        <v>1.44</v>
+      </c>
+      <c r="BO42">
+        <v>3.48</v>
+      </c>
+      <c r="BP42">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7287055</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45387.65625</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q43">
+        <v>4.5</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>2.63</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.7</v>
+      </c>
+      <c r="V43">
+        <v>2.9</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>7.4</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>3.75</v>
+      </c>
+      <c r="AA43">
+        <v>3.54</v>
+      </c>
+      <c r="AB43">
+        <v>1.99</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>3.3</v>
+      </c>
+      <c r="AG43">
+        <v>1.99</v>
+      </c>
+      <c r="AH43">
+        <v>1.79</v>
+      </c>
+      <c r="AI43">
+        <v>1.95</v>
+      </c>
+      <c r="AJ43">
+        <v>1.8</v>
+      </c>
+      <c r="AK43">
+        <v>1.8</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.25</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>1.75</v>
+      </c>
+      <c r="AP43">
+        <v>1.8</v>
+      </c>
+      <c r="AQ43">
+        <v>1.4</v>
+      </c>
+      <c r="AR43">
+        <v>1.58</v>
+      </c>
+      <c r="AS43">
+        <v>1.55</v>
+      </c>
+      <c r="AT43">
+        <v>3.13</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>4</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>7</v>
+      </c>
+      <c r="AZ43">
+        <v>12</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>3.18</v>
+      </c>
+      <c r="BE43">
+        <v>8.15</v>
+      </c>
+      <c r="BF43">
+        <v>1.63</v>
+      </c>
+      <c r="BG43">
+        <v>1.18</v>
+      </c>
+      <c r="BH43">
+        <v>4.5</v>
+      </c>
+      <c r="BI43">
+        <v>1.3</v>
+      </c>
+      <c r="BJ43">
+        <v>3.08</v>
+      </c>
+      <c r="BK43">
+        <v>1.91</v>
+      </c>
+      <c r="BL43">
+        <v>2</v>
+      </c>
+      <c r="BM43">
+        <v>1.95</v>
+      </c>
+      <c r="BN43">
+        <v>1.8</v>
+      </c>
+      <c r="BO43">
+        <v>2.49</v>
+      </c>
+      <c r="BP43">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['53', '56']</t>
   </si>
   <si>
+    <t>['3', '86']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['36', '50', '63']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -413,6 +422,12 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['29', '45+1']</t>
+  </si>
+  <si>
+    <t>['37', '40']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,7 +1048,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1114,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1239,7 +1254,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1651,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1857,7 +1872,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1935,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.25</v>
@@ -2063,7 +2078,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2141,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2269,7 +2284,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2347,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2475,7 +2490,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2553,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.4</v>
@@ -2681,7 +2696,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2762,7 +2777,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2968,7 +2983,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3093,7 +3108,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3299,7 +3314,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3505,7 +3520,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3789,10 +3804,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -3917,7 +3932,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3995,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4201,10 +4216,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4329,7 +4344,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4535,7 +4550,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4613,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5359,7 +5374,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5771,7 +5786,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5852,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.15</v>
@@ -6055,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6183,7 +6198,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6389,7 +6404,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6595,7 +6610,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6801,7 +6816,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>2.05</v>
@@ -6879,10 +6894,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7007,7 +7022,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7085,7 +7100,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.25</v>
@@ -7213,7 +7228,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7294,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7419,7 +7434,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7500,7 +7515,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.44</v>
@@ -7703,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7909,7 +7924,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8115,10 +8130,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8324,7 +8339,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8449,7 +8464,7 @@
         <v>101</v>
       </c>
       <c r="P38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8655,7 +8670,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8736,7 +8751,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -8861,7 +8876,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -8939,7 +8954,7 @@
         <v>2.5</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>2.2</v>
@@ -9067,7 +9082,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9273,7 +9288,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9479,7 +9494,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9636,6 +9651,1036 @@
       </c>
       <c r="BP43">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7287057</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45394.65625</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>105</v>
+      </c>
+      <c r="P44" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q44">
+        <v>5.5</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>2.5</v>
+      </c>
+      <c r="T44">
+        <v>1.42</v>
+      </c>
+      <c r="U44">
+        <v>2.65</v>
+      </c>
+      <c r="V44">
+        <v>2.95</v>
+      </c>
+      <c r="W44">
+        <v>1.35</v>
+      </c>
+      <c r="X44">
+        <v>7.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.07</v>
+      </c>
+      <c r="Z44">
+        <v>4.35</v>
+      </c>
+      <c r="AA44">
+        <v>3.7</v>
+      </c>
+      <c r="AB44">
+        <v>1.7</v>
+      </c>
+      <c r="AC44">
+        <v>1.06</v>
+      </c>
+      <c r="AD44">
+        <v>8.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.35</v>
+      </c>
+      <c r="AF44">
+        <v>3.1</v>
+      </c>
+      <c r="AG44">
+        <v>1.83</v>
+      </c>
+      <c r="AH44">
+        <v>1.88</v>
+      </c>
+      <c r="AI44">
+        <v>2.2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.62</v>
+      </c>
+      <c r="AK44">
+        <v>2.05</v>
+      </c>
+      <c r="AL44">
+        <v>1.22</v>
+      </c>
+      <c r="AM44">
+        <v>1.17</v>
+      </c>
+      <c r="AN44">
+        <v>1.25</v>
+      </c>
+      <c r="AO44">
+        <v>0.75</v>
+      </c>
+      <c r="AP44">
+        <v>1.2</v>
+      </c>
+      <c r="AQ44">
+        <v>0.8</v>
+      </c>
+      <c r="AR44">
+        <v>1.32</v>
+      </c>
+      <c r="AS44">
+        <v>1.42</v>
+      </c>
+      <c r="AT44">
+        <v>2.74</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>5</v>
+      </c>
+      <c r="AX44">
+        <v>6</v>
+      </c>
+      <c r="AY44">
+        <v>9</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>3.16</v>
+      </c>
+      <c r="BE44">
+        <v>9.9</v>
+      </c>
+      <c r="BF44">
+        <v>1.48</v>
+      </c>
+      <c r="BG44">
+        <v>1.19</v>
+      </c>
+      <c r="BH44">
+        <v>4.3</v>
+      </c>
+      <c r="BI44">
+        <v>1.37</v>
+      </c>
+      <c r="BJ44">
+        <v>2.9</v>
+      </c>
+      <c r="BK44">
+        <v>2.2</v>
+      </c>
+      <c r="BL44">
+        <v>2.2</v>
+      </c>
+      <c r="BM44">
+        <v>1.88</v>
+      </c>
+      <c r="BN44">
+        <v>1.92</v>
+      </c>
+      <c r="BO44">
+        <v>2.55</v>
+      </c>
+      <c r="BP44">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7287058</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45394.65625</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>1.48</v>
+      </c>
+      <c r="U45">
+        <v>2.5</v>
+      </c>
+      <c r="V45">
+        <v>3.2</v>
+      </c>
+      <c r="W45">
+        <v>1.3</v>
+      </c>
+      <c r="X45">
+        <v>8.4</v>
+      </c>
+      <c r="Y45">
+        <v>1.05</v>
+      </c>
+      <c r="Z45">
+        <v>3.25</v>
+      </c>
+      <c r="AA45">
+        <v>3.25</v>
+      </c>
+      <c r="AB45">
+        <v>2.15</v>
+      </c>
+      <c r="AC45">
+        <v>1.07</v>
+      </c>
+      <c r="AD45">
+        <v>8</v>
+      </c>
+      <c r="AE45">
+        <v>1.38</v>
+      </c>
+      <c r="AF45">
+        <v>2.95</v>
+      </c>
+      <c r="AG45">
+        <v>1.97</v>
+      </c>
+      <c r="AH45">
+        <v>1.74</v>
+      </c>
+      <c r="AI45">
+        <v>1.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.8</v>
+      </c>
+      <c r="AK45">
+        <v>1.62</v>
+      </c>
+      <c r="AL45">
+        <v>1.28</v>
+      </c>
+      <c r="AM45">
+        <v>1.33</v>
+      </c>
+      <c r="AN45">
+        <v>0.5</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0.6</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.26</v>
+      </c>
+      <c r="AS45">
+        <v>0.98</v>
+      </c>
+      <c r="AT45">
+        <v>2.24</v>
+      </c>
+      <c r="AU45">
+        <v>2</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>3</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>6</v>
+      </c>
+      <c r="BD45">
+        <v>1.86</v>
+      </c>
+      <c r="BE45">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF45">
+        <v>2.27</v>
+      </c>
+      <c r="BG45">
+        <v>1.34</v>
+      </c>
+      <c r="BH45">
+        <v>3.1</v>
+      </c>
+      <c r="BI45">
+        <v>1.6</v>
+      </c>
+      <c r="BJ45">
+        <v>2.25</v>
+      </c>
+      <c r="BK45">
+        <v>2</v>
+      </c>
+      <c r="BL45">
+        <v>1.76</v>
+      </c>
+      <c r="BM45">
+        <v>2.55</v>
+      </c>
+      <c r="BN45">
+        <v>1.47</v>
+      </c>
+      <c r="BO45">
+        <v>3.4</v>
+      </c>
+      <c r="BP45">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7287059</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45394.65625</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46">
+        <v>2.63</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.5</v>
+      </c>
+      <c r="U46">
+        <v>2.4</v>
+      </c>
+      <c r="V46">
+        <v>3.4</v>
+      </c>
+      <c r="W46">
+        <v>1.28</v>
+      </c>
+      <c r="X46">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>1.04</v>
+      </c>
+      <c r="Z46">
+        <v>1.95</v>
+      </c>
+      <c r="AA46">
+        <v>3.15</v>
+      </c>
+      <c r="AB46">
+        <v>3.9</v>
+      </c>
+      <c r="AC46">
+        <v>1.09</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>1.45</v>
+      </c>
+      <c r="AF46">
+        <v>2.7</v>
+      </c>
+      <c r="AG46">
+        <v>2.3</v>
+      </c>
+      <c r="AH46">
+        <v>1.55</v>
+      </c>
+      <c r="AI46">
+        <v>2.1</v>
+      </c>
+      <c r="AJ46">
+        <v>1.67</v>
+      </c>
+      <c r="AK46">
+        <v>1.25</v>
+      </c>
+      <c r="AL46">
+        <v>1.28</v>
+      </c>
+      <c r="AM46">
+        <v>1.73</v>
+      </c>
+      <c r="AN46">
+        <v>2.5</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.8</v>
+      </c>
+      <c r="AR46">
+        <v>0.87</v>
+      </c>
+      <c r="AS46">
+        <v>1.06</v>
+      </c>
+      <c r="AT46">
+        <v>1.93</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>7</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>3</v>
+      </c>
+      <c r="BC46">
+        <v>5</v>
+      </c>
+      <c r="BD46">
+        <v>1.7</v>
+      </c>
+      <c r="BE46">
+        <v>9</v>
+      </c>
+      <c r="BF46">
+        <v>2.54</v>
+      </c>
+      <c r="BG46">
+        <v>1.28</v>
+      </c>
+      <c r="BH46">
+        <v>3.5</v>
+      </c>
+      <c r="BI46">
+        <v>1.5</v>
+      </c>
+      <c r="BJ46">
+        <v>2.48</v>
+      </c>
+      <c r="BK46">
+        <v>2.25</v>
+      </c>
+      <c r="BL46">
+        <v>1.98</v>
+      </c>
+      <c r="BM46">
+        <v>2.33</v>
+      </c>
+      <c r="BN46">
+        <v>1.56</v>
+      </c>
+      <c r="BO46">
+        <v>3</v>
+      </c>
+      <c r="BP46">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7287060</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45394.65625</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>3.2</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.63</v>
+      </c>
+      <c r="V47">
+        <v>3.4</v>
+      </c>
+      <c r="W47">
+        <v>1.3</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>2.95</v>
+      </c>
+      <c r="AA47">
+        <v>3.05</v>
+      </c>
+      <c r="AB47">
+        <v>2.4</v>
+      </c>
+      <c r="AC47">
+        <v>1.06</v>
+      </c>
+      <c r="AD47">
+        <v>8.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.38</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+      <c r="AG47">
+        <v>2.3</v>
+      </c>
+      <c r="AH47">
+        <v>1.55</v>
+      </c>
+      <c r="AI47">
+        <v>2.05</v>
+      </c>
+      <c r="AJ47">
+        <v>1.7</v>
+      </c>
+      <c r="AK47">
+        <v>1.4</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.48</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>2</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1.75</v>
+      </c>
+      <c r="AR47">
+        <v>1.3</v>
+      </c>
+      <c r="AS47">
+        <v>1.21</v>
+      </c>
+      <c r="AT47">
+        <v>2.51</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>7</v>
+      </c>
+      <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>2.02</v>
+      </c>
+      <c r="BE47">
+        <v>7.4</v>
+      </c>
+      <c r="BF47">
+        <v>2.13</v>
+      </c>
+      <c r="BG47">
+        <v>1.14</v>
+      </c>
+      <c r="BH47">
+        <v>5.3</v>
+      </c>
+      <c r="BI47">
+        <v>1.27</v>
+      </c>
+      <c r="BJ47">
+        <v>3.5</v>
+      </c>
+      <c r="BK47">
+        <v>1.47</v>
+      </c>
+      <c r="BL47">
+        <v>2.55</v>
+      </c>
+      <c r="BM47">
+        <v>1.77</v>
+      </c>
+      <c r="BN47">
+        <v>1.98</v>
+      </c>
+      <c r="BO47">
+        <v>2.2</v>
+      </c>
+      <c r="BP47">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7287061</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45394.66666666666</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q48">
+        <v>1.8</v>
+      </c>
+      <c r="R48">
+        <v>2.5</v>
+      </c>
+      <c r="S48">
+        <v>8.5</v>
+      </c>
+      <c r="T48">
+        <v>1.36</v>
+      </c>
+      <c r="U48">
+        <v>2.88</v>
+      </c>
+      <c r="V48">
+        <v>2.65</v>
+      </c>
+      <c r="W48">
+        <v>1.42</v>
+      </c>
+      <c r="X48">
+        <v>6.65</v>
+      </c>
+      <c r="Y48">
+        <v>1.09</v>
+      </c>
+      <c r="Z48">
+        <v>1.44</v>
+      </c>
+      <c r="AA48">
+        <v>4.35</v>
+      </c>
+      <c r="AB48">
+        <v>6.1</v>
+      </c>
+      <c r="AC48">
+        <v>1.05</v>
+      </c>
+      <c r="AD48">
+        <v>9.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.28</v>
+      </c>
+      <c r="AF48">
+        <v>3.65</v>
+      </c>
+      <c r="AG48">
+        <v>1.79</v>
+      </c>
+      <c r="AH48">
+        <v>1.91</v>
+      </c>
+      <c r="AI48">
+        <v>2.1</v>
+      </c>
+      <c r="AJ48">
+        <v>1.67</v>
+      </c>
+      <c r="AK48">
+        <v>1.09</v>
+      </c>
+      <c r="AL48">
+        <v>1.17</v>
+      </c>
+      <c r="AM48">
+        <v>2.7</v>
+      </c>
+      <c r="AN48">
+        <v>1.67</v>
+      </c>
+      <c r="AO48">
+        <v>1.75</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>1.4</v>
+      </c>
+      <c r="AR48">
+        <v>1.59</v>
+      </c>
+      <c r="AS48">
+        <v>1.15</v>
+      </c>
+      <c r="AT48">
+        <v>2.74</v>
+      </c>
+      <c r="AU48">
+        <v>12</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>16</v>
+      </c>
+      <c r="AZ48">
+        <v>5</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>1.31</v>
+      </c>
+      <c r="BE48">
+        <v>11</v>
+      </c>
+      <c r="BF48">
+        <v>4.2</v>
+      </c>
+      <c r="BG48">
+        <v>1.21</v>
+      </c>
+      <c r="BH48">
+        <v>4.2</v>
+      </c>
+      <c r="BI48">
+        <v>1.39</v>
+      </c>
+      <c r="BJ48">
+        <v>2.85</v>
+      </c>
+      <c r="BK48">
+        <v>2</v>
+      </c>
+      <c r="BL48">
+        <v>2.16</v>
+      </c>
+      <c r="BM48">
+        <v>2.05</v>
+      </c>
+      <c r="BN48">
+        <v>1.72</v>
+      </c>
+      <c r="BO48">
+        <v>2.6</v>
+      </c>
+      <c r="BP48">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -277,10 +277,13 @@
     <t>['17', '26']</t>
   </si>
   <si>
+    <t>['65', '90+2']</t>
+  </si>
+  <si>
     <t>['48', '79']</t>
   </si>
   <si>
-    <t>['65', '90+2']</t>
+    <t>['59', '90+2']</t>
   </si>
   <si>
     <t>['45+1', '58']</t>
@@ -292,9 +295,6 @@
     <t>['7', '41', '70']</t>
   </si>
   <si>
-    <t>['59', '90+2']</t>
-  </si>
-  <si>
     <t>['30']</t>
   </si>
   <si>
@@ -322,15 +322,15 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['31', '46', '58', '65']</t>
+  </si>
+  <si>
+    <t>['53', '56']</t>
+  </si>
+  <si>
     <t>['21', '70']</t>
   </si>
   <si>
-    <t>['31', '46', '58', '65']</t>
-  </si>
-  <si>
-    <t>['53', '56']</t>
-  </si>
-  <si>
     <t>['3', '86']</t>
   </si>
   <si>
@@ -340,6 +340,9 @@
     <t>['36', '50', '63']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -364,13 +367,16 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['47']</t>
+    <t>['72', '84']</t>
   </si>
   <si>
     <t>['7', '14', '33', '39', '62']</t>
@@ -379,9 +385,6 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['72', '84']</t>
-  </si>
-  <si>
     <t>['80', '85']</t>
   </si>
   <si>
@@ -400,28 +403,28 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['55', '71']</t>
   </si>
   <si>
     <t>['21', '57']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['45', '90+4']</t>
-  </si>
-  <si>
-    <t>['31']</t>
-  </si>
-  <si>
-    <t>['75']</t>
-  </si>
-  <si>
-    <t>['4']</t>
   </si>
   <si>
     <t>['29', '45+1']</t>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1051,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1126,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1254,7 +1257,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1666,7 +1669,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1872,7 +1875,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1953,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2078,7 +2081,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2284,7 +2287,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2490,7 +2493,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2696,7 +2699,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3066,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7287025</v>
+        <v>7287023</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3081,190 +3084,190 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
+        <v>2.4</v>
+      </c>
+      <c r="R12">
+        <v>2.05</v>
+      </c>
+      <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>1.42</v>
+      </c>
+      <c r="U12">
+        <v>2.65</v>
+      </c>
+      <c r="V12">
+        <v>2.95</v>
+      </c>
+      <c r="W12">
+        <v>1.35</v>
+      </c>
+      <c r="X12">
+        <v>7.7</v>
+      </c>
+      <c r="Y12">
+        <v>1.07</v>
+      </c>
+      <c r="Z12">
+        <v>1.57</v>
+      </c>
+      <c r="AA12">
+        <v>3.6</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>1.05</v>
+      </c>
+      <c r="AD12">
+        <v>9</v>
+      </c>
+      <c r="AE12">
+        <v>1.33</v>
+      </c>
+      <c r="AF12">
+        <v>3.25</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
+        <v>1.73</v>
+      </c>
+      <c r="AI12">
+        <v>2.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.62</v>
+      </c>
+      <c r="AK12">
+        <v>1.17</v>
+      </c>
+      <c r="AL12">
+        <v>1.22</v>
+      </c>
+      <c r="AM12">
+        <v>2.15</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <v>2.4</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1.63</v>
+      </c>
+      <c r="AS12">
+        <v>0.99</v>
+      </c>
+      <c r="AT12">
+        <v>2.62</v>
+      </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>6</v>
+      </c>
+      <c r="AZ12">
         <v>4</v>
       </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>3.5</v>
-      </c>
-      <c r="T12">
-        <v>1.48</v>
-      </c>
-      <c r="U12">
-        <v>2.45</v>
-      </c>
-      <c r="V12">
-        <v>3.2</v>
-      </c>
-      <c r="W12">
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>8</v>
+      </c>
+      <c r="BD12">
         <v>1.3</v>
       </c>
-      <c r="X12">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>1.05</v>
-      </c>
-      <c r="Z12">
+      <c r="BE12">
+        <v>10.5</v>
+      </c>
+      <c r="BF12">
+        <v>4.45</v>
+      </c>
+      <c r="BG12">
+        <v>1.19</v>
+      </c>
+      <c r="BH12">
+        <v>4.4</v>
+      </c>
+      <c r="BI12">
+        <v>1.36</v>
+      </c>
+      <c r="BJ12">
+        <v>3</v>
+      </c>
+      <c r="BK12">
+        <v>2.1</v>
+      </c>
+      <c r="BL12">
+        <v>2.25</v>
+      </c>
+      <c r="BM12">
+        <v>1.97</v>
+      </c>
+      <c r="BN12">
+        <v>1.78</v>
+      </c>
+      <c r="BO12">
         <v>2.5</v>
       </c>
-      <c r="AA12">
-        <v>3.2</v>
-      </c>
-      <c r="AB12">
-        <v>2.5</v>
-      </c>
-      <c r="AC12">
-        <v>1.08</v>
-      </c>
-      <c r="AD12">
-        <v>7.5</v>
-      </c>
-      <c r="AE12">
-        <v>1.42</v>
-      </c>
-      <c r="AF12">
-        <v>2.8</v>
-      </c>
-      <c r="AG12">
-        <v>2.19</v>
-      </c>
-      <c r="AH12">
-        <v>1.68</v>
-      </c>
-      <c r="AI12">
-        <v>2.38</v>
-      </c>
-      <c r="AJ12">
-        <v>1.53</v>
-      </c>
-      <c r="AK12">
+      <c r="BP12">
         <v>1.5</v>
-      </c>
-      <c r="AL12">
-        <v>1.3</v>
-      </c>
-      <c r="AM12">
-        <v>1.4</v>
-      </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <v>1.25</v>
-      </c>
-      <c r="AQ12">
-        <v>2.2</v>
-      </c>
-      <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AS12">
-        <v>0.88</v>
-      </c>
-      <c r="AT12">
-        <v>1.88</v>
-      </c>
-      <c r="AU12">
-        <v>3</v>
-      </c>
-      <c r="AV12">
-        <v>6</v>
-      </c>
-      <c r="AW12">
-        <v>8</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12">
-        <v>11</v>
-      </c>
-      <c r="AZ12">
-        <v>7</v>
-      </c>
-      <c r="BA12">
-        <v>10</v>
-      </c>
-      <c r="BB12">
-        <v>3</v>
-      </c>
-      <c r="BC12">
-        <v>13</v>
-      </c>
-      <c r="BD12">
-        <v>1.92</v>
-      </c>
-      <c r="BE12">
-        <v>6.9</v>
-      </c>
-      <c r="BF12">
-        <v>2.36</v>
-      </c>
-      <c r="BG12">
-        <v>1.29</v>
-      </c>
-      <c r="BH12">
-        <v>3.14</v>
-      </c>
-      <c r="BI12">
-        <v>1.56</v>
-      </c>
-      <c r="BJ12">
-        <v>2.27</v>
-      </c>
-      <c r="BK12">
-        <v>2</v>
-      </c>
-      <c r="BL12">
-        <v>1.8</v>
-      </c>
-      <c r="BM12">
-        <v>2.57</v>
-      </c>
-      <c r="BN12">
-        <v>1.44</v>
-      </c>
-      <c r="BO12">
-        <v>3.48</v>
-      </c>
-      <c r="BP12">
-        <v>1.24</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3311,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3478,7 +3481,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7287023</v>
+        <v>7287025</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3493,190 +3496,190 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
+        <v>3.5</v>
+      </c>
+      <c r="T14">
+        <v>1.48</v>
+      </c>
+      <c r="U14">
+        <v>2.45</v>
+      </c>
+      <c r="V14">
+        <v>3.2</v>
+      </c>
+      <c r="W14">
+        <v>1.3</v>
+      </c>
+      <c r="X14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>1.05</v>
+      </c>
+      <c r="Z14">
+        <v>2.5</v>
+      </c>
+      <c r="AA14">
+        <v>3.2</v>
+      </c>
+      <c r="AB14">
+        <v>2.5</v>
+      </c>
+      <c r="AC14">
+        <v>1.08</v>
+      </c>
+      <c r="AD14">
+        <v>7.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.42</v>
+      </c>
+      <c r="AF14">
+        <v>2.8</v>
+      </c>
+      <c r="AG14">
+        <v>2.19</v>
+      </c>
+      <c r="AH14">
+        <v>1.68</v>
+      </c>
+      <c r="AI14">
+        <v>2.38</v>
+      </c>
+      <c r="AJ14">
+        <v>1.53</v>
+      </c>
+      <c r="AK14">
+        <v>1.5</v>
+      </c>
+      <c r="AL14">
+        <v>1.3</v>
+      </c>
+      <c r="AM14">
+        <v>1.4</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1.25</v>
+      </c>
+      <c r="AQ14">
+        <v>2.2</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>0.88</v>
+      </c>
+      <c r="AT14">
+        <v>1.88</v>
+      </c>
+      <c r="AU14">
         <v>3</v>
       </c>
-      <c r="O14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14">
-        <v>2.4</v>
-      </c>
-      <c r="R14">
-        <v>2.05</v>
-      </c>
-      <c r="S14">
-        <v>5.5</v>
-      </c>
-      <c r="T14">
-        <v>1.42</v>
-      </c>
-      <c r="U14">
-        <v>2.65</v>
-      </c>
-      <c r="V14">
-        <v>2.95</v>
-      </c>
-      <c r="W14">
-        <v>1.35</v>
-      </c>
-      <c r="X14">
-        <v>7.7</v>
-      </c>
-      <c r="Y14">
-        <v>1.07</v>
-      </c>
-      <c r="Z14">
-        <v>1.57</v>
-      </c>
-      <c r="AA14">
-        <v>3.6</v>
-      </c>
-      <c r="AB14">
-        <v>5</v>
-      </c>
-      <c r="AC14">
-        <v>1.05</v>
-      </c>
-      <c r="AD14">
-        <v>9</v>
-      </c>
-      <c r="AE14">
-        <v>1.33</v>
-      </c>
-      <c r="AF14">
-        <v>3.25</v>
-      </c>
-      <c r="AG14">
-        <v>2</v>
-      </c>
-      <c r="AH14">
-        <v>1.73</v>
-      </c>
-      <c r="AI14">
-        <v>2.2</v>
-      </c>
-      <c r="AJ14">
-        <v>1.62</v>
-      </c>
-      <c r="AK14">
-        <v>1.17</v>
-      </c>
-      <c r="AL14">
-        <v>1.22</v>
-      </c>
-      <c r="AM14">
-        <v>2.15</v>
-      </c>
-      <c r="AN14">
+      <c r="AV14">
+        <v>6</v>
+      </c>
+      <c r="AW14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>11</v>
+      </c>
+      <c r="AZ14">
+        <v>7</v>
+      </c>
+      <c r="BA14">
+        <v>10</v>
+      </c>
+      <c r="BB14">
         <v>3</v>
       </c>
-      <c r="AO14">
-        <v>3</v>
-      </c>
-      <c r="AP14">
-        <v>2.4</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>1.63</v>
-      </c>
-      <c r="AS14">
-        <v>0.99</v>
-      </c>
-      <c r="AT14">
-        <v>2.62</v>
-      </c>
-      <c r="AU14">
-        <v>5</v>
-      </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>2</v>
-      </c>
-      <c r="AY14">
-        <v>6</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>4</v>
-      </c>
-      <c r="BB14">
-        <v>4</v>
-      </c>
       <c r="BC14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD14">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="BE14">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="BF14">
-        <v>4.45</v>
+        <v>2.36</v>
       </c>
       <c r="BG14">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH14">
-        <v>4.4</v>
+        <v>3.14</v>
       </c>
       <c r="BI14">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="BJ14">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="BK14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL14">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="BM14">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="BN14">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="BO14">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="BP14">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3684,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7287027</v>
+        <v>7287031</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3699,190 +3702,190 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="Q15">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>4.5</v>
+      </c>
+      <c r="T15">
+        <v>1.53</v>
+      </c>
+      <c r="U15">
+        <v>2.3</v>
+      </c>
+      <c r="V15">
+        <v>3.5</v>
+      </c>
+      <c r="W15">
+        <v>1.26</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>1.04</v>
+      </c>
+      <c r="Z15">
+        <v>2.2</v>
+      </c>
+      <c r="AA15">
+        <v>3.05</v>
+      </c>
+      <c r="AB15">
+        <v>3.35</v>
+      </c>
+      <c r="AC15">
+        <v>1.1</v>
+      </c>
+      <c r="AD15">
+        <v>6.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.48</v>
+      </c>
+      <c r="AF15">
+        <v>2.6</v>
+      </c>
+      <c r="AG15">
+        <v>2.4</v>
+      </c>
+      <c r="AH15">
+        <v>1.5</v>
+      </c>
+      <c r="AI15">
         <v>2.1</v>
       </c>
-      <c r="S15">
-        <v>2.6</v>
-      </c>
-      <c r="T15">
-        <v>1.38</v>
-      </c>
-      <c r="U15">
-        <v>2.8</v>
-      </c>
-      <c r="V15">
-        <v>2.75</v>
-      </c>
-      <c r="W15">
-        <v>1.39</v>
-      </c>
-      <c r="X15">
-        <v>7</v>
-      </c>
-      <c r="Y15">
-        <v>1.08</v>
-      </c>
-      <c r="Z15">
-        <v>3.6</v>
-      </c>
-      <c r="AA15">
-        <v>3.6</v>
-      </c>
-      <c r="AB15">
-        <v>1.9</v>
-      </c>
-      <c r="AC15">
-        <v>1.05</v>
-      </c>
-      <c r="AD15">
-        <v>9.5</v>
-      </c>
-      <c r="AE15">
-        <v>1.28</v>
-      </c>
-      <c r="AF15">
-        <v>3.5</v>
-      </c>
-      <c r="AG15">
-        <v>1.87</v>
-      </c>
-      <c r="AH15">
-        <v>1.83</v>
-      </c>
-      <c r="AI15">
-        <v>1.95</v>
-      </c>
       <c r="AJ15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK15">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="AL15">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM15">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS15">
-        <v>1.02</v>
+        <v>1.31</v>
       </c>
       <c r="AT15">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="AU15">
         <v>5</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW15">
         <v>6</v>
       </c>
       <c r="AX15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY15">
         <v>11</v>
       </c>
       <c r="AZ15">
+        <v>9</v>
+      </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
         <v>8</v>
       </c>
-      <c r="BA15">
-        <v>11</v>
-      </c>
-      <c r="BB15">
-        <v>4</v>
-      </c>
-      <c r="BC15">
-        <v>15</v>
-      </c>
       <c r="BD15">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="BE15">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF15">
-        <v>1.68</v>
+        <v>2.33</v>
       </c>
       <c r="BG15">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH15">
-        <v>4.5</v>
+        <v>3.92</v>
       </c>
       <c r="BI15">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="BJ15">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="BK15">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="BL15">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="BM15">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="BN15">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="BO15">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="BP15">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3890,7 +3893,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7287028</v>
+        <v>7287027</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3905,190 +3908,190 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="Q16">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="R16">
+        <v>2.1</v>
+      </c>
+      <c r="S16">
+        <v>2.6</v>
+      </c>
+      <c r="T16">
+        <v>1.38</v>
+      </c>
+      <c r="U16">
+        <v>2.8</v>
+      </c>
+      <c r="V16">
+        <v>2.75</v>
+      </c>
+      <c r="W16">
+        <v>1.39</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>1.08</v>
+      </c>
+      <c r="Z16">
+        <v>3.6</v>
+      </c>
+      <c r="AA16">
+        <v>3.6</v>
+      </c>
+      <c r="AB16">
+        <v>1.9</v>
+      </c>
+      <c r="AC16">
+        <v>1.05</v>
+      </c>
+      <c r="AD16">
+        <v>9.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.28</v>
+      </c>
+      <c r="AF16">
+        <v>3.5</v>
+      </c>
+      <c r="AG16">
+        <v>1.87</v>
+      </c>
+      <c r="AH16">
+        <v>1.83</v>
+      </c>
+      <c r="AI16">
         <v>1.95</v>
       </c>
-      <c r="S16">
-        <v>4.5</v>
-      </c>
-      <c r="T16">
-        <v>1.46</v>
-      </c>
-      <c r="U16">
-        <v>2.5</v>
-      </c>
-      <c r="V16">
-        <v>3.1</v>
-      </c>
-      <c r="W16">
-        <v>1.31</v>
-      </c>
-      <c r="X16">
-        <v>8.5</v>
-      </c>
-      <c r="Y16">
-        <v>1.06</v>
-      </c>
-      <c r="Z16">
-        <v>2.1</v>
-      </c>
-      <c r="AA16">
-        <v>3.4</v>
-      </c>
-      <c r="AB16">
-        <v>3.2</v>
-      </c>
-      <c r="AC16">
-        <v>1.07</v>
-      </c>
-      <c r="AD16">
-        <v>8</v>
-      </c>
-      <c r="AE16">
-        <v>1.38</v>
-      </c>
-      <c r="AF16">
+      <c r="AJ16">
+        <v>1.8</v>
+      </c>
+      <c r="AK16">
+        <v>1.82</v>
+      </c>
+      <c r="AL16">
+        <v>1.28</v>
+      </c>
+      <c r="AM16">
+        <v>1.27</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>3</v>
       </c>
-      <c r="AG16">
-        <v>2.06</v>
-      </c>
-      <c r="AH16">
-        <v>1.68</v>
-      </c>
-      <c r="AI16">
-        <v>2.1</v>
-      </c>
-      <c r="AJ16">
-        <v>1.67</v>
-      </c>
-      <c r="AK16">
-        <v>1.33</v>
-      </c>
-      <c r="AL16">
+      <c r="AP16">
+        <v>1.2</v>
+      </c>
+      <c r="AQ16">
+        <v>1.8</v>
+      </c>
+      <c r="AR16">
         <v>1.32</v>
       </c>
-      <c r="AM16">
-        <v>1.63</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-      <c r="AP16">
-        <v>0.6</v>
-      </c>
-      <c r="AQ16">
-        <v>1.4</v>
-      </c>
-      <c r="AR16">
-        <v>1.48</v>
-      </c>
       <c r="AS16">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="AT16">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="AU16">
         <v>5</v>
       </c>
       <c r="AV16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
         <v>8</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>11</v>
       </c>
-      <c r="BA16">
-        <v>3</v>
-      </c>
       <c r="BB16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD16">
-        <v>1.72</v>
+        <v>2.55</v>
       </c>
       <c r="BE16">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF16">
-        <v>2.55</v>
+        <v>1.68</v>
       </c>
       <c r="BG16">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="BH16">
-        <v>3.18</v>
+        <v>4.5</v>
       </c>
       <c r="BI16">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="BJ16">
-        <v>2.29</v>
+        <v>2.93</v>
       </c>
       <c r="BK16">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="BL16">
-        <v>1.79</v>
+        <v>2.19</v>
       </c>
       <c r="BM16">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="BN16">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="BO16">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="BP16">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4096,7 +4099,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7287029</v>
+        <v>7287028</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4111,190 +4114,190 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="Q17">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R17">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T17">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="U17">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="V17">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="W17">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="X17">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y17">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z17">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AA17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB17">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="AC17">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD17">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE17">
+        <v>1.38</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>2.06</v>
+      </c>
+      <c r="AH17">
+        <v>1.68</v>
+      </c>
+      <c r="AI17">
+        <v>2.1</v>
+      </c>
+      <c r="AJ17">
+        <v>1.67</v>
+      </c>
+      <c r="AK17">
         <v>1.33</v>
       </c>
-      <c r="AF17">
-        <v>3.2</v>
-      </c>
-      <c r="AG17">
-        <v>2.23</v>
-      </c>
-      <c r="AH17">
-        <v>1.58</v>
-      </c>
-      <c r="AI17">
-        <v>2.2</v>
-      </c>
-      <c r="AJ17">
-        <v>1.62</v>
-      </c>
-      <c r="AK17">
-        <v>1.2</v>
-      </c>
       <c r="AL17">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AM17">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AS17">
-        <v>1.49</v>
+        <v>0.97</v>
       </c>
       <c r="AT17">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="AU17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AW17">
         <v>3</v>
       </c>
       <c r="AX17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD17">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="BE17">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF17">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="BG17">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="BH17">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="BI17">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="BJ17">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="BK17">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="BL17">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="BM17">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BN17">
         <v>1.45</v>
       </c>
       <c r="BO17">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="BP17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4302,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7287030</v>
+        <v>7287029</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4317,46 +4320,46 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Q18">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S18">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U18">
         <v>2.65</v>
@@ -4374,133 +4377,133 @@
         <v>1.08</v>
       </c>
       <c r="Z18">
-        <v>3.05</v>
+        <v>1.73</v>
       </c>
       <c r="AA18">
+        <v>3.5</v>
+      </c>
+      <c r="AB18">
+        <v>4.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>8.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.33</v>
+      </c>
+      <c r="AF18">
+        <v>3.2</v>
+      </c>
+      <c r="AG18">
+        <v>2.23</v>
+      </c>
+      <c r="AH18">
+        <v>1.58</v>
+      </c>
+      <c r="AI18">
+        <v>2.2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.62</v>
+      </c>
+      <c r="AK18">
+        <v>1.2</v>
+      </c>
+      <c r="AL18">
+        <v>1.29</v>
+      </c>
+      <c r="AM18">
+        <v>1.93</v>
+      </c>
+      <c r="AN18">
         <v>3</v>
       </c>
-      <c r="AB18">
-        <v>2.38</v>
-      </c>
-      <c r="AC18">
-        <v>1.07</v>
-      </c>
-      <c r="AD18">
-        <v>8</v>
-      </c>
-      <c r="AE18">
-        <v>1.35</v>
-      </c>
-      <c r="AF18">
-        <v>3.1</v>
-      </c>
-      <c r="AG18">
-        <v>2.12</v>
-      </c>
-      <c r="AH18">
-        <v>1.64</v>
-      </c>
-      <c r="AI18">
-        <v>1.95</v>
-      </c>
-      <c r="AJ18">
-        <v>1.8</v>
-      </c>
-      <c r="AK18">
-        <v>1.47</v>
-      </c>
-      <c r="AL18">
-        <v>1.33</v>
-      </c>
-      <c r="AM18">
-        <v>1.44</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
       <c r="AS18">
-        <v>0.82</v>
+        <v>1.49</v>
       </c>
       <c r="AT18">
-        <v>1.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
         <v>7</v>
       </c>
-      <c r="AW18">
-        <v>5</v>
-      </c>
-      <c r="AX18">
-        <v>5</v>
-      </c>
       <c r="AY18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AZ18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA18">
         <v>4</v>
       </c>
       <c r="BB18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD18">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="BE18">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="BF18">
+        <v>2.39</v>
+      </c>
+      <c r="BG18">
+        <v>1.37</v>
+      </c>
+      <c r="BH18">
+        <v>3</v>
+      </c>
+      <c r="BI18">
+        <v>1.63</v>
+      </c>
+      <c r="BJ18">
+        <v>2.2</v>
+      </c>
+      <c r="BK18">
         <v>2.05</v>
       </c>
-      <c r="BG18">
-        <v>1.1</v>
-      </c>
-      <c r="BH18">
-        <v>6.3</v>
-      </c>
-      <c r="BI18">
-        <v>1.2</v>
-      </c>
-      <c r="BJ18">
-        <v>4.2</v>
-      </c>
-      <c r="BK18">
-        <v>1.38</v>
-      </c>
       <c r="BL18">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="BM18">
-        <v>1.61</v>
+        <v>2.65</v>
       </c>
       <c r="BN18">
-        <v>2.23</v>
+        <v>1.45</v>
       </c>
       <c r="BO18">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="BP18">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4508,7 +4511,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7287031</v>
+        <v>7287030</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4523,25 +4526,25 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -4550,163 +4553,163 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
+        <v>4.33</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
         <v>2.88</v>
       </c>
-      <c r="R19">
+      <c r="T19">
+        <v>1.42</v>
+      </c>
+      <c r="U19">
+        <v>2.65</v>
+      </c>
+      <c r="V19">
+        <v>2.85</v>
+      </c>
+      <c r="W19">
+        <v>1.37</v>
+      </c>
+      <c r="X19">
+        <v>7.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.08</v>
+      </c>
+      <c r="Z19">
+        <v>3.05</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>2.38</v>
+      </c>
+      <c r="AC19">
+        <v>1.07</v>
+      </c>
+      <c r="AD19">
+        <v>8</v>
+      </c>
+      <c r="AE19">
+        <v>1.35</v>
+      </c>
+      <c r="AF19">
+        <v>3.1</v>
+      </c>
+      <c r="AG19">
+        <v>2.12</v>
+      </c>
+      <c r="AH19">
+        <v>1.64</v>
+      </c>
+      <c r="AI19">
         <v>1.95</v>
       </c>
-      <c r="S19">
-        <v>4.5</v>
-      </c>
-      <c r="T19">
-        <v>1.53</v>
-      </c>
-      <c r="U19">
-        <v>2.3</v>
-      </c>
-      <c r="V19">
-        <v>3.5</v>
-      </c>
-      <c r="W19">
-        <v>1.26</v>
-      </c>
-      <c r="X19">
+      <c r="AJ19">
+        <v>1.8</v>
+      </c>
+      <c r="AK19">
+        <v>1.47</v>
+      </c>
+      <c r="AL19">
+        <v>1.33</v>
+      </c>
+      <c r="AM19">
+        <v>1.44</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1.5</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0.95</v>
+      </c>
+      <c r="AS19">
+        <v>0.82</v>
+      </c>
+      <c r="AT19">
+        <v>1.77</v>
+      </c>
+      <c r="AU19">
         <v>10</v>
       </c>
-      <c r="Y19">
-        <v>1.04</v>
-      </c>
-      <c r="Z19">
-        <v>2.2</v>
-      </c>
-      <c r="AA19">
-        <v>3.05</v>
-      </c>
-      <c r="AB19">
-        <v>3.35</v>
-      </c>
-      <c r="AC19">
+      <c r="AV19">
+        <v>7</v>
+      </c>
+      <c r="AW19">
+        <v>5</v>
+      </c>
+      <c r="AX19">
+        <v>5</v>
+      </c>
+      <c r="AY19">
+        <v>15</v>
+      </c>
+      <c r="AZ19">
+        <v>12</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>7</v>
+      </c>
+      <c r="BC19">
+        <v>11</v>
+      </c>
+      <c r="BD19">
+        <v>2.1</v>
+      </c>
+      <c r="BE19">
+        <v>7.4</v>
+      </c>
+      <c r="BF19">
+        <v>2.05</v>
+      </c>
+      <c r="BG19">
         <v>1.1</v>
       </c>
-      <c r="AD19">
-        <v>6.5</v>
-      </c>
-      <c r="AE19">
-        <v>1.48</v>
-      </c>
-      <c r="AF19">
-        <v>2.6</v>
-      </c>
-      <c r="AG19">
-        <v>2.4</v>
-      </c>
-      <c r="AH19">
-        <v>1.5</v>
-      </c>
-      <c r="AI19">
-        <v>2.1</v>
-      </c>
-      <c r="AJ19">
-        <v>1.67</v>
-      </c>
-      <c r="AK19">
-        <v>1.31</v>
-      </c>
-      <c r="AL19">
-        <v>1.35</v>
-      </c>
-      <c r="AM19">
-        <v>1.62</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>2</v>
-      </c>
-      <c r="AQ19">
-        <v>0.8</v>
-      </c>
-      <c r="AR19">
-        <v>1.24</v>
-      </c>
-      <c r="AS19">
-        <v>1.31</v>
-      </c>
-      <c r="AT19">
-        <v>2.55</v>
-      </c>
-      <c r="AU19">
-        <v>5</v>
-      </c>
-      <c r="AV19">
-        <v>6</v>
-      </c>
-      <c r="AW19">
-        <v>6</v>
-      </c>
-      <c r="AX19">
-        <v>3</v>
-      </c>
-      <c r="AY19">
-        <v>11</v>
-      </c>
-      <c r="AZ19">
-        <v>9</v>
-      </c>
-      <c r="BA19">
-        <v>5</v>
-      </c>
-      <c r="BB19">
-        <v>3</v>
-      </c>
-      <c r="BC19">
-        <v>8</v>
-      </c>
-      <c r="BD19">
-        <v>1.8</v>
-      </c>
-      <c r="BE19">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BF19">
-        <v>2.33</v>
-      </c>
-      <c r="BG19">
-        <v>1.19</v>
-      </c>
       <c r="BH19">
-        <v>3.92</v>
+        <v>6.3</v>
       </c>
       <c r="BI19">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="BJ19">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="BK19">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="BL19">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="BM19">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="BN19">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="BO19">
-        <v>2.79</v>
+        <v>1.97</v>
       </c>
       <c r="BP19">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4837,7 +4840,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5374,7 +5377,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5452,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>2.2</v>
@@ -5786,7 +5789,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5864,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6198,7 +6201,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6404,7 +6407,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6610,7 +6613,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6816,7 +6819,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>2.05</v>
@@ -6980,7 +6983,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7287044</v>
+        <v>7287045</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -6995,10 +6998,10 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7010,175 +7013,175 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T31">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U31">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W31">
         <v>1.3</v>
       </c>
       <c r="X31">
-        <v>8.5</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z31">
-        <v>1.68</v>
+        <v>2.42</v>
       </c>
       <c r="AA31">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
       <c r="AB31">
-        <v>4.4</v>
+        <v>2.73</v>
       </c>
       <c r="AC31">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AF31">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="AG31">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="AH31">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AI31">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AJ31">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AK31">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AL31">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM31">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AS31">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="AT31">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
         <v>5</v>
       </c>
       <c r="AV31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX31">
         <v>1</v>
       </c>
       <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
         <v>6</v>
       </c>
-      <c r="AZ31">
+      <c r="BA31">
+        <v>7</v>
+      </c>
+      <c r="BB31">
         <v>5</v>
       </c>
-      <c r="BA31">
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <v>4</v>
-      </c>
       <c r="BC31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD31">
-        <v>1.69</v>
+        <v>2.09</v>
       </c>
       <c r="BE31">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="BF31">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="BG31">
+        <v>1.22</v>
+      </c>
+      <c r="BH31">
+        <v>3.8</v>
+      </c>
+      <c r="BI31">
         <v>1.4</v>
       </c>
-      <c r="BH31">
-        <v>2.72</v>
-      </c>
-      <c r="BI31">
-        <v>1.78</v>
-      </c>
       <c r="BJ31">
-        <v>2.03</v>
+        <v>2.7</v>
       </c>
       <c r="BK31">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BL31">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="BM31">
-        <v>2.98</v>
+        <v>2</v>
       </c>
       <c r="BN31">
-        <v>1.32</v>
+        <v>1.73</v>
       </c>
       <c r="BO31">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="BP31">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7186,7 +7189,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7287045</v>
+        <v>7287044</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7201,10 +7204,10 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -7216,175 +7219,175 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q32">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="U32">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W32">
         <v>1.3</v>
       </c>
       <c r="X32">
-        <v>8.949999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="Y32">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z32">
-        <v>2.42</v>
+        <v>1.68</v>
       </c>
       <c r="AA32">
-        <v>2.86</v>
+        <v>3.24</v>
       </c>
       <c r="AB32">
-        <v>2.73</v>
+        <v>4.4</v>
       </c>
       <c r="AC32">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE32">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AF32">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="AG32">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="AH32">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AI32">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AJ32">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AK32">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AL32">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM32">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.27</v>
+        <v>0.88</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>1.88</v>
       </c>
       <c r="AU32">
         <v>5</v>
       </c>
       <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <v>6</v>
+      </c>
+      <c r="AZ32">
         <v>5</v>
       </c>
-      <c r="AW32">
-        <v>6</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>11</v>
-      </c>
-      <c r="AZ32">
-        <v>6</v>
-      </c>
       <c r="BA32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD32">
-        <v>2.09</v>
+        <v>1.69</v>
       </c>
       <c r="BE32">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="BF32">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="BG32">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="BH32">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="BI32">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="BJ32">
-        <v>2.7</v>
+        <v>2.03</v>
       </c>
       <c r="BK32">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BL32">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="BM32">
-        <v>2</v>
+        <v>2.98</v>
       </c>
       <c r="BN32">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="BO32">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP32">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7434,7 +7437,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8464,7 +8467,7 @@
         <v>101</v>
       </c>
       <c r="P38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8670,7 +8673,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8834,7 +8837,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7287054</v>
+        <v>7287053</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8849,190 +8852,190 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O40" t="s">
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q40">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="T40">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="U40">
+        <v>2.94</v>
+      </c>
+      <c r="V40">
+        <v>3.03</v>
+      </c>
+      <c r="W40">
+        <v>1.39</v>
+      </c>
+      <c r="X40">
+        <v>7.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.07</v>
+      </c>
+      <c r="Z40">
+        <v>1.6</v>
+      </c>
+      <c r="AA40">
+        <v>4.05</v>
+      </c>
+      <c r="AB40">
+        <v>5.55</v>
+      </c>
+      <c r="AC40">
+        <v>1.05</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>1.33</v>
+      </c>
+      <c r="AF40">
+        <v>3.25</v>
+      </c>
+      <c r="AG40">
+        <v>1.94</v>
+      </c>
+      <c r="AH40">
+        <v>1.83</v>
+      </c>
+      <c r="AI40">
         <v>2.5</v>
       </c>
-      <c r="V40">
-        <v>3.2</v>
-      </c>
-      <c r="W40">
-        <v>1.3</v>
-      </c>
-      <c r="X40">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y40">
-        <v>1.06</v>
-      </c>
-      <c r="Z40">
-        <v>4.53</v>
-      </c>
-      <c r="AA40">
-        <v>3.58</v>
-      </c>
-      <c r="AB40">
-        <v>1.81</v>
-      </c>
-      <c r="AC40">
-        <v>1.07</v>
-      </c>
-      <c r="AD40">
-        <v>8</v>
-      </c>
-      <c r="AE40">
-        <v>1.49</v>
-      </c>
-      <c r="AF40">
-        <v>2.38</v>
-      </c>
-      <c r="AG40">
-        <v>2.28</v>
-      </c>
-      <c r="AH40">
-        <v>1.56</v>
-      </c>
-      <c r="AI40">
-        <v>2.2</v>
-      </c>
       <c r="AJ40">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AK40">
-        <v>1.83</v>
+        <v>1.11</v>
       </c>
       <c r="AL40">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM40">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="AN40">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="AO40">
-        <v>2.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="AR40">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AS40">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="AT40">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AU40">
         <v>6</v>
       </c>
       <c r="AV40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>5</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
         <v>8</v>
       </c>
-      <c r="AZ40">
-        <v>10</v>
-      </c>
-      <c r="BA40">
-        <v>2</v>
-      </c>
-      <c r="BB40">
-        <v>4</v>
-      </c>
-      <c r="BC40">
-        <v>6</v>
-      </c>
       <c r="BD40">
-        <v>2.13</v>
+        <v>1.29</v>
       </c>
       <c r="BE40">
-        <v>9</v>
+        <v>9.85</v>
       </c>
       <c r="BF40">
-        <v>1.95</v>
+        <v>5.8</v>
       </c>
       <c r="BG40">
+        <v>1.3</v>
+      </c>
+      <c r="BH40">
+        <v>3.08</v>
+      </c>
+      <c r="BI40">
+        <v>1.56</v>
+      </c>
+      <c r="BJ40">
+        <v>2.27</v>
+      </c>
+      <c r="BK40">
+        <v>1.98</v>
+      </c>
+      <c r="BL40">
+        <v>1.82</v>
+      </c>
+      <c r="BM40">
+        <v>2.58</v>
+      </c>
+      <c r="BN40">
+        <v>1.44</v>
+      </c>
+      <c r="BO40">
+        <v>3.48</v>
+      </c>
+      <c r="BP40">
         <v>1.24</v>
-      </c>
-      <c r="BH40">
-        <v>3.48</v>
-      </c>
-      <c r="BI40">
-        <v>1.47</v>
-      </c>
-      <c r="BJ40">
-        <v>2.49</v>
-      </c>
-      <c r="BK40">
-        <v>2.38</v>
-      </c>
-      <c r="BL40">
-        <v>1.91</v>
-      </c>
-      <c r="BM40">
-        <v>2.33</v>
-      </c>
-      <c r="BN40">
-        <v>1.53</v>
-      </c>
-      <c r="BO40">
-        <v>3.08</v>
-      </c>
-      <c r="BP40">
-        <v>1.3</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9040,7 +9043,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7287052</v>
+        <v>7287055</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9055,10 +9058,10 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -9070,175 +9073,175 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q41">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="R41">
         <v>2.1</v>
       </c>
       <c r="S41">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="T41">
         <v>1.4</v>
       </c>
       <c r="U41">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="W41">
         <v>1.36</v>
       </c>
       <c r="X41">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y41">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z41">
-        <v>2.28</v>
+        <v>3.75</v>
       </c>
       <c r="AA41">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="AB41">
-        <v>3.1</v>
+        <v>1.99</v>
       </c>
       <c r="AC41">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD41">
         <v>9</v>
       </c>
       <c r="AE41">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AF41">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="AG41">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="AH41">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="AI41">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ41">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK41">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="AL41">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AM41">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
       </c>
       <c r="AR41">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="AS41">
-        <v>0.98</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>2.02</v>
+        <v>3.13</v>
       </c>
       <c r="AU41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW41">
         <v>4</v>
       </c>
       <c r="AX41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY41">
+        <v>7</v>
+      </c>
+      <c r="AZ41">
+        <v>12</v>
+      </c>
+      <c r="BA41">
+        <v>3</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
         <v>9</v>
       </c>
-      <c r="AZ41">
-        <v>6</v>
-      </c>
-      <c r="BA41">
-        <v>8</v>
-      </c>
-      <c r="BB41">
-        <v>2</v>
-      </c>
-      <c r="BC41">
-        <v>10</v>
-      </c>
       <c r="BD41">
-        <v>2.01</v>
+        <v>3.18</v>
       </c>
       <c r="BE41">
-        <v>7.42</v>
+        <v>8.15</v>
       </c>
       <c r="BF41">
-        <v>2.41</v>
+        <v>1.63</v>
       </c>
       <c r="BG41">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH41">
-        <v>3.74</v>
+        <v>4.5</v>
       </c>
       <c r="BI41">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="BJ41">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="BK41">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BL41">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BM41">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="BN41">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BO41">
-        <v>2.91</v>
+        <v>2.49</v>
       </c>
       <c r="BP41">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9246,7 +9249,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7287053</v>
+        <v>7287052</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9261,190 +9264,190 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="R42">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S42">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="T42">
         <v>1.4</v>
       </c>
       <c r="U42">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="V42">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="W42">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X42">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y42">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z42">
-        <v>1.6</v>
+        <v>2.28</v>
       </c>
       <c r="AA42">
-        <v>4.05</v>
+        <v>3.45</v>
       </c>
       <c r="AB42">
-        <v>5.55</v>
+        <v>3.1</v>
       </c>
       <c r="AC42">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD42">
         <v>9</v>
       </c>
       <c r="AE42">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AF42">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="AG42">
         <v>1.94</v>
       </c>
       <c r="AH42">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AI42">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="AJ42">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AK42">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AL42">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AM42">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="AN42">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="AS42">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="AT42">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>4</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>9</v>
+      </c>
+      <c r="AZ42">
         <v>6</v>
       </c>
-      <c r="AV42">
-        <v>3</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>2</v>
-      </c>
-      <c r="AY42">
-        <v>11</v>
-      </c>
-      <c r="AZ42">
-        <v>5</v>
-      </c>
       <c r="BA42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD42">
-        <v>1.29</v>
+        <v>2.01</v>
       </c>
       <c r="BE42">
-        <v>9.85</v>
+        <v>7.42</v>
       </c>
       <c r="BF42">
-        <v>5.8</v>
+        <v>2.41</v>
       </c>
       <c r="BG42">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="BH42">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="BI42">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="BJ42">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="BK42">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BL42">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="BM42">
-        <v>2.58</v>
+        <v>2.19</v>
       </c>
       <c r="BN42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="BO42">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="BP42">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9452,7 +9455,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7287055</v>
+        <v>7287054</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9467,97 +9470,97 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
       </c>
       <c r="R43">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S43">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="U43">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="V43">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X43">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y43">
+        <v>1.06</v>
+      </c>
+      <c r="Z43">
+        <v>4.53</v>
+      </c>
+      <c r="AA43">
+        <v>3.58</v>
+      </c>
+      <c r="AB43">
+        <v>1.81</v>
+      </c>
+      <c r="AC43">
         <v>1.07</v>
       </c>
-      <c r="Z43">
-        <v>3.75</v>
-      </c>
-      <c r="AA43">
-        <v>3.54</v>
-      </c>
-      <c r="AB43">
-        <v>1.99</v>
-      </c>
-      <c r="AC43">
-        <v>1.05</v>
-      </c>
       <c r="AD43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE43">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AF43">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="AG43">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="AH43">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="AI43">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ43">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK43">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AL43">
         <v>1.25</v>
@@ -9566,91 +9569,91 @@
         <v>1.25</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AR43">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AS43">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="AT43">
-        <v>3.13</v>
+        <v>2.43</v>
       </c>
       <c r="AU43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX43">
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
         <v>6</v>
       </c>
-      <c r="BC43">
+      <c r="BD43">
+        <v>2.13</v>
+      </c>
+      <c r="BE43">
         <v>9</v>
       </c>
-      <c r="BD43">
-        <v>3.18</v>
-      </c>
-      <c r="BE43">
-        <v>8.15</v>
-      </c>
       <c r="BF43">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="BG43">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BH43">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="BI43">
+        <v>1.47</v>
+      </c>
+      <c r="BJ43">
+        <v>2.49</v>
+      </c>
+      <c r="BK43">
+        <v>2.38</v>
+      </c>
+      <c r="BL43">
+        <v>1.91</v>
+      </c>
+      <c r="BM43">
+        <v>2.33</v>
+      </c>
+      <c r="BN43">
+        <v>1.53</v>
+      </c>
+      <c r="BO43">
+        <v>3.08</v>
+      </c>
+      <c r="BP43">
         <v>1.3</v>
-      </c>
-      <c r="BJ43">
-        <v>3.08</v>
-      </c>
-      <c r="BK43">
-        <v>1.91</v>
-      </c>
-      <c r="BL43">
-        <v>2</v>
-      </c>
-      <c r="BM43">
-        <v>1.95</v>
-      </c>
-      <c r="BN43">
-        <v>1.8</v>
-      </c>
-      <c r="BO43">
-        <v>2.49</v>
-      </c>
-      <c r="BP43">
-        <v>1.47</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9700,7 +9703,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>5.5</v>
@@ -10112,7 +10115,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10681,6 +10684,212 @@
       </c>
       <c r="BP48">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7287022</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45397.65625</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P49" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.8</v>
+      </c>
+      <c r="W49">
+        <v>1.38</v>
+      </c>
+      <c r="X49">
+        <v>7.2</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>2.05</v>
+      </c>
+      <c r="AA49">
+        <v>3.2</v>
+      </c>
+      <c r="AB49">
+        <v>3.6</v>
+      </c>
+      <c r="AC49">
+        <v>1.06</v>
+      </c>
+      <c r="AD49">
+        <v>8.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.3</v>
+      </c>
+      <c r="AF49">
+        <v>3.4</v>
+      </c>
+      <c r="AG49">
+        <v>2.1</v>
+      </c>
+      <c r="AH49">
+        <v>1.7</v>
+      </c>
+      <c r="AI49">
+        <v>1.91</v>
+      </c>
+      <c r="AJ49">
+        <v>1.91</v>
+      </c>
+      <c r="AK49">
+        <v>1.25</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.83</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>0.25</v>
+      </c>
+      <c r="AP49">
+        <v>1.4</v>
+      </c>
+      <c r="AQ49">
+        <v>0.2</v>
+      </c>
+      <c r="AR49">
+        <v>1.12</v>
+      </c>
+      <c r="AS49">
+        <v>0.9</v>
+      </c>
+      <c r="AT49">
+        <v>2.02</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>2</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>5</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>8</v>
+      </c>
+      <c r="BC49">
+        <v>12</v>
+      </c>
+      <c r="BD49">
+        <v>1.54</v>
+      </c>
+      <c r="BE49">
+        <v>7.8</v>
+      </c>
+      <c r="BF49">
+        <v>3.2</v>
+      </c>
+      <c r="BG49">
+        <v>1.29</v>
+      </c>
+      <c r="BH49">
+        <v>3.14</v>
+      </c>
+      <c r="BI49">
+        <v>1.56</v>
+      </c>
+      <c r="BJ49">
+        <v>2.27</v>
+      </c>
+      <c r="BK49">
+        <v>2</v>
+      </c>
+      <c r="BL49">
+        <v>1.8</v>
+      </c>
+      <c r="BM49">
+        <v>2.57</v>
+      </c>
+      <c r="BN49">
+        <v>1.44</v>
+      </c>
+      <c r="BO49">
+        <v>3.48</v>
+      </c>
+      <c r="BP49">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,18 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -431,6 +443,9 @@
   </si>
   <si>
     <t>['37', '40']</t>
+  </si>
+  <si>
+    <t>['56', '62', '69']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,7 +1066,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1129,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1257,7 +1272,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1335,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1541,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1669,7 +1684,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1750,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1875,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1956,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2081,7 +2096,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2162,7 +2177,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2287,7 +2302,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2493,7 +2508,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2574,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2699,7 +2714,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2777,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>1.8</v>
@@ -2983,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3111,7 +3126,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.4</v>
@@ -3189,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3317,7 +3332,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3395,10 +3410,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3523,7 +3538,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3601,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>1</v>
@@ -3729,7 +3744,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4141,7 +4156,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4553,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4837,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5043,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR21">
         <v>1.34</v>
@@ -5249,10 +5264,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5377,7 +5392,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5455,10 +5470,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR23">
         <v>1.54</v>
@@ -5661,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5789,7 +5804,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5867,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6076,7 +6091,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.35</v>
@@ -6201,7 +6216,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6279,10 +6294,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6407,7 +6422,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6485,10 +6500,10 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR28">
         <v>1.56</v>
@@ -6613,7 +6628,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6691,10 +6706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -6819,7 +6834,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>2.05</v>
@@ -7025,7 +7040,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7231,7 +7246,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7312,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7437,7 +7452,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7515,7 +7530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7930,7 +7945,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8339,7 +8354,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8467,7 +8482,7 @@
         <v>101</v>
       </c>
       <c r="P38" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8548,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.43</v>
@@ -8673,7 +8688,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8751,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -8879,7 +8894,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8957,10 +8972,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9085,7 +9100,7 @@
         <v>103</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9163,10 +9178,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9291,7 +9306,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9369,10 +9384,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.04</v>
@@ -9497,7 +9512,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9578,7 +9593,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR43">
         <v>1.38</v>
@@ -9703,7 +9718,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q44">
         <v>5.5</v>
@@ -10115,7 +10130,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10811,10 +10826,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -10890,6 +10905,1036 @@
       </c>
       <c r="BP49">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7287062</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45401.65625</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>2.1</v>
+      </c>
+      <c r="S50">
+        <v>4.5</v>
+      </c>
+      <c r="T50">
+        <v>1.4</v>
+      </c>
+      <c r="U50">
+        <v>2.75</v>
+      </c>
+      <c r="V50">
+        <v>2.75</v>
+      </c>
+      <c r="W50">
+        <v>1.4</v>
+      </c>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>1.73</v>
+      </c>
+      <c r="AA50">
+        <v>3.95</v>
+      </c>
+      <c r="AB50">
+        <v>4.19</v>
+      </c>
+      <c r="AC50">
+        <v>1.05</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.3</v>
+      </c>
+      <c r="AF50">
+        <v>3.4</v>
+      </c>
+      <c r="AG50">
+        <v>1.86</v>
+      </c>
+      <c r="AH50">
+        <v>1.93</v>
+      </c>
+      <c r="AI50">
+        <v>1.91</v>
+      </c>
+      <c r="AJ50">
+        <v>1.91</v>
+      </c>
+      <c r="AK50">
+        <v>1.15</v>
+      </c>
+      <c r="AL50">
+        <v>1.2</v>
+      </c>
+      <c r="AM50">
+        <v>2.15</v>
+      </c>
+      <c r="AN50">
+        <v>1.4</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
+      </c>
+      <c r="AP50">
+        <v>1.67</v>
+      </c>
+      <c r="AQ50">
+        <v>0.4</v>
+      </c>
+      <c r="AR50">
+        <v>1.1</v>
+      </c>
+      <c r="AS50">
+        <v>1.17</v>
+      </c>
+      <c r="AT50">
+        <v>2.27</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>6</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>5</v>
+      </c>
+      <c r="BD50">
+        <v>1.49</v>
+      </c>
+      <c r="BE50">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF50">
+        <v>3.34</v>
+      </c>
+      <c r="BG50">
+        <v>1.16</v>
+      </c>
+      <c r="BH50">
+        <v>4.8</v>
+      </c>
+      <c r="BI50">
+        <v>1.21</v>
+      </c>
+      <c r="BJ50">
+        <v>3.74</v>
+      </c>
+      <c r="BK50">
+        <v>2</v>
+      </c>
+      <c r="BL50">
+        <v>2.72</v>
+      </c>
+      <c r="BM50">
+        <v>1.7</v>
+      </c>
+      <c r="BN50">
+        <v>2.08</v>
+      </c>
+      <c r="BO50">
+        <v>2.11</v>
+      </c>
+      <c r="BP50">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7287063</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45401.65625</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q51">
+        <v>3.25</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>3.5</v>
+      </c>
+      <c r="T51">
+        <v>1.48</v>
+      </c>
+      <c r="U51">
+        <v>2.5</v>
+      </c>
+      <c r="V51">
+        <v>3.2</v>
+      </c>
+      <c r="W51">
+        <v>1.3</v>
+      </c>
+      <c r="X51">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>2.52</v>
+      </c>
+      <c r="AA51">
+        <v>2.97</v>
+      </c>
+      <c r="AB51">
+        <v>2.98</v>
+      </c>
+      <c r="AC51">
+        <v>1.07</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AE51">
+        <v>1.38</v>
+      </c>
+      <c r="AF51">
+        <v>2.95</v>
+      </c>
+      <c r="AG51">
+        <v>2.1</v>
+      </c>
+      <c r="AH51">
+        <v>1.68</v>
+      </c>
+      <c r="AI51">
+        <v>1.95</v>
+      </c>
+      <c r="AJ51">
+        <v>1.8</v>
+      </c>
+      <c r="AK51">
+        <v>1.36</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.57</v>
+      </c>
+      <c r="AN51">
+        <v>2.4</v>
+      </c>
+      <c r="AO51">
+        <v>1.4</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>1.67</v>
+      </c>
+      <c r="AR51">
+        <v>1.37</v>
+      </c>
+      <c r="AS51">
+        <v>1.56</v>
+      </c>
+      <c r="AT51">
+        <v>2.93</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>12</v>
+      </c>
+      <c r="AZ51">
+        <v>11</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>1.67</v>
+      </c>
+      <c r="BE51">
+        <v>7.7</v>
+      </c>
+      <c r="BF51">
+        <v>2.76</v>
+      </c>
+      <c r="BG51">
+        <v>1.24</v>
+      </c>
+      <c r="BH51">
+        <v>3.8</v>
+      </c>
+      <c r="BI51">
+        <v>1.24</v>
+      </c>
+      <c r="BJ51">
+        <v>3.48</v>
+      </c>
+      <c r="BK51">
+        <v>2.1</v>
+      </c>
+      <c r="BL51">
+        <v>2.55</v>
+      </c>
+      <c r="BM51">
+        <v>1.8</v>
+      </c>
+      <c r="BN51">
+        <v>2</v>
+      </c>
+      <c r="BO51">
+        <v>2.23</v>
+      </c>
+      <c r="BP51">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7287064</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45401.65625</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P52" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q52">
+        <v>3.6</v>
+      </c>
+      <c r="R52">
+        <v>1.91</v>
+      </c>
+      <c r="S52">
+        <v>3.75</v>
+      </c>
+      <c r="T52">
+        <v>1.5</v>
+      </c>
+      <c r="U52">
+        <v>2.5</v>
+      </c>
+      <c r="V52">
+        <v>3.4</v>
+      </c>
+      <c r="W52">
+        <v>1.3</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>2.59</v>
+      </c>
+      <c r="AA52">
+        <v>2.91</v>
+      </c>
+      <c r="AB52">
+        <v>2.98</v>
+      </c>
+      <c r="AC52">
+        <v>1.07</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>1.5</v>
+      </c>
+      <c r="AF52">
+        <v>2.4</v>
+      </c>
+      <c r="AG52">
+        <v>2.15</v>
+      </c>
+      <c r="AH52">
+        <v>1.62</v>
+      </c>
+      <c r="AI52">
+        <v>2.25</v>
+      </c>
+      <c r="AJ52">
+        <v>1.57</v>
+      </c>
+      <c r="AK52">
+        <v>1.48</v>
+      </c>
+      <c r="AL52">
+        <v>1.28</v>
+      </c>
+      <c r="AM52">
+        <v>1.45</v>
+      </c>
+      <c r="AN52">
+        <v>0.8</v>
+      </c>
+      <c r="AO52">
+        <v>2.2</v>
+      </c>
+      <c r="AP52">
+        <v>1.17</v>
+      </c>
+      <c r="AQ52">
+        <v>1.83</v>
+      </c>
+      <c r="AR52">
+        <v>1.33</v>
+      </c>
+      <c r="AS52">
+        <v>1.08</v>
+      </c>
+      <c r="AT52">
+        <v>2.41</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>6</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>11</v>
+      </c>
+      <c r="AZ52">
+        <v>9</v>
+      </c>
+      <c r="BA52">
+        <v>3</v>
+      </c>
+      <c r="BB52">
+        <v>8</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>1.62</v>
+      </c>
+      <c r="BE52">
+        <v>7.7</v>
+      </c>
+      <c r="BF52">
+        <v>2.91</v>
+      </c>
+      <c r="BG52">
+        <v>1.29</v>
+      </c>
+      <c r="BH52">
+        <v>3.14</v>
+      </c>
+      <c r="BI52">
+        <v>1.56</v>
+      </c>
+      <c r="BJ52">
+        <v>2.27</v>
+      </c>
+      <c r="BK52">
+        <v>2</v>
+      </c>
+      <c r="BL52">
+        <v>1.8</v>
+      </c>
+      <c r="BM52">
+        <v>2.57</v>
+      </c>
+      <c r="BN52">
+        <v>1.44</v>
+      </c>
+      <c r="BO52">
+        <v>3.48</v>
+      </c>
+      <c r="BP52">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7287065</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45401.65625</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>2.5</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>1.48</v>
+      </c>
+      <c r="U53">
+        <v>2.45</v>
+      </c>
+      <c r="V53">
+        <v>3.3</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>1.05</v>
+      </c>
+      <c r="Z53">
+        <v>2.01</v>
+      </c>
+      <c r="AA53">
+        <v>3.16</v>
+      </c>
+      <c r="AB53">
+        <v>3.93</v>
+      </c>
+      <c r="AC53">
+        <v>1.07</v>
+      </c>
+      <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>1.4</v>
+      </c>
+      <c r="AF53">
+        <v>2.9</v>
+      </c>
+      <c r="AG53">
+        <v>2.05</v>
+      </c>
+      <c r="AH53">
+        <v>1.72</v>
+      </c>
+      <c r="AI53">
+        <v>1.95</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.22</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.85</v>
+      </c>
+      <c r="AN53">
+        <v>1.8</v>
+      </c>
+      <c r="AO53">
+        <v>1.4</v>
+      </c>
+      <c r="AP53">
+        <v>1.67</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.43</v>
+      </c>
+      <c r="AS53">
+        <v>0.98</v>
+      </c>
+      <c r="AT53">
+        <v>2.41</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>9</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>4</v>
+      </c>
+      <c r="BC53">
+        <v>9</v>
+      </c>
+      <c r="BD53">
+        <v>1.62</v>
+      </c>
+      <c r="BE53">
+        <v>8.6</v>
+      </c>
+      <c r="BF53">
+        <v>2.81</v>
+      </c>
+      <c r="BG53">
+        <v>1.17</v>
+      </c>
+      <c r="BH53">
+        <v>4.7</v>
+      </c>
+      <c r="BI53">
+        <v>1.33</v>
+      </c>
+      <c r="BJ53">
+        <v>3.2</v>
+      </c>
+      <c r="BK53">
+        <v>1.83</v>
+      </c>
+      <c r="BL53">
+        <v>2.35</v>
+      </c>
+      <c r="BM53">
+        <v>1.9</v>
+      </c>
+      <c r="BN53">
+        <v>1.84</v>
+      </c>
+      <c r="BO53">
+        <v>2.4</v>
+      </c>
+      <c r="BP53">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7287066</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45401.65625</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.42</v>
+      </c>
+      <c r="U54">
+        <v>2.65</v>
+      </c>
+      <c r="V54">
+        <v>2.9</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>1.08</v>
+      </c>
+      <c r="Z54">
+        <v>2.15</v>
+      </c>
+      <c r="AA54">
+        <v>3.15</v>
+      </c>
+      <c r="AB54">
+        <v>3.51</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.33</v>
+      </c>
+      <c r="AF54">
+        <v>3.25</v>
+      </c>
+      <c r="AG54">
+        <v>2.35</v>
+      </c>
+      <c r="AH54">
+        <v>1.55</v>
+      </c>
+      <c r="AI54">
+        <v>2.05</v>
+      </c>
+      <c r="AJ54">
+        <v>1.7</v>
+      </c>
+      <c r="AK54">
+        <v>1.3</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.7</v>
+      </c>
+      <c r="AN54">
+        <v>1.25</v>
+      </c>
+      <c r="AO54">
+        <v>0.2</v>
+      </c>
+      <c r="AP54">
+        <v>1.2</v>
+      </c>
+      <c r="AQ54">
+        <v>0.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.24</v>
+      </c>
+      <c r="AS54">
+        <v>0.87</v>
+      </c>
+      <c r="AT54">
+        <v>2.11</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>11</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>16</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>8</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>11</v>
+      </c>
+      <c r="BD54">
+        <v>1.6</v>
+      </c>
+      <c r="BE54">
+        <v>7.5</v>
+      </c>
+      <c r="BF54">
+        <v>3.01</v>
+      </c>
+      <c r="BG54">
+        <v>1.46</v>
+      </c>
+      <c r="BH54">
+        <v>2.6</v>
+      </c>
+      <c r="BI54">
+        <v>1.95</v>
+      </c>
+      <c r="BJ54">
+        <v>1.85</v>
+      </c>
+      <c r="BK54">
+        <v>2.3</v>
+      </c>
+      <c r="BL54">
+        <v>1.58</v>
+      </c>
+      <c r="BM54">
+        <v>3</v>
+      </c>
+      <c r="BN54">
+        <v>1.35</v>
+      </c>
+      <c r="BO54">
+        <v>4.2</v>
+      </c>
+      <c r="BP54">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,9 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['16', '51', '56']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
   </si>
   <si>
     <t>['56', '62', '69']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1072,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1272,7 +1278,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1350,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ3">
         <v>0.4</v>
@@ -1559,7 +1565,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1684,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1890,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -2096,7 +2102,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2302,7 +2308,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2508,7 +2514,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2586,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2714,7 +2720,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3126,7 +3132,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.4</v>
@@ -3204,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>1.63</v>
@@ -3332,7 +3338,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3538,7 +3544,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3744,7 +3750,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4156,7 +4162,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4440,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -4568,7 +4574,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4649,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>0.95</v>
@@ -5264,7 +5270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5392,7 +5398,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>3.5</v>
@@ -5679,7 +5685,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5804,7 +5810,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6216,7 +6222,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6297,7 +6303,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6422,7 +6428,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6628,7 +6634,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6834,7 +6840,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>2.05</v>
@@ -7040,7 +7046,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7246,7 +7252,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7324,7 +7330,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7452,7 +7458,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7530,7 +7536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7739,7 +7745,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8148,7 +8154,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>0.8</v>
@@ -8482,7 +8488,7 @@
         <v>101</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8563,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.43</v>
@@ -8688,7 +8694,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8894,7 +8900,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8972,7 +8978,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
         <v>0.33</v>
@@ -9100,7 +9106,7 @@
         <v>103</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9181,7 +9187,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9306,7 +9312,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9512,7 +9518,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9718,7 +9724,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q44">
         <v>5.5</v>
@@ -10005,7 +10011,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>1.26</v>
@@ -10130,7 +10136,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10208,7 +10214,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.8</v>
@@ -11160,7 +11166,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11238,10 +11244,10 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11778,7 +11784,7 @@
         <v>112</v>
       </c>
       <c r="P54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11935,6 +11941,418 @@
       </c>
       <c r="BP54">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7287128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45404.65625</v>
+      </c>
+      <c r="F55">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q55">
+        <v>4.33</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>2.75</v>
+      </c>
+      <c r="T55">
+        <v>1.5</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55">
+        <v>3.4</v>
+      </c>
+      <c r="W55">
+        <v>1.3</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55">
+        <v>1.06</v>
+      </c>
+      <c r="Z55">
+        <v>3.3</v>
+      </c>
+      <c r="AA55">
+        <v>3.1</v>
+      </c>
+      <c r="AB55">
+        <v>2.1</v>
+      </c>
+      <c r="AC55">
+        <v>1.08</v>
+      </c>
+      <c r="AD55">
+        <v>7.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.42</v>
+      </c>
+      <c r="AF55">
+        <v>2.8</v>
+      </c>
+      <c r="AG55">
+        <v>2.2</v>
+      </c>
+      <c r="AH55">
+        <v>1.6</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.75</v>
+      </c>
+      <c r="AK55">
+        <v>1.44</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.48</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>1.67</v>
+      </c>
+      <c r="AP55">
+        <v>1.83</v>
+      </c>
+      <c r="AQ55">
+        <v>1.57</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1.56</v>
+      </c>
+      <c r="AT55">
+        <v>2.56</v>
+      </c>
+      <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>2</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>6</v>
+      </c>
+      <c r="AZ55">
+        <v>6</v>
+      </c>
+      <c r="BA55">
+        <v>4</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>13</v>
+      </c>
+      <c r="BD55">
+        <v>2.81</v>
+      </c>
+      <c r="BE55">
+        <v>7.8</v>
+      </c>
+      <c r="BF55">
+        <v>1.65</v>
+      </c>
+      <c r="BG55">
+        <v>1.23</v>
+      </c>
+      <c r="BH55">
+        <v>3.56</v>
+      </c>
+      <c r="BI55">
+        <v>1.46</v>
+      </c>
+      <c r="BJ55">
+        <v>2.52</v>
+      </c>
+      <c r="BK55">
+        <v>2.38</v>
+      </c>
+      <c r="BL55">
+        <v>1.94</v>
+      </c>
+      <c r="BM55">
+        <v>2.29</v>
+      </c>
+      <c r="BN55">
+        <v>1.55</v>
+      </c>
+      <c r="BO55">
+        <v>3.04</v>
+      </c>
+      <c r="BP55">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7287127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45404.65625</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>113</v>
+      </c>
+      <c r="P56" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56">
+        <v>2.4</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.63</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.36</v>
+      </c>
+      <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>1.67</v>
+      </c>
+      <c r="AA56">
+        <v>3.5</v>
+      </c>
+      <c r="AB56">
+        <v>4.6</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.35</v>
+      </c>
+      <c r="AF56">
+        <v>3.1</v>
+      </c>
+      <c r="AG56">
+        <v>2</v>
+      </c>
+      <c r="AH56">
+        <v>1.73</v>
+      </c>
+      <c r="AI56">
+        <v>2.2</v>
+      </c>
+      <c r="AJ56">
+        <v>1.62</v>
+      </c>
+      <c r="AK56">
+        <v>1.18</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>2</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>2.14</v>
+      </c>
+      <c r="AQ56">
+        <v>0.83</v>
+      </c>
+      <c r="AR56">
+        <v>1.4</v>
+      </c>
+      <c r="AS56">
+        <v>1.05</v>
+      </c>
+      <c r="AT56">
+        <v>2.45</v>
+      </c>
+      <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
+        <v>4</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>10</v>
+      </c>
+      <c r="AZ56">
+        <v>9</v>
+      </c>
+      <c r="BA56">
+        <v>6</v>
+      </c>
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
+        <v>15</v>
+      </c>
+      <c r="BD56">
+        <v>1.3</v>
+      </c>
+      <c r="BE56">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF56">
+        <v>4.86</v>
+      </c>
+      <c r="BG56">
+        <v>1.24</v>
+      </c>
+      <c r="BH56">
+        <v>3.48</v>
+      </c>
+      <c r="BI56">
+        <v>1.46</v>
+      </c>
+      <c r="BJ56">
+        <v>2.52</v>
+      </c>
+      <c r="BK56">
+        <v>2.38</v>
+      </c>
+      <c r="BL56">
+        <v>1.92</v>
+      </c>
+      <c r="BM56">
+        <v>2.32</v>
+      </c>
+      <c r="BN56">
+        <v>1.54</v>
+      </c>
+      <c r="BO56">
+        <v>3.04</v>
+      </c>
+      <c r="BP56">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -277,66 +277,66 @@
     <t>['17', '26']</t>
   </si>
   <si>
+    <t>['48', '79']</t>
+  </si>
+  <si>
     <t>['65', '90+2']</t>
   </si>
   <si>
-    <t>['48', '79']</t>
+    <t>['45+1', '58']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['7', '41', '70']</t>
   </si>
   <si>
     <t>['59', '90+2']</t>
   </si>
   <si>
-    <t>['45+1', '58']</t>
-  </si>
-  <si>
-    <t>['15']</t>
-  </si>
-  <si>
-    <t>['7', '41', '70']</t>
-  </si>
-  <si>
     <t>['30']</t>
   </si>
   <si>
     <t>['41', '45+5', '52']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['30', '77']</t>
   </si>
   <si>
-    <t>['71']</t>
-  </si>
-  <si>
     <t>['21', '26', '86']</t>
   </si>
   <si>
+    <t>['51', '74']</t>
+  </si>
+  <si>
     <t>['49', '53', '73']</t>
   </si>
   <si>
-    <t>['51', '74']</t>
+    <t>['64']</t>
   </si>
   <si>
     <t>['10', '42', '86']</t>
   </si>
   <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['31', '46', '58', '65']</t>
   </si>
   <si>
+    <t>['21', '70']</t>
+  </si>
+  <si>
     <t>['53', '56']</t>
   </si>
   <si>
-    <t>['21', '70']</t>
+    <t>['63']</t>
   </si>
   <si>
     <t>['3', '86']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['36', '50', '63']</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['16', '51', '56']</t>
   </si>
   <si>
@@ -382,70 +382,70 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['12']</t>
+    <t>['7', '14', '33', '39', '62']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
   <si>
     <t>['72', '84']</t>
   </si>
   <si>
-    <t>['7', '14', '33', '39', '62']</t>
-  </si>
-  <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['80', '85']</t>
   </si>
   <si>
+    <t>['48', '58']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
-    <t>['48', '58']</t>
-  </si>
-  <si>
     <t>['58']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['55', '71']</t>
   </si>
   <si>
     <t>['21', '57']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
+    <t>['45', '90+4']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
-    <t>['31']</t>
-  </si>
-  <si>
-    <t>['45', '90+4']</t>
+    <t>['37', '40']</t>
   </si>
   <si>
     <t>['29', '45+1']</t>
-  </si>
-  <si>
-    <t>['37', '40']</t>
   </si>
   <si>
     <t>['56', '62', '69']</t>
@@ -813,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2389,7 +2389,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3090,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7287023</v>
+        <v>7287025</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3105,190 +3105,190 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
         <v>122</v>
       </c>
       <c r="Q12">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="T12">
+        <v>1.48</v>
+      </c>
+      <c r="U12">
+        <v>2.45</v>
+      </c>
+      <c r="V12">
+        <v>3.2</v>
+      </c>
+      <c r="W12">
+        <v>1.3</v>
+      </c>
+      <c r="X12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>1.05</v>
+      </c>
+      <c r="Z12">
+        <v>2.5</v>
+      </c>
+      <c r="AA12">
+        <v>3.2</v>
+      </c>
+      <c r="AB12">
+        <v>2.5</v>
+      </c>
+      <c r="AC12">
+        <v>1.08</v>
+      </c>
+      <c r="AD12">
+        <v>7.5</v>
+      </c>
+      <c r="AE12">
         <v>1.42</v>
       </c>
-      <c r="U12">
-        <v>2.65</v>
-      </c>
-      <c r="V12">
-        <v>2.95</v>
-      </c>
-      <c r="W12">
-        <v>1.35</v>
-      </c>
-      <c r="X12">
-        <v>7.7</v>
-      </c>
-      <c r="Y12">
-        <v>1.07</v>
-      </c>
-      <c r="Z12">
-        <v>1.57</v>
-      </c>
-      <c r="AA12">
-        <v>3.6</v>
-      </c>
-      <c r="AB12">
-        <v>5</v>
-      </c>
-      <c r="AC12">
-        <v>1.05</v>
-      </c>
-      <c r="AD12">
-        <v>9</v>
-      </c>
-      <c r="AE12">
-        <v>1.33</v>
-      </c>
       <c r="AF12">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AH12">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AI12">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ12">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK12">
+        <v>1.5</v>
+      </c>
+      <c r="AL12">
+        <v>1.3</v>
+      </c>
+      <c r="AM12">
+        <v>1.4</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
         <v>1.17</v>
       </c>
-      <c r="AL12">
-        <v>1.22</v>
-      </c>
-      <c r="AM12">
-        <v>2.15</v>
-      </c>
-      <c r="AN12">
+      <c r="AQ12">
+        <v>1.83</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0.88</v>
+      </c>
+      <c r="AT12">
+        <v>1.88</v>
+      </c>
+      <c r="AU12">
         <v>3</v>
       </c>
-      <c r="AO12">
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>8</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>11</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>10</v>
+      </c>
+      <c r="BB12">
         <v>3</v>
       </c>
-      <c r="AP12">
-        <v>2.14</v>
-      </c>
-      <c r="AQ12">
-        <v>0.83</v>
-      </c>
-      <c r="AR12">
-        <v>1.63</v>
-      </c>
-      <c r="AS12">
-        <v>0.99</v>
-      </c>
-      <c r="AT12">
-        <v>2.62</v>
-      </c>
-      <c r="AU12">
-        <v>5</v>
-      </c>
-      <c r="AV12">
-        <v>2</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>2</v>
-      </c>
-      <c r="AY12">
-        <v>6</v>
-      </c>
-      <c r="AZ12">
-        <v>4</v>
-      </c>
-      <c r="BA12">
-        <v>4</v>
-      </c>
-      <c r="BB12">
-        <v>4</v>
-      </c>
       <c r="BC12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD12">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="BE12">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="BF12">
-        <v>4.45</v>
+        <v>2.36</v>
       </c>
       <c r="BG12">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH12">
-        <v>4.4</v>
+        <v>3.14</v>
       </c>
       <c r="BI12">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="BJ12">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="BK12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL12">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="BM12">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="BN12">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="BO12">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="BP12">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3335,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
         <v>123</v>
@@ -3502,7 +3502,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7287025</v>
+        <v>7287023</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3517,190 +3517,190 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
         <v>124</v>
       </c>
       <c r="Q14">
+        <v>2.4</v>
+      </c>
+      <c r="R14">
+        <v>2.05</v>
+      </c>
+      <c r="S14">
+        <v>5.5</v>
+      </c>
+      <c r="T14">
+        <v>1.42</v>
+      </c>
+      <c r="U14">
+        <v>2.65</v>
+      </c>
+      <c r="V14">
+        <v>2.95</v>
+      </c>
+      <c r="W14">
+        <v>1.35</v>
+      </c>
+      <c r="X14">
+        <v>7.7</v>
+      </c>
+      <c r="Y14">
+        <v>1.07</v>
+      </c>
+      <c r="Z14">
+        <v>1.57</v>
+      </c>
+      <c r="AA14">
+        <v>3.6</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14">
+        <v>1.33</v>
+      </c>
+      <c r="AF14">
+        <v>3.25</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>1.73</v>
+      </c>
+      <c r="AI14">
+        <v>2.2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.62</v>
+      </c>
+      <c r="AK14">
+        <v>1.17</v>
+      </c>
+      <c r="AL14">
+        <v>1.22</v>
+      </c>
+      <c r="AM14">
+        <v>2.15</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>2.14</v>
+      </c>
+      <c r="AQ14">
+        <v>0.83</v>
+      </c>
+      <c r="AR14">
+        <v>1.63</v>
+      </c>
+      <c r="AS14">
+        <v>0.99</v>
+      </c>
+      <c r="AT14">
+        <v>2.62</v>
+      </c>
+      <c r="AU14">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>6</v>
+      </c>
+      <c r="AZ14">
         <v>4</v>
       </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>3.5</v>
-      </c>
-      <c r="T14">
-        <v>1.48</v>
-      </c>
-      <c r="U14">
-        <v>2.45</v>
-      </c>
-      <c r="V14">
-        <v>3.2</v>
-      </c>
-      <c r="W14">
+      <c r="BA14">
+        <v>4</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>8</v>
+      </c>
+      <c r="BD14">
         <v>1.3</v>
       </c>
-      <c r="X14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y14">
-        <v>1.05</v>
-      </c>
-      <c r="Z14">
+      <c r="BE14">
+        <v>10.5</v>
+      </c>
+      <c r="BF14">
+        <v>4.45</v>
+      </c>
+      <c r="BG14">
+        <v>1.19</v>
+      </c>
+      <c r="BH14">
+        <v>4.4</v>
+      </c>
+      <c r="BI14">
+        <v>1.36</v>
+      </c>
+      <c r="BJ14">
+        <v>3</v>
+      </c>
+      <c r="BK14">
+        <v>2.1</v>
+      </c>
+      <c r="BL14">
+        <v>2.25</v>
+      </c>
+      <c r="BM14">
+        <v>1.97</v>
+      </c>
+      <c r="BN14">
+        <v>1.78</v>
+      </c>
+      <c r="BO14">
         <v>2.5</v>
       </c>
-      <c r="AA14">
-        <v>3.2</v>
-      </c>
-      <c r="AB14">
-        <v>2.5</v>
-      </c>
-      <c r="AC14">
-        <v>1.08</v>
-      </c>
-      <c r="AD14">
-        <v>7.5</v>
-      </c>
-      <c r="AE14">
-        <v>1.42</v>
-      </c>
-      <c r="AF14">
-        <v>2.8</v>
-      </c>
-      <c r="AG14">
-        <v>2.19</v>
-      </c>
-      <c r="AH14">
-        <v>1.68</v>
-      </c>
-      <c r="AI14">
-        <v>2.38</v>
-      </c>
-      <c r="AJ14">
-        <v>1.53</v>
-      </c>
-      <c r="AK14">
+      <c r="BP14">
         <v>1.5</v>
-      </c>
-      <c r="AL14">
-        <v>1.3</v>
-      </c>
-      <c r="AM14">
-        <v>1.4</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>1.2</v>
-      </c>
-      <c r="AQ14">
-        <v>1.83</v>
-      </c>
-      <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AS14">
-        <v>0.88</v>
-      </c>
-      <c r="AT14">
-        <v>1.88</v>
-      </c>
-      <c r="AU14">
-        <v>3</v>
-      </c>
-      <c r="AV14">
-        <v>6</v>
-      </c>
-      <c r="AW14">
-        <v>8</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14">
-        <v>11</v>
-      </c>
-      <c r="AZ14">
-        <v>7</v>
-      </c>
-      <c r="BA14">
-        <v>10</v>
-      </c>
-      <c r="BB14">
-        <v>3</v>
-      </c>
-      <c r="BC14">
-        <v>13</v>
-      </c>
-      <c r="BD14">
-        <v>1.92</v>
-      </c>
-      <c r="BE14">
-        <v>6.9</v>
-      </c>
-      <c r="BF14">
-        <v>2.36</v>
-      </c>
-      <c r="BG14">
-        <v>1.29</v>
-      </c>
-      <c r="BH14">
-        <v>3.14</v>
-      </c>
-      <c r="BI14">
-        <v>1.56</v>
-      </c>
-      <c r="BJ14">
-        <v>2.27</v>
-      </c>
-      <c r="BK14">
-        <v>2</v>
-      </c>
-      <c r="BL14">
-        <v>1.8</v>
-      </c>
-      <c r="BM14">
-        <v>2.57</v>
-      </c>
-      <c r="BN14">
-        <v>1.44</v>
-      </c>
-      <c r="BO14">
-        <v>3.48</v>
-      </c>
-      <c r="BP14">
-        <v>1.24</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3708,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7287031</v>
+        <v>7287027</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3723,190 +3723,190 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Q15">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="R15">
+        <v>2.1</v>
+      </c>
+      <c r="S15">
+        <v>2.6</v>
+      </c>
+      <c r="T15">
+        <v>1.38</v>
+      </c>
+      <c r="U15">
+        <v>2.8</v>
+      </c>
+      <c r="V15">
+        <v>2.75</v>
+      </c>
+      <c r="W15">
+        <v>1.39</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>1.08</v>
+      </c>
+      <c r="Z15">
+        <v>3.6</v>
+      </c>
+      <c r="AA15">
+        <v>3.6</v>
+      </c>
+      <c r="AB15">
+        <v>1.9</v>
+      </c>
+      <c r="AC15">
+        <v>1.05</v>
+      </c>
+      <c r="AD15">
+        <v>9.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.28</v>
+      </c>
+      <c r="AF15">
+        <v>3.5</v>
+      </c>
+      <c r="AG15">
+        <v>1.87</v>
+      </c>
+      <c r="AH15">
+        <v>1.83</v>
+      </c>
+      <c r="AI15">
         <v>1.95</v>
       </c>
-      <c r="S15">
-        <v>4.5</v>
-      </c>
-      <c r="T15">
-        <v>1.53</v>
-      </c>
-      <c r="U15">
-        <v>2.3</v>
-      </c>
-      <c r="V15">
-        <v>3.5</v>
-      </c>
-      <c r="W15">
-        <v>1.26</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Y15">
-        <v>1.04</v>
-      </c>
-      <c r="Z15">
-        <v>2.2</v>
-      </c>
-      <c r="AA15">
-        <v>3.05</v>
-      </c>
-      <c r="AB15">
-        <v>3.35</v>
-      </c>
-      <c r="AC15">
-        <v>1.1</v>
-      </c>
-      <c r="AD15">
-        <v>6.5</v>
-      </c>
-      <c r="AE15">
-        <v>1.48</v>
-      </c>
-      <c r="AF15">
-        <v>2.6</v>
-      </c>
-      <c r="AG15">
-        <v>2.4</v>
-      </c>
-      <c r="AH15">
-        <v>1.5</v>
-      </c>
-      <c r="AI15">
-        <v>2.1</v>
-      </c>
       <c r="AJ15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK15">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="AL15">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AM15">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS15">
-        <v>1.31</v>
+        <v>1.02</v>
       </c>
       <c r="AT15">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="AU15">
         <v>5</v>
       </c>
       <c r="AV15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW15">
         <v>6</v>
       </c>
       <c r="AX15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY15">
         <v>11</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD15">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="BE15">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF15">
-        <v>2.33</v>
+        <v>1.68</v>
       </c>
       <c r="BG15">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH15">
-        <v>3.92</v>
+        <v>4.5</v>
       </c>
       <c r="BI15">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="BJ15">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="BK15">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="BL15">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="BM15">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="BN15">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="BO15">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="BP15">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3914,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7287027</v>
+        <v>7287028</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3929,190 +3929,190 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16">
+        <v>2.88</v>
+      </c>
+      <c r="R16">
+        <v>1.95</v>
+      </c>
+      <c r="S16">
+        <v>4.5</v>
+      </c>
+      <c r="T16">
+        <v>1.46</v>
+      </c>
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>3.1</v>
+      </c>
+      <c r="W16">
+        <v>1.31</v>
+      </c>
+      <c r="X16">
+        <v>8.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.06</v>
+      </c>
+      <c r="Z16">
+        <v>2.1</v>
+      </c>
+      <c r="AA16">
+        <v>3.4</v>
+      </c>
+      <c r="AB16">
+        <v>3.2</v>
+      </c>
+      <c r="AC16">
+        <v>1.07</v>
+      </c>
+      <c r="AD16">
+        <v>8</v>
+      </c>
+      <c r="AE16">
+        <v>1.38</v>
+      </c>
+      <c r="AF16">
         <v>3</v>
       </c>
-      <c r="O16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16">
-        <v>4.75</v>
-      </c>
-      <c r="R16">
+      <c r="AG16">
+        <v>2.06</v>
+      </c>
+      <c r="AH16">
+        <v>1.68</v>
+      </c>
+      <c r="AI16">
         <v>2.1</v>
       </c>
-      <c r="S16">
-        <v>2.6</v>
-      </c>
-      <c r="T16">
-        <v>1.38</v>
-      </c>
-      <c r="U16">
-        <v>2.8</v>
-      </c>
-      <c r="V16">
-        <v>2.75</v>
-      </c>
-      <c r="W16">
-        <v>1.39</v>
-      </c>
-      <c r="X16">
-        <v>7</v>
-      </c>
-      <c r="Y16">
-        <v>1.08</v>
-      </c>
-      <c r="Z16">
-        <v>3.6</v>
-      </c>
-      <c r="AA16">
-        <v>3.6</v>
-      </c>
-      <c r="AB16">
-        <v>1.9</v>
-      </c>
-      <c r="AC16">
-        <v>1.05</v>
-      </c>
-      <c r="AD16">
-        <v>9.5</v>
-      </c>
-      <c r="AE16">
-        <v>1.28</v>
-      </c>
-      <c r="AF16">
-        <v>3.5</v>
-      </c>
-      <c r="AG16">
-        <v>1.87</v>
-      </c>
-      <c r="AH16">
-        <v>1.83</v>
-      </c>
-      <c r="AI16">
-        <v>1.95</v>
-      </c>
       <c r="AJ16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK16">
-        <v>1.82</v>
+        <v>1.33</v>
       </c>
       <c r="AL16">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM16">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AN16">
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AQ16">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS16">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="AT16">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="AU16">
         <v>5</v>
       </c>
       <c r="AV16">
+        <v>10</v>
+      </c>
+      <c r="AW16">
         <v>3</v>
       </c>
-      <c r="AW16">
-        <v>6</v>
-      </c>
       <c r="AX16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY16">
+        <v>8</v>
+      </c>
+      <c r="AZ16">
         <v>11</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
+        <v>3</v>
+      </c>
+      <c r="BB16">
         <v>8</v>
       </c>
-      <c r="BA16">
+      <c r="BC16">
         <v>11</v>
       </c>
-      <c r="BB16">
-        <v>4</v>
-      </c>
-      <c r="BC16">
-        <v>15</v>
-      </c>
       <c r="BD16">
+        <v>1.72</v>
+      </c>
+      <c r="BE16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF16">
         <v>2.55</v>
       </c>
-      <c r="BE16">
-        <v>9.4</v>
-      </c>
-      <c r="BF16">
-        <v>1.68</v>
-      </c>
       <c r="BG16">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="BH16">
-        <v>4.5</v>
+        <v>3.18</v>
       </c>
       <c r="BI16">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="BJ16">
-        <v>2.93</v>
+        <v>2.29</v>
       </c>
       <c r="BK16">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="BL16">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="BM16">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="BN16">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="BO16">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="BP16">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4120,7 +4120,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7287028</v>
+        <v>7287029</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4135,190 +4135,190 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17">
+        <v>3.25</v>
+      </c>
+      <c r="R17">
+        <v>1.91</v>
+      </c>
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17">
-        <v>2.88</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>4.5</v>
-      </c>
       <c r="T17">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="U17">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="V17">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="W17">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X17">
+        <v>7.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.08</v>
+      </c>
+      <c r="Z17">
+        <v>1.73</v>
+      </c>
+      <c r="AA17">
+        <v>3.5</v>
+      </c>
+      <c r="AB17">
+        <v>4.2</v>
+      </c>
+      <c r="AC17">
+        <v>1.06</v>
+      </c>
+      <c r="AD17">
         <v>8.5</v>
       </c>
-      <c r="Y17">
-        <v>1.06</v>
-      </c>
-      <c r="Z17">
-        <v>2.1</v>
-      </c>
-      <c r="AA17">
-        <v>3.4</v>
-      </c>
-      <c r="AB17">
+      <c r="AE17">
+        <v>1.33</v>
+      </c>
+      <c r="AF17">
         <v>3.2</v>
       </c>
-      <c r="AC17">
-        <v>1.07</v>
-      </c>
-      <c r="AD17">
-        <v>8</v>
-      </c>
-      <c r="AE17">
-        <v>1.38</v>
-      </c>
-      <c r="AF17">
+      <c r="AG17">
+        <v>2.23</v>
+      </c>
+      <c r="AH17">
+        <v>1.58</v>
+      </c>
+      <c r="AI17">
+        <v>2.2</v>
+      </c>
+      <c r="AJ17">
+        <v>1.62</v>
+      </c>
+      <c r="AK17">
+        <v>1.2</v>
+      </c>
+      <c r="AL17">
+        <v>1.29</v>
+      </c>
+      <c r="AM17">
+        <v>1.93</v>
+      </c>
+      <c r="AN17">
         <v>3</v>
       </c>
-      <c r="AG17">
-        <v>2.06</v>
-      </c>
-      <c r="AH17">
-        <v>1.68</v>
-      </c>
-      <c r="AI17">
-        <v>2.1</v>
-      </c>
-      <c r="AJ17">
-        <v>1.67</v>
-      </c>
-      <c r="AK17">
-        <v>1.33</v>
-      </c>
-      <c r="AL17">
-        <v>1.32</v>
-      </c>
-      <c r="AM17">
-        <v>1.63</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
       <c r="AO17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AS17">
-        <v>0.97</v>
+        <v>1.49</v>
       </c>
       <c r="AT17">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW17">
         <v>3</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>6</v>
+      </c>
+      <c r="BC17">
+        <v>10</v>
+      </c>
+      <c r="BD17">
+        <v>1.87</v>
+      </c>
+      <c r="BE17">
+        <v>7.3</v>
+      </c>
+      <c r="BF17">
+        <v>2.39</v>
+      </c>
+      <c r="BG17">
+        <v>1.37</v>
+      </c>
+      <c r="BH17">
         <v>3</v>
       </c>
-      <c r="BB17">
-        <v>8</v>
-      </c>
-      <c r="BC17">
-        <v>11</v>
-      </c>
-      <c r="BD17">
+      <c r="BI17">
+        <v>1.63</v>
+      </c>
+      <c r="BJ17">
+        <v>2.2</v>
+      </c>
+      <c r="BK17">
+        <v>2.05</v>
+      </c>
+      <c r="BL17">
         <v>1.72</v>
       </c>
-      <c r="BE17">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF17">
-        <v>2.55</v>
-      </c>
-      <c r="BG17">
-        <v>1.28</v>
-      </c>
-      <c r="BH17">
-        <v>3.18</v>
-      </c>
-      <c r="BI17">
-        <v>1.55</v>
-      </c>
-      <c r="BJ17">
-        <v>2.29</v>
-      </c>
-      <c r="BK17">
-        <v>1.96</v>
-      </c>
-      <c r="BL17">
-        <v>1.79</v>
-      </c>
       <c r="BM17">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BN17">
         <v>1.45</v>
       </c>
       <c r="BO17">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="BP17">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4326,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7287029</v>
+        <v>7287030</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4341,46 +4341,46 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O18" t="s">
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="Q18">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="R18">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T18">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U18">
         <v>2.65</v>
@@ -4398,133 +4398,133 @@
         <v>1.08</v>
       </c>
       <c r="Z18">
-        <v>1.73</v>
+        <v>3.05</v>
       </c>
       <c r="AA18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AB18">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="AC18">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD18">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE18">
+        <v>1.35</v>
+      </c>
+      <c r="AF18">
+        <v>3.1</v>
+      </c>
+      <c r="AG18">
+        <v>2.12</v>
+      </c>
+      <c r="AH18">
+        <v>1.64</v>
+      </c>
+      <c r="AI18">
+        <v>1.95</v>
+      </c>
+      <c r="AJ18">
+        <v>1.8</v>
+      </c>
+      <c r="AK18">
+        <v>1.47</v>
+      </c>
+      <c r="AL18">
         <v>1.33</v>
       </c>
-      <c r="AF18">
-        <v>3.2</v>
-      </c>
-      <c r="AG18">
-        <v>2.23</v>
-      </c>
-      <c r="AH18">
-        <v>1.58</v>
-      </c>
-      <c r="AI18">
-        <v>2.2</v>
-      </c>
-      <c r="AJ18">
-        <v>1.62</v>
-      </c>
-      <c r="AK18">
-        <v>1.2</v>
-      </c>
-      <c r="AL18">
-        <v>1.29</v>
-      </c>
       <c r="AM18">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="AS18">
-        <v>1.49</v>
+        <v>0.82</v>
       </c>
       <c r="AT18">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA18">
         <v>4</v>
       </c>
       <c r="BB18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD18">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="BE18">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="BF18">
-        <v>2.39</v>
+        <v>2.05</v>
       </c>
       <c r="BG18">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="BH18">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="BI18">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="BJ18">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="BK18">
-        <v>2.05</v>
+        <v>1.38</v>
       </c>
       <c r="BL18">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="BM18">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="BN18">
-        <v>1.45</v>
+        <v>2.23</v>
       </c>
       <c r="BO18">
-        <v>3.6</v>
+        <v>1.97</v>
       </c>
       <c r="BP18">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4532,7 +4532,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7287030</v>
+        <v>7287031</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4547,25 +4547,25 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -4577,160 +4577,160 @@
         <v>127</v>
       </c>
       <c r="Q19">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T19">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="U19">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="V19">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="W19">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="X19">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y19">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="Z19">
+        <v>2.2</v>
+      </c>
+      <c r="AA19">
         <v>3.05</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
+        <v>3.35</v>
+      </c>
+      <c r="AC19">
+        <v>1.1</v>
+      </c>
+      <c r="AD19">
+        <v>6.5</v>
+      </c>
+      <c r="AE19">
+        <v>1.48</v>
+      </c>
+      <c r="AF19">
+        <v>2.6</v>
+      </c>
+      <c r="AG19">
+        <v>2.4</v>
+      </c>
+      <c r="AH19">
+        <v>1.5</v>
+      </c>
+      <c r="AI19">
+        <v>2.1</v>
+      </c>
+      <c r="AJ19">
+        <v>1.67</v>
+      </c>
+      <c r="AK19">
+        <v>1.31</v>
+      </c>
+      <c r="AL19">
+        <v>1.35</v>
+      </c>
+      <c r="AM19">
+        <v>1.62</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0.8</v>
+      </c>
+      <c r="AR19">
+        <v>1.24</v>
+      </c>
+      <c r="AS19">
+        <v>1.31</v>
+      </c>
+      <c r="AT19">
+        <v>2.55</v>
+      </c>
+      <c r="AU19">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
         <v>3</v>
       </c>
-      <c r="AB19">
-        <v>2.38</v>
-      </c>
-      <c r="AC19">
-        <v>1.07</v>
-      </c>
-      <c r="AD19">
+      <c r="AY19">
+        <v>11</v>
+      </c>
+      <c r="AZ19">
+        <v>9</v>
+      </c>
+      <c r="BA19">
+        <v>5</v>
+      </c>
+      <c r="BB19">
+        <v>3</v>
+      </c>
+      <c r="BC19">
         <v>8</v>
       </c>
-      <c r="AE19">
-        <v>1.35</v>
-      </c>
-      <c r="AF19">
-        <v>3.1</v>
-      </c>
-      <c r="AG19">
-        <v>2.12</v>
-      </c>
-      <c r="AH19">
-        <v>1.64</v>
-      </c>
-      <c r="AI19">
-        <v>1.95</v>
-      </c>
-      <c r="AJ19">
+      <c r="BD19">
         <v>1.8</v>
       </c>
-      <c r="AK19">
-        <v>1.47</v>
-      </c>
-      <c r="AL19">
-        <v>1.33</v>
-      </c>
-      <c r="AM19">
-        <v>1.44</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1.5</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19">
-        <v>0.83</v>
-      </c>
-      <c r="AR19">
-        <v>0.95</v>
-      </c>
-      <c r="AS19">
-        <v>0.82</v>
-      </c>
-      <c r="AT19">
-        <v>1.77</v>
-      </c>
-      <c r="AU19">
-        <v>10</v>
-      </c>
-      <c r="AV19">
-        <v>7</v>
-      </c>
-      <c r="AW19">
-        <v>5</v>
-      </c>
-      <c r="AX19">
-        <v>5</v>
-      </c>
-      <c r="AY19">
-        <v>15</v>
-      </c>
-      <c r="AZ19">
-        <v>12</v>
-      </c>
-      <c r="BA19">
-        <v>4</v>
-      </c>
-      <c r="BB19">
-        <v>7</v>
-      </c>
-      <c r="BC19">
-        <v>11</v>
-      </c>
-      <c r="BD19">
-        <v>2.1</v>
-      </c>
       <c r="BE19">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF19">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="BG19">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="BH19">
-        <v>6.3</v>
+        <v>3.92</v>
       </c>
       <c r="BI19">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="BJ19">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="BK19">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="BL19">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="BM19">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="BN19">
-        <v>2.23</v>
+        <v>1.63</v>
       </c>
       <c r="BO19">
-        <v>1.97</v>
+        <v>2.79</v>
       </c>
       <c r="BP19">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4944,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7287034</v>
+        <v>7287032</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4959,10 +4959,10 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4977,172 +4977,172 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="Q21">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R21">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="T21">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="U21">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="V21">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="W21">
+        <v>1.3</v>
+      </c>
+      <c r="X21">
+        <v>7.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>1.91</v>
+      </c>
+      <c r="AA21">
+        <v>3.25</v>
+      </c>
+      <c r="AB21">
+        <v>3.6</v>
+      </c>
+      <c r="AC21">
+        <v>1.07</v>
+      </c>
+      <c r="AD21">
+        <v>8</v>
+      </c>
+      <c r="AE21">
         <v>1.4</v>
       </c>
-      <c r="X21">
-        <v>7</v>
-      </c>
-      <c r="Y21">
-        <v>1.08</v>
-      </c>
-      <c r="Z21">
-        <v>1.8</v>
-      </c>
-      <c r="AA21">
-        <v>3.4</v>
-      </c>
-      <c r="AB21">
-        <v>3.9</v>
-      </c>
-      <c r="AC21">
-        <v>1.05</v>
-      </c>
-      <c r="AD21">
-        <v>9.5</v>
-      </c>
-      <c r="AE21">
-        <v>1.28</v>
-      </c>
       <c r="AF21">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AG21">
         <v>1.85</v>
       </c>
       <c r="AH21">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ21">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK21">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AL21">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM21">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="AN21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>0.4</v>
+        <v>1.83</v>
       </c>
       <c r="AR21">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="AS21">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AT21">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU21">
         <v>3</v>
       </c>
       <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>5</v>
+      </c>
+      <c r="AZ21">
+        <v>10</v>
+      </c>
+      <c r="BA21">
         <v>3</v>
       </c>
-      <c r="AW21">
-        <v>8</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21">
-        <v>11</v>
-      </c>
-      <c r="AZ21">
-        <v>4</v>
-      </c>
-      <c r="BA21">
-        <v>12</v>
-      </c>
       <c r="BB21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD21">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="BE21">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="BF21">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="BG21">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BH21">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="BI21">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="BJ21">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="BK21">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="BL21">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="BM21">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="BN21">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="BO21">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="BP21">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5356,7 +5356,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7287032</v>
+        <v>7287034</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5371,10 +5371,10 @@
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5389,172 +5389,172 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="Q23">
+        <v>2.2</v>
+      </c>
+      <c r="R23">
+        <v>2.2</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>1.38</v>
+      </c>
+      <c r="U23">
+        <v>2.8</v>
+      </c>
+      <c r="V23">
+        <v>2.75</v>
+      </c>
+      <c r="W23">
+        <v>1.4</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>1.8</v>
+      </c>
+      <c r="AA23">
+        <v>3.4</v>
+      </c>
+      <c r="AB23">
+        <v>3.9</v>
+      </c>
+      <c r="AC23">
+        <v>1.05</v>
+      </c>
+      <c r="AD23">
+        <v>9.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.28</v>
+      </c>
+      <c r="AF23">
         <v>3.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>3.4</v>
-      </c>
-      <c r="T23">
-        <v>1.48</v>
-      </c>
-      <c r="U23">
-        <v>2.45</v>
-      </c>
-      <c r="V23">
-        <v>3.2</v>
-      </c>
-      <c r="W23">
-        <v>1.3</v>
-      </c>
-      <c r="X23">
-        <v>7.5</v>
-      </c>
-      <c r="Y23">
-        <v>1.07</v>
-      </c>
-      <c r="Z23">
-        <v>1.91</v>
-      </c>
-      <c r="AA23">
-        <v>3.25</v>
-      </c>
-      <c r="AB23">
-        <v>3.6</v>
-      </c>
-      <c r="AC23">
-        <v>1.07</v>
-      </c>
-      <c r="AD23">
-        <v>8</v>
-      </c>
-      <c r="AE23">
-        <v>1.4</v>
-      </c>
-      <c r="AF23">
-        <v>2.9</v>
       </c>
       <c r="AG23">
         <v>1.85</v>
       </c>
       <c r="AH23">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AI23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ23">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK23">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AL23">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM23">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>1.83</v>
+        <v>0.4</v>
       </c>
       <c r="AR23">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="AS23">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="AT23">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU23">
         <v>3</v>
       </c>
       <c r="AV23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>11</v>
+      </c>
+      <c r="AZ23">
         <v>4</v>
       </c>
-      <c r="AY23">
-        <v>5</v>
-      </c>
-      <c r="AZ23">
-        <v>10</v>
-      </c>
       <c r="BA23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD23">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="BE23">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="BF23">
+        <v>3.45</v>
+      </c>
+      <c r="BG23">
+        <v>1.22</v>
+      </c>
+      <c r="BH23">
+        <v>3.65</v>
+      </c>
+      <c r="BI23">
+        <v>1.44</v>
+      </c>
+      <c r="BJ23">
         <v>2.58</v>
       </c>
-      <c r="BG23">
-        <v>1.28</v>
-      </c>
-      <c r="BH23">
-        <v>3.2</v>
-      </c>
-      <c r="BI23">
-        <v>1.54</v>
-      </c>
-      <c r="BJ23">
-        <v>2.32</v>
-      </c>
       <c r="BK23">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="BL23">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="BM23">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="BN23">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="BO23">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="BP23">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>1.57</v>
@@ -5768,7 +5768,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7287037</v>
+        <v>7287040</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5783,25 +5783,25 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -5813,160 +5813,160 @@
         <v>129</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S25">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="T25">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="U25">
+        <v>2.4</v>
+      </c>
+      <c r="V25">
+        <v>3.25</v>
+      </c>
+      <c r="W25">
+        <v>1.3</v>
+      </c>
+      <c r="X25">
+        <v>8.9</v>
+      </c>
+      <c r="Y25">
+        <v>1.04</v>
+      </c>
+      <c r="Z25">
+        <v>2.4</v>
+      </c>
+      <c r="AA25">
+        <v>3.2</v>
+      </c>
+      <c r="AB25">
         <v>2.6</v>
       </c>
-      <c r="V25">
-        <v>2.95</v>
-      </c>
-      <c r="W25">
-        <v>1.35</v>
-      </c>
-      <c r="X25">
-        <v>7.4</v>
-      </c>
-      <c r="Y25">
-        <v>1.06</v>
-      </c>
-      <c r="Z25">
-        <v>3.75</v>
-      </c>
-      <c r="AA25">
-        <v>3.4</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
-      </c>
       <c r="AC25">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD25">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE25">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF25">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AG25">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="AH25">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AI25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ25">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AK25">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AL25">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM25">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR25">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="AS25">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="AT25">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AU25">
         <v>4</v>
       </c>
       <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>5</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>9</v>
+      </c>
+      <c r="BA25">
         <v>7</v>
       </c>
-      <c r="AW25">
-        <v>2</v>
-      </c>
-      <c r="AX25">
-        <v>10</v>
-      </c>
-      <c r="AY25">
-        <v>6</v>
-      </c>
-      <c r="AZ25">
-        <v>17</v>
-      </c>
-      <c r="BA25">
-        <v>1</v>
-      </c>
       <c r="BB25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD25">
-        <v>2.76</v>
+        <v>1.87</v>
       </c>
       <c r="BE25">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF25">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="BG25">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH25">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="BI25">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="BJ25">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="BK25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BL25">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="BM25">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="BN25">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="BO25">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP25">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7287038</v>
+        <v>7287039</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5989,10 +5989,10 @@
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6007,172 +6007,172 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="Q26">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R26">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T26">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U26">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V26">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W26">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y26">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z26">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="AA26">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB26">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC26">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD26">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE26">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG26">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="AH26">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AI26">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK26">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="AL26">
         <v>1.28</v>
       </c>
       <c r="AM26">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
+        <v>1.57</v>
+      </c>
+      <c r="AR26">
         <v>1.33</v>
       </c>
-      <c r="AR26">
-        <v>1.35</v>
-      </c>
       <c r="AS26">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="AT26">
-        <v>2.36</v>
+        <v>2.87</v>
       </c>
       <c r="AU26">
+        <v>2</v>
+      </c>
+      <c r="AV26">
         <v>7</v>
       </c>
-      <c r="AV26">
-        <v>3</v>
-      </c>
       <c r="AW26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ26">
+        <v>16</v>
+      </c>
+      <c r="BA26">
         <v>6</v>
       </c>
-      <c r="BA26">
-        <v>4</v>
-      </c>
       <c r="BB26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC26">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BD26">
-        <v>1.7</v>
+        <v>2.42</v>
       </c>
       <c r="BE26">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="BF26">
-        <v>2.71</v>
+        <v>1.85</v>
       </c>
       <c r="BG26">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BH26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI26">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BJ26">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BK26">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL26">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="BM26">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="BN26">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="BO26">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BP26">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6180,7 +6180,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7287039</v>
+        <v>7287038</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6195,10 +6195,10 @@
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6213,172 +6213,172 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="Q27">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U27">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V27">
+        <v>3.25</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>2.1</v>
+      </c>
+      <c r="AA27">
         <v>3.4</v>
       </c>
-      <c r="W27">
-        <v>1.3</v>
-      </c>
-      <c r="X27">
-        <v>10</v>
-      </c>
-      <c r="Y27">
-        <v>1.06</v>
-      </c>
-      <c r="Z27">
-        <v>4.5</v>
-      </c>
-      <c r="AA27">
-        <v>3.5</v>
-      </c>
       <c r="AB27">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC27">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD27">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE27">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AF27">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AG27">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="AH27">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AI27">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK27">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="AL27">
         <v>1.28</v>
       </c>
       <c r="AM27">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0.6</v>
+      </c>
+      <c r="AQ27">
         <v>1.33</v>
       </c>
-      <c r="AO27">
-        <v>0.5</v>
-      </c>
-      <c r="AP27">
-        <v>1.17</v>
-      </c>
-      <c r="AQ27">
-        <v>1.57</v>
-      </c>
       <c r="AR27">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS27">
+        <v>1.01</v>
+      </c>
+      <c r="AT27">
+        <v>2.36</v>
+      </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>3</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>3</v>
+      </c>
+      <c r="AY27">
+        <v>12</v>
+      </c>
+      <c r="AZ27">
+        <v>6</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>4</v>
+      </c>
+      <c r="BD27">
+        <v>1.7</v>
+      </c>
+      <c r="BE27">
+        <v>7.5</v>
+      </c>
+      <c r="BF27">
+        <v>2.71</v>
+      </c>
+      <c r="BG27">
+        <v>1.29</v>
+      </c>
+      <c r="BH27">
+        <v>3.4</v>
+      </c>
+      <c r="BI27">
+        <v>1.52</v>
+      </c>
+      <c r="BJ27">
+        <v>2.43</v>
+      </c>
+      <c r="BK27">
+        <v>2.38</v>
+      </c>
+      <c r="BL27">
+        <v>1.9</v>
+      </c>
+      <c r="BM27">
+        <v>2.37</v>
+      </c>
+      <c r="BN27">
         <v>1.54</v>
       </c>
-      <c r="AT27">
-        <v>2.87</v>
-      </c>
-      <c r="AU27">
-        <v>2</v>
-      </c>
-      <c r="AV27">
-        <v>7</v>
-      </c>
-      <c r="AW27">
-        <v>8</v>
-      </c>
-      <c r="AX27">
-        <v>9</v>
-      </c>
-      <c r="AY27">
-        <v>10</v>
-      </c>
-      <c r="AZ27">
-        <v>16</v>
-      </c>
-      <c r="BA27">
-        <v>6</v>
-      </c>
-      <c r="BB27">
-        <v>10</v>
-      </c>
-      <c r="BC27">
-        <v>16</v>
-      </c>
-      <c r="BD27">
-        <v>2.42</v>
-      </c>
-      <c r="BE27">
-        <v>7.4</v>
-      </c>
-      <c r="BF27">
-        <v>1.85</v>
-      </c>
-      <c r="BG27">
-        <v>1.24</v>
-      </c>
-      <c r="BH27">
-        <v>3.8</v>
-      </c>
-      <c r="BI27">
-        <v>1.44</v>
-      </c>
-      <c r="BJ27">
-        <v>2.65</v>
-      </c>
-      <c r="BK27">
-        <v>2.1</v>
-      </c>
-      <c r="BL27">
-        <v>2.03</v>
-      </c>
-      <c r="BM27">
-        <v>2.17</v>
-      </c>
-      <c r="BN27">
-        <v>1.64</v>
-      </c>
       <c r="BO27">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BP27">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6386,7 +6386,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7287040</v>
+        <v>7287037</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6401,25 +6401,25 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -6431,160 +6431,160 @@
         <v>131</v>
       </c>
       <c r="Q28">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="U28">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="V28">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="W28">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X28">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="Y28">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z28">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="AA28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB28">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AC28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD28">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AF28">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AG28">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="AH28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AI28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ28">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AK28">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AL28">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM28">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP28">
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="AS28">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="AT28">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU28">
         <v>4</v>
       </c>
       <c r="AV28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28">
+        <v>10</v>
+      </c>
+      <c r="AY28">
         <v>6</v>
       </c>
-      <c r="AX28">
+      <c r="AZ28">
+        <v>17</v>
+      </c>
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
         <v>5</v>
       </c>
-      <c r="AY28">
-        <v>10</v>
-      </c>
-      <c r="AZ28">
-        <v>9</v>
-      </c>
-      <c r="BA28">
-        <v>7</v>
-      </c>
-      <c r="BB28">
-        <v>4</v>
-      </c>
       <c r="BC28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD28">
-        <v>1.87</v>
+        <v>2.76</v>
       </c>
       <c r="BE28">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="BF28">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="BG28">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BH28">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="BI28">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="BJ28">
+        <v>2.85</v>
+      </c>
+      <c r="BK28">
+        <v>2</v>
+      </c>
+      <c r="BL28">
+        <v>1.98</v>
+      </c>
+      <c r="BM28">
+        <v>2.06</v>
+      </c>
+      <c r="BN28">
+        <v>1.71</v>
+      </c>
+      <c r="BO28">
         <v>2.6</v>
       </c>
-      <c r="BK28">
-        <v>2.25</v>
-      </c>
-      <c r="BL28">
-        <v>1.8</v>
-      </c>
-      <c r="BM28">
-        <v>2.24</v>
-      </c>
-      <c r="BN28">
-        <v>1.6</v>
-      </c>
-      <c r="BO28">
-        <v>2.9</v>
-      </c>
       <c r="BP28">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6712,7 +6712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
         <v>0.4</v>
@@ -6798,7 +6798,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7287046</v>
+        <v>7287042</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6813,10 +6813,10 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6828,175 +6828,175 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Q30">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="R30">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="U30">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="V30">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="W30">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y30">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z30">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AA30">
-        <v>3.78</v>
+        <v>3.38</v>
       </c>
       <c r="AB30">
-        <v>4.97</v>
+        <v>4.09</v>
       </c>
       <c r="AC30">
         <v>1.05</v>
       </c>
       <c r="AD30">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE30">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AF30">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="AG30">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AH30">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="AI30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ30">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AK30">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AL30">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM30">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AS30">
-        <v>0.9399999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="AT30">
-        <v>2.21</v>
+        <v>2.78</v>
       </c>
       <c r="AU30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW30">
         <v>10</v>
       </c>
       <c r="AX30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB30">
         <v>2</v>
       </c>
       <c r="BC30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD30">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="BE30">
-        <v>10.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF30">
-        <v>4.1</v>
+        <v>3.24</v>
       </c>
       <c r="BG30">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="BH30">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI30">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="BJ30">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BK30">
         <v>2.2</v>
       </c>
       <c r="BL30">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="BM30">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="BN30">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="BO30">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="BP30">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7004,7 +7004,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7287045</v>
+        <v>7287043</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7019,10 +7019,10 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7037,142 +7037,142 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>2.1</v>
+      </c>
+      <c r="S31">
+        <v>2.75</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>2.8</v>
+      </c>
+      <c r="W31">
+        <v>1.38</v>
+      </c>
+      <c r="X31">
+        <v>7.2</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>3.3</v>
+      </c>
+      <c r="AA31">
+        <v>3.16</v>
+      </c>
+      <c r="AB31">
+        <v>1.96</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>9</v>
+      </c>
+      <c r="AE31">
+        <v>1.3</v>
+      </c>
+      <c r="AF31">
         <v>3.5</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>3.5</v>
-      </c>
-      <c r="T31">
-        <v>1.51</v>
-      </c>
-      <c r="U31">
-        <v>2.4</v>
-      </c>
-      <c r="V31">
-        <v>3.25</v>
-      </c>
-      <c r="W31">
+      <c r="AG31">
+        <v>1.88</v>
+      </c>
+      <c r="AH31">
+        <v>1.73</v>
+      </c>
+      <c r="AI31">
+        <v>1.8</v>
+      </c>
+      <c r="AJ31">
+        <v>1.95</v>
+      </c>
+      <c r="AK31">
+        <v>1.73</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
         <v>1.3</v>
       </c>
-      <c r="X31">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="Y31">
-        <v>1.04</v>
-      </c>
-      <c r="Z31">
-        <v>2.42</v>
-      </c>
-      <c r="AA31">
-        <v>2.86</v>
-      </c>
-      <c r="AB31">
-        <v>2.73</v>
-      </c>
-      <c r="AC31">
-        <v>1.09</v>
-      </c>
-      <c r="AD31">
-        <v>7</v>
-      </c>
-      <c r="AE31">
-        <v>1.42</v>
-      </c>
-      <c r="AF31">
-        <v>2.7</v>
-      </c>
-      <c r="AG31">
-        <v>2.21</v>
-      </c>
-      <c r="AH31">
-        <v>1.59</v>
-      </c>
-      <c r="AI31">
-        <v>2</v>
-      </c>
-      <c r="AJ31">
-        <v>1.75</v>
-      </c>
-      <c r="AK31">
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1.2</v>
+      </c>
+      <c r="AQ31">
+        <v>0.83</v>
+      </c>
+      <c r="AR31">
         <v>1.4</v>
       </c>
-      <c r="AL31">
-        <v>1.3</v>
-      </c>
-      <c r="AM31">
-        <v>1.52</v>
-      </c>
-      <c r="AN31">
-        <v>2</v>
-      </c>
-      <c r="AO31">
-        <v>2</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31">
-        <v>1.4</v>
-      </c>
-      <c r="AR31">
-        <v>1.43</v>
-      </c>
       <c r="AS31">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AU31">
         <v>5</v>
       </c>
       <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
         <v>5</v>
       </c>
-      <c r="AW31">
-        <v>6</v>
-      </c>
       <c r="AX31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31">
         <v>6</v>
       </c>
       <c r="BA31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC31">
         <v>12</v>
       </c>
       <c r="BD31">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="BE31">
-        <v>7.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF31">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="BG31">
         <v>1.22</v>
@@ -7181,28 +7181,28 @@
         <v>3.8</v>
       </c>
       <c r="BI31">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BJ31">
-        <v>2.7</v>
+        <v>3.04</v>
       </c>
       <c r="BK31">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BL31">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BM31">
         <v>2</v>
       </c>
       <c r="BN31">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BO31">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="BP31">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7249,10 +7249,10 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7416,7 +7416,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7287042</v>
+        <v>7287045</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7431,10 +7431,10 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -7458,163 +7458,163 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q33">
+        <v>3.5</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>3.5</v>
+      </c>
+      <c r="T33">
+        <v>1.51</v>
+      </c>
+      <c r="U33">
         <v>2.4</v>
       </c>
-      <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="S33">
+      <c r="V33">
+        <v>3.25</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>1.04</v>
+      </c>
+      <c r="Z33">
+        <v>2.42</v>
+      </c>
+      <c r="AA33">
+        <v>2.86</v>
+      </c>
+      <c r="AB33">
+        <v>2.73</v>
+      </c>
+      <c r="AC33">
+        <v>1.09</v>
+      </c>
+      <c r="AD33">
+        <v>7</v>
+      </c>
+      <c r="AE33">
+        <v>1.42</v>
+      </c>
+      <c r="AF33">
+        <v>2.7</v>
+      </c>
+      <c r="AG33">
+        <v>2.21</v>
+      </c>
+      <c r="AH33">
+        <v>1.59</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <v>1.75</v>
+      </c>
+      <c r="AK33">
+        <v>1.4</v>
+      </c>
+      <c r="AL33">
+        <v>1.3</v>
+      </c>
+      <c r="AM33">
+        <v>1.52</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>1.4</v>
+      </c>
+      <c r="AR33">
+        <v>1.43</v>
+      </c>
+      <c r="AS33">
+        <v>1.27</v>
+      </c>
+      <c r="AT33">
+        <v>2.7</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
         <v>6</v>
       </c>
-      <c r="T33">
-        <v>1.35</v>
-      </c>
-      <c r="U33">
-        <v>2.95</v>
-      </c>
-      <c r="V33">
-        <v>2.6</v>
-      </c>
-      <c r="W33">
-        <v>1.44</v>
-      </c>
-      <c r="X33">
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
+        <v>11</v>
+      </c>
+      <c r="AZ33">
         <v>6</v>
       </c>
-      <c r="Y33">
-        <v>1.1</v>
-      </c>
-      <c r="Z33">
-        <v>1.7</v>
-      </c>
-      <c r="AA33">
-        <v>3.38</v>
-      </c>
-      <c r="AB33">
-        <v>4.09</v>
-      </c>
-      <c r="AC33">
-        <v>1.05</v>
-      </c>
-      <c r="AD33">
-        <v>9.5</v>
-      </c>
-      <c r="AE33">
-        <v>1.25</v>
-      </c>
-      <c r="AF33">
-        <v>3.75</v>
-      </c>
-      <c r="AG33">
-        <v>1.75</v>
-      </c>
-      <c r="AH33">
-        <v>1.96</v>
-      </c>
-      <c r="AI33">
-        <v>2.25</v>
-      </c>
-      <c r="AJ33">
-        <v>1.57</v>
-      </c>
-      <c r="AK33">
-        <v>1.2</v>
-      </c>
-      <c r="AL33">
+      <c r="BA33">
+        <v>7</v>
+      </c>
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
+      </c>
+      <c r="BD33">
+        <v>2.09</v>
+      </c>
+      <c r="BE33">
+        <v>7.6</v>
+      </c>
+      <c r="BF33">
+        <v>2.07</v>
+      </c>
+      <c r="BG33">
         <v>1.22</v>
       </c>
-      <c r="AM33">
-        <v>1.9</v>
-      </c>
-      <c r="AN33">
-        <v>3</v>
-      </c>
-      <c r="AO33">
-        <v>1.5</v>
-      </c>
-      <c r="AP33">
-        <v>2.14</v>
-      </c>
-      <c r="AQ33">
-        <v>1.75</v>
-      </c>
-      <c r="AR33">
-        <v>1.44</v>
-      </c>
-      <c r="AS33">
-        <v>1.34</v>
-      </c>
-      <c r="AT33">
-        <v>2.78</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>4</v>
-      </c>
-      <c r="AW33">
-        <v>10</v>
-      </c>
-      <c r="AX33">
-        <v>3</v>
-      </c>
-      <c r="AY33">
-        <v>10</v>
-      </c>
-      <c r="AZ33">
-        <v>7</v>
-      </c>
-      <c r="BA33">
-        <v>8</v>
-      </c>
-      <c r="BB33">
-        <v>2</v>
-      </c>
-      <c r="BC33">
-        <v>10</v>
-      </c>
-      <c r="BD33">
-        <v>1.49</v>
-      </c>
-      <c r="BE33">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF33">
-        <v>3.24</v>
-      </c>
-      <c r="BG33">
-        <v>1.29</v>
-      </c>
       <c r="BH33">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI33">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BJ33">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BK33">
         <v>2.2</v>
       </c>
       <c r="BL33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BM33">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BN33">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BO33">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BP33">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7622,7 +7622,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7287043</v>
+        <v>7287046</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7637,10 +7637,10 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7652,34 +7652,34 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S34">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="T34">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U34">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="V34">
         <v>2.8</v>
@@ -7688,19 +7688,19 @@
         <v>1.38</v>
       </c>
       <c r="X34">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>1.08</v>
       </c>
       <c r="Z34">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="AA34">
-        <v>3.16</v>
+        <v>3.78</v>
       </c>
       <c r="AB34">
-        <v>1.96</v>
+        <v>4.97</v>
       </c>
       <c r="AC34">
         <v>1.05</v>
@@ -7709,118 +7709,118 @@
         <v>9</v>
       </c>
       <c r="AE34">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF34">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="AG34">
+        <v>1.81</v>
+      </c>
+      <c r="AH34">
+        <v>1.87</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AJ34">
+        <v>1.75</v>
+      </c>
+      <c r="AK34">
+        <v>1.13</v>
+      </c>
+      <c r="AL34">
+        <v>1.2</v>
+      </c>
+      <c r="AM34">
+        <v>2.35</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1.5</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>1.8</v>
+      </c>
+      <c r="AR34">
+        <v>1.27</v>
+      </c>
+      <c r="AS34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT34">
+        <v>2.21</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>10</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="AY34">
+        <v>19</v>
+      </c>
+      <c r="AZ34">
+        <v>5</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>1.33</v>
+      </c>
+      <c r="BE34">
+        <v>10.25</v>
+      </c>
+      <c r="BF34">
+        <v>4.1</v>
+      </c>
+      <c r="BG34">
+        <v>1.16</v>
+      </c>
+      <c r="BH34">
+        <v>4.8</v>
+      </c>
+      <c r="BI34">
+        <v>1.28</v>
+      </c>
+      <c r="BJ34">
+        <v>3.2</v>
+      </c>
+      <c r="BK34">
+        <v>2.2</v>
+      </c>
+      <c r="BL34">
+        <v>2.39</v>
+      </c>
+      <c r="BM34">
+        <v>1.92</v>
+      </c>
+      <c r="BN34">
         <v>1.88</v>
       </c>
-      <c r="AH34">
-        <v>1.73</v>
-      </c>
-      <c r="AI34">
-        <v>1.8</v>
-      </c>
-      <c r="AJ34">
-        <v>1.95</v>
-      </c>
-      <c r="AK34">
-        <v>1.73</v>
-      </c>
-      <c r="AL34">
-        <v>1.25</v>
-      </c>
-      <c r="AM34">
-        <v>1.3</v>
-      </c>
-      <c r="AN34">
-        <v>1.5</v>
-      </c>
-      <c r="AO34">
-        <v>1</v>
-      </c>
-      <c r="AP34">
-        <v>1.2</v>
-      </c>
-      <c r="AQ34">
-        <v>0.83</v>
-      </c>
-      <c r="AR34">
-        <v>1.4</v>
-      </c>
-      <c r="AS34">
-        <v>1.05</v>
-      </c>
-      <c r="AT34">
-        <v>2.45</v>
-      </c>
-      <c r="AU34">
-        <v>5</v>
-      </c>
-      <c r="AV34">
-        <v>2</v>
-      </c>
-      <c r="AW34">
-        <v>5</v>
-      </c>
-      <c r="AX34">
-        <v>4</v>
-      </c>
-      <c r="AY34">
-        <v>10</v>
-      </c>
-      <c r="AZ34">
-        <v>6</v>
-      </c>
-      <c r="BA34">
-        <v>8</v>
-      </c>
-      <c r="BB34">
-        <v>4</v>
-      </c>
-      <c r="BC34">
-        <v>12</v>
-      </c>
-      <c r="BD34">
-        <v>2.07</v>
-      </c>
-      <c r="BE34">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF34">
-        <v>1.99</v>
-      </c>
-      <c r="BG34">
-        <v>1.22</v>
-      </c>
-      <c r="BH34">
-        <v>3.8</v>
-      </c>
-      <c r="BI34">
-        <v>1.31</v>
-      </c>
-      <c r="BJ34">
-        <v>3.04</v>
-      </c>
-      <c r="BK34">
-        <v>1.91</v>
-      </c>
-      <c r="BL34">
-        <v>2.25</v>
-      </c>
-      <c r="BM34">
-        <v>2</v>
-      </c>
-      <c r="BN34">
-        <v>1.8</v>
-      </c>
       <c r="BO34">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="BP34">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8034,7 +8034,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7287049</v>
+        <v>7287051</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8049,10 +8049,10 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -8064,175 +8064,175 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="Q36">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S36">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="T36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="U36">
-        <v>2.34</v>
+        <v>2.75</v>
       </c>
       <c r="V36">
-        <v>3.64</v>
+        <v>2.97</v>
       </c>
       <c r="W36">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="X36">
-        <v>10.25</v>
+        <v>7.3</v>
       </c>
       <c r="Y36">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Z36">
+        <v>5.25</v>
+      </c>
+      <c r="AA36">
+        <v>3.8</v>
+      </c>
+      <c r="AB36">
+        <v>1.62</v>
+      </c>
+      <c r="AC36">
+        <v>1.04</v>
+      </c>
+      <c r="AD36">
+        <v>2.98</v>
+      </c>
+      <c r="AE36">
+        <v>1.39</v>
+      </c>
+      <c r="AF36">
+        <v>2.98</v>
+      </c>
+      <c r="AG36">
+        <v>2.05</v>
+      </c>
+      <c r="AH36">
+        <v>1.75</v>
+      </c>
+      <c r="AI36">
+        <v>2.05</v>
+      </c>
+      <c r="AJ36">
+        <v>1.7</v>
+      </c>
+      <c r="AK36">
+        <v>2.04</v>
+      </c>
+      <c r="AL36">
+        <v>1.35</v>
+      </c>
+      <c r="AM36">
+        <v>1.21</v>
+      </c>
+      <c r="AN36">
+        <v>1.33</v>
+      </c>
+      <c r="AO36">
+        <v>1.33</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>1.57</v>
+      </c>
+      <c r="AR36">
+        <v>1.43</v>
+      </c>
+      <c r="AS36">
+        <v>1.68</v>
+      </c>
+      <c r="AT36">
+        <v>3.11</v>
+      </c>
+      <c r="AU36">
         <v>3</v>
       </c>
-      <c r="AA36">
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
         <v>3</v>
       </c>
-      <c r="AB36">
-        <v>2.55</v>
-      </c>
-      <c r="AC36">
-        <v>1.07</v>
-      </c>
-      <c r="AD36">
-        <v>2.48</v>
-      </c>
-      <c r="AE36">
-        <v>1.48</v>
-      </c>
-      <c r="AF36">
-        <v>2.48</v>
-      </c>
-      <c r="AG36">
-        <v>2.6</v>
-      </c>
-      <c r="AH36">
-        <v>1.48</v>
-      </c>
-      <c r="AI36">
-        <v>2.1</v>
-      </c>
-      <c r="AJ36">
-        <v>1.67</v>
-      </c>
-      <c r="AK36">
-        <v>1.59</v>
-      </c>
-      <c r="AL36">
-        <v>1.45</v>
-      </c>
-      <c r="AM36">
-        <v>1.4</v>
-      </c>
-      <c r="AN36">
-        <v>3</v>
-      </c>
-      <c r="AO36">
-        <v>0.67</v>
-      </c>
-      <c r="AP36">
-        <v>1.83</v>
-      </c>
-      <c r="AQ36">
-        <v>0.8</v>
-      </c>
-      <c r="AR36">
-        <v>0.99</v>
-      </c>
-      <c r="AS36">
-        <v>1.54</v>
-      </c>
-      <c r="AT36">
-        <v>2.53</v>
-      </c>
-      <c r="AU36">
-        <v>2</v>
-      </c>
-      <c r="AV36">
-        <v>3</v>
-      </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
-        <v>6</v>
-      </c>
       <c r="AY36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ36">
         <v>9</v>
       </c>
       <c r="BA36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>10</v>
+      </c>
+      <c r="BD36">
+        <v>2.92</v>
+      </c>
+      <c r="BE36">
+        <v>9.4</v>
+      </c>
+      <c r="BF36">
+        <v>1.55</v>
+      </c>
+      <c r="BG36">
+        <v>1.13</v>
+      </c>
+      <c r="BH36">
         <v>5</v>
       </c>
-      <c r="BC36">
-        <v>7</v>
-      </c>
-      <c r="BD36">
-        <v>2.22</v>
-      </c>
-      <c r="BE36">
-        <v>8.6</v>
-      </c>
-      <c r="BF36">
-        <v>1.9</v>
-      </c>
-      <c r="BG36">
-        <v>1.31</v>
-      </c>
-      <c r="BH36">
-        <v>3.04</v>
-      </c>
       <c r="BI36">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="BJ36">
-        <v>2.21</v>
+        <v>3.6</v>
       </c>
       <c r="BK36">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="BL36">
-        <v>1.74</v>
+        <v>2.62</v>
       </c>
       <c r="BM36">
-        <v>2.65</v>
+        <v>1.67</v>
       </c>
       <c r="BN36">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="BO36">
-        <v>3.64</v>
+        <v>2.04</v>
       </c>
       <c r="BP36">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8279,7 +8279,7 @@
         <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P37" t="s">
         <v>82</v>
@@ -8446,7 +8446,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7287051</v>
+        <v>7287049</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8461,10 +8461,10 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -8476,175 +8476,175 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q38">
+        <v>3.75</v>
+      </c>
+      <c r="R38">
+        <v>1.91</v>
+      </c>
+      <c r="S38">
+        <v>3.4</v>
+      </c>
+      <c r="T38">
+        <v>1.56</v>
+      </c>
+      <c r="U38">
+        <v>2.34</v>
+      </c>
+      <c r="V38">
+        <v>3.64</v>
+      </c>
+      <c r="W38">
+        <v>1.26</v>
+      </c>
+      <c r="X38">
+        <v>10.25</v>
+      </c>
+      <c r="Y38">
+        <v>1.03</v>
+      </c>
+      <c r="Z38">
         <v>3</v>
       </c>
-      <c r="O38" t="s">
-        <v>101</v>
-      </c>
-      <c r="P38" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q38">
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>2.55</v>
+      </c>
+      <c r="AC38">
+        <v>1.07</v>
+      </c>
+      <c r="AD38">
+        <v>2.48</v>
+      </c>
+      <c r="AE38">
+        <v>1.48</v>
+      </c>
+      <c r="AF38">
+        <v>2.48</v>
+      </c>
+      <c r="AG38">
+        <v>2.6</v>
+      </c>
+      <c r="AH38">
+        <v>1.48</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>1.59</v>
+      </c>
+      <c r="AL38">
+        <v>1.45</v>
+      </c>
+      <c r="AM38">
+        <v>1.4</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0.67</v>
+      </c>
+      <c r="AP38">
+        <v>1.83</v>
+      </c>
+      <c r="AQ38">
+        <v>0.8</v>
+      </c>
+      <c r="AR38">
+        <v>0.99</v>
+      </c>
+      <c r="AS38">
+        <v>1.54</v>
+      </c>
+      <c r="AT38">
+        <v>2.53</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
         <v>6</v>
       </c>
-      <c r="R38">
-        <v>2.1</v>
-      </c>
-      <c r="S38">
-        <v>2.25</v>
-      </c>
-      <c r="T38">
-        <v>1.4</v>
-      </c>
-      <c r="U38">
-        <v>2.75</v>
-      </c>
-      <c r="V38">
-        <v>2.97</v>
-      </c>
-      <c r="W38">
-        <v>1.31</v>
-      </c>
-      <c r="X38">
-        <v>7.3</v>
-      </c>
-      <c r="Y38">
-        <v>1.06</v>
-      </c>
-      <c r="Z38">
-        <v>5.25</v>
-      </c>
-      <c r="AA38">
-        <v>3.8</v>
-      </c>
-      <c r="AB38">
-        <v>1.62</v>
-      </c>
-      <c r="AC38">
-        <v>1.04</v>
-      </c>
-      <c r="AD38">
-        <v>2.98</v>
-      </c>
-      <c r="AE38">
-        <v>1.39</v>
-      </c>
-      <c r="AF38">
-        <v>2.98</v>
-      </c>
-      <c r="AG38">
-        <v>2.05</v>
-      </c>
-      <c r="AH38">
-        <v>1.75</v>
-      </c>
-      <c r="AI38">
-        <v>2.05</v>
-      </c>
-      <c r="AJ38">
-        <v>1.7</v>
-      </c>
-      <c r="AK38">
-        <v>2.04</v>
-      </c>
-      <c r="AL38">
-        <v>1.35</v>
-      </c>
-      <c r="AM38">
-        <v>1.21</v>
-      </c>
-      <c r="AN38">
-        <v>1.33</v>
-      </c>
-      <c r="AO38">
-        <v>1.33</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38">
-        <v>1.57</v>
-      </c>
-      <c r="AR38">
-        <v>1.43</v>
-      </c>
-      <c r="AS38">
-        <v>1.68</v>
-      </c>
-      <c r="AT38">
-        <v>3.11</v>
-      </c>
-      <c r="AU38">
-        <v>3</v>
-      </c>
-      <c r="AV38">
-        <v>6</v>
-      </c>
-      <c r="AW38">
+      <c r="AY38">
         <v>4</v>
-      </c>
-      <c r="AX38">
-        <v>3</v>
-      </c>
-      <c r="AY38">
-        <v>7</v>
       </c>
       <c r="AZ38">
         <v>9</v>
       </c>
       <c r="BA38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD38">
-        <v>2.92</v>
+        <v>2.22</v>
       </c>
       <c r="BE38">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF38">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="BG38">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="BH38">
-        <v>5</v>
+        <v>3.04</v>
       </c>
       <c r="BI38">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="BJ38">
-        <v>3.6</v>
+        <v>2.21</v>
       </c>
       <c r="BK38">
+        <v>2.02</v>
+      </c>
+      <c r="BL38">
+        <v>1.74</v>
+      </c>
+      <c r="BM38">
+        <v>2.65</v>
+      </c>
+      <c r="BN38">
         <v>1.42</v>
       </c>
-      <c r="BL38">
-        <v>2.62</v>
-      </c>
-      <c r="BM38">
-        <v>1.67</v>
-      </c>
-      <c r="BN38">
-        <v>2.16</v>
-      </c>
       <c r="BO38">
-        <v>2.04</v>
+        <v>3.64</v>
       </c>
       <c r="BP38">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8858,7 +8858,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7287053</v>
+        <v>7287052</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8873,190 +8873,190 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s">
         <v>138</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="R40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S40">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="T40">
         <v>1.4</v>
       </c>
       <c r="U40">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="V40">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="W40">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X40">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y40">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z40">
-        <v>1.6</v>
+        <v>2.28</v>
       </c>
       <c r="AA40">
-        <v>4.05</v>
+        <v>3.45</v>
       </c>
       <c r="AB40">
-        <v>5.55</v>
+        <v>3.1</v>
       </c>
       <c r="AC40">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD40">
         <v>9</v>
       </c>
       <c r="AE40">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AF40">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="AG40">
         <v>1.94</v>
       </c>
       <c r="AH40">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AI40">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="AJ40">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AK40">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AL40">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AM40">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="AN40">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="AS40">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="AT40">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>9</v>
+      </c>
+      <c r="AZ40">
         <v>6</v>
       </c>
-      <c r="AV40">
-        <v>3</v>
-      </c>
-      <c r="AW40">
-        <v>5</v>
-      </c>
-      <c r="AX40">
-        <v>2</v>
-      </c>
-      <c r="AY40">
-        <v>11</v>
-      </c>
-      <c r="AZ40">
-        <v>5</v>
-      </c>
       <c r="BA40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD40">
-        <v>1.29</v>
+        <v>2.01</v>
       </c>
       <c r="BE40">
-        <v>9.85</v>
+        <v>7.42</v>
       </c>
       <c r="BF40">
-        <v>5.8</v>
+        <v>2.41</v>
       </c>
       <c r="BG40">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="BH40">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="BI40">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="BJ40">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="BK40">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BL40">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="BM40">
-        <v>2.58</v>
+        <v>2.19</v>
       </c>
       <c r="BN40">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="BO40">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="BP40">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9064,7 +9064,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7287055</v>
+        <v>7287053</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9079,70 +9079,70 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P41" t="s">
         <v>139</v>
       </c>
       <c r="Q41">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S41">
-        <v>2.63</v>
+        <v>8.5</v>
       </c>
       <c r="T41">
         <v>1.4</v>
       </c>
       <c r="U41">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="V41">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="W41">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X41">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y41">
         <v>1.07</v>
       </c>
       <c r="Z41">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA41">
-        <v>3.54</v>
+        <v>4.05</v>
       </c>
       <c r="AB41">
-        <v>1.99</v>
+        <v>5.55</v>
       </c>
       <c r="AC41">
         <v>1.05</v>
@@ -9154,115 +9154,115 @@
         <v>1.33</v>
       </c>
       <c r="AF41">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AG41">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="AH41">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AI41">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AJ41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AK41">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="AL41">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM41">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO41">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>0.33</v>
       </c>
       <c r="AR41">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>0.93</v>
       </c>
       <c r="AT41">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
         <v>3</v>
       </c>
-      <c r="AV41">
-        <v>6</v>
-      </c>
       <c r="AW41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY41">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
         <v>3</v>
       </c>
-      <c r="BB41">
-        <v>6</v>
-      </c>
       <c r="BC41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD41">
-        <v>3.18</v>
+        <v>1.29</v>
       </c>
       <c r="BE41">
-        <v>8.15</v>
+        <v>9.85</v>
       </c>
       <c r="BF41">
-        <v>1.63</v>
+        <v>5.8</v>
       </c>
       <c r="BG41">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BH41">
-        <v>4.5</v>
+        <v>3.08</v>
       </c>
       <c r="BI41">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="BJ41">
-        <v>3.08</v>
+        <v>2.27</v>
       </c>
       <c r="BK41">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="BL41">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BM41">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="BN41">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="BO41">
-        <v>2.49</v>
+        <v>3.48</v>
       </c>
       <c r="BP41">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9270,7 +9270,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7287052</v>
+        <v>7287054</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9285,190 +9285,190 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="P42" t="s">
         <v>140</v>
       </c>
       <c r="Q42">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S42">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V42">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W42">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X42">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>4.53</v>
+      </c>
+      <c r="AA42">
+        <v>3.58</v>
+      </c>
+      <c r="AB42">
+        <v>1.81</v>
+      </c>
+      <c r="AC42">
+        <v>1.07</v>
+      </c>
+      <c r="AD42">
         <v>8</v>
       </c>
-      <c r="Y42">
-        <v>1.08</v>
-      </c>
-      <c r="Z42">
+      <c r="AE42">
+        <v>1.49</v>
+      </c>
+      <c r="AF42">
+        <v>2.38</v>
+      </c>
+      <c r="AG42">
         <v>2.28</v>
       </c>
-      <c r="AA42">
-        <v>3.45</v>
-      </c>
-      <c r="AB42">
-        <v>3.1</v>
-      </c>
-      <c r="AC42">
-        <v>1.02</v>
-      </c>
-      <c r="AD42">
-        <v>9</v>
-      </c>
-      <c r="AE42">
-        <v>1.27</v>
-      </c>
-      <c r="AF42">
-        <v>3.28</v>
-      </c>
-      <c r="AG42">
-        <v>1.94</v>
-      </c>
       <c r="AH42">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AI42">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AJ42">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AK42">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AL42">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AM42">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="AN42">
         <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="AS42">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="AT42">
-        <v>2.02</v>
+        <v>2.43</v>
       </c>
       <c r="AU42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV42">
         <v>4</v>
       </c>
       <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
+        <v>8</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
         <v>4</v>
       </c>
-      <c r="AX42">
-        <v>2</v>
-      </c>
-      <c r="AY42">
+      <c r="BC42">
+        <v>6</v>
+      </c>
+      <c r="BD42">
+        <v>2.13</v>
+      </c>
+      <c r="BE42">
         <v>9</v>
       </c>
-      <c r="AZ42">
-        <v>6</v>
-      </c>
-      <c r="BA42">
-        <v>8</v>
-      </c>
-      <c r="BB42">
-        <v>2</v>
-      </c>
-      <c r="BC42">
-        <v>10</v>
-      </c>
-      <c r="BD42">
-        <v>2.01</v>
-      </c>
-      <c r="BE42">
-        <v>7.42</v>
-      </c>
       <c r="BF42">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="BG42">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BH42">
-        <v>3.74</v>
+        <v>3.48</v>
       </c>
       <c r="BI42">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="BJ42">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="BK42">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="BL42">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="BM42">
-        <v>2.19</v>
+        <v>2.33</v>
       </c>
       <c r="BN42">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BO42">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="BP42">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9476,7 +9476,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7287054</v>
+        <v>7287055</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9491,28 +9491,28 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>2</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
         <v>104</v>
@@ -9524,64 +9524,64 @@
         <v>4.5</v>
       </c>
       <c r="R43">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="T43">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="U43">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="V43">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="W43">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X43">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="Y43">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z43">
-        <v>4.53</v>
+        <v>3.75</v>
       </c>
       <c r="AA43">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AB43">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="AC43">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE43">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AF43">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="AG43">
-        <v>2.28</v>
+        <v>1.99</v>
       </c>
       <c r="AH43">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="AI43">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ43">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK43">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AL43">
         <v>1.25</v>
@@ -9590,91 +9590,91 @@
         <v>1.25</v>
       </c>
       <c r="AN43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR43">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="AT43">
-        <v>2.43</v>
+        <v>3.13</v>
       </c>
       <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
         <v>6</v>
       </c>
-      <c r="AV43">
+      <c r="AW43">
         <v>4</v>
-      </c>
-      <c r="AW43">
-        <v>2</v>
       </c>
       <c r="AX43">
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD43">
-        <v>2.13</v>
+        <v>3.18</v>
       </c>
       <c r="BE43">
-        <v>9</v>
+        <v>8.15</v>
       </c>
       <c r="BF43">
+        <v>1.63</v>
+      </c>
+      <c r="BG43">
+        <v>1.18</v>
+      </c>
+      <c r="BH43">
+        <v>4.5</v>
+      </c>
+      <c r="BI43">
+        <v>1.3</v>
+      </c>
+      <c r="BJ43">
+        <v>3.08</v>
+      </c>
+      <c r="BK43">
+        <v>1.91</v>
+      </c>
+      <c r="BL43">
+        <v>2</v>
+      </c>
+      <c r="BM43">
         <v>1.95</v>
       </c>
-      <c r="BG43">
-        <v>1.24</v>
-      </c>
-      <c r="BH43">
-        <v>3.48</v>
-      </c>
-      <c r="BI43">
+      <c r="BN43">
+        <v>1.8</v>
+      </c>
+      <c r="BO43">
+        <v>2.49</v>
+      </c>
+      <c r="BP43">
         <v>1.47</v>
-      </c>
-      <c r="BJ43">
-        <v>2.49</v>
-      </c>
-      <c r="BK43">
-        <v>2.38</v>
-      </c>
-      <c r="BL43">
-        <v>1.91</v>
-      </c>
-      <c r="BM43">
-        <v>2.33</v>
-      </c>
-      <c r="BN43">
-        <v>1.53</v>
-      </c>
-      <c r="BO43">
-        <v>3.08</v>
-      </c>
-      <c r="BP43">
-        <v>1.3</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9682,7 +9682,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7287057</v>
+        <v>7287059</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>2</v>
       </c>
       <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
         <v>3</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-      <c r="N44">
-        <v>4</v>
       </c>
       <c r="O44" t="s">
         <v>105</v>
@@ -9727,160 +9727,160 @@
         <v>142</v>
       </c>
       <c r="Q44">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="R44">
         <v>2</v>
       </c>
       <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>1.5</v>
+      </c>
+      <c r="U44">
+        <v>2.4</v>
+      </c>
+      <c r="V44">
+        <v>3.4</v>
+      </c>
+      <c r="W44">
+        <v>1.28</v>
+      </c>
+      <c r="X44">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>1.04</v>
+      </c>
+      <c r="Z44">
+        <v>1.95</v>
+      </c>
+      <c r="AA44">
+        <v>3.15</v>
+      </c>
+      <c r="AB44">
+        <v>3.9</v>
+      </c>
+      <c r="AC44">
+        <v>1.09</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>1.45</v>
+      </c>
+      <c r="AF44">
+        <v>2.7</v>
+      </c>
+      <c r="AG44">
+        <v>2.3</v>
+      </c>
+      <c r="AH44">
+        <v>1.55</v>
+      </c>
+      <c r="AI44">
+        <v>2.1</v>
+      </c>
+      <c r="AJ44">
+        <v>1.67</v>
+      </c>
+      <c r="AK44">
+        <v>1.25</v>
+      </c>
+      <c r="AL44">
+        <v>1.28</v>
+      </c>
+      <c r="AM44">
+        <v>1.73</v>
+      </c>
+      <c r="AN44">
         <v>2.5</v>
       </c>
-      <c r="T44">
-        <v>1.42</v>
-      </c>
-      <c r="U44">
-        <v>2.65</v>
-      </c>
-      <c r="V44">
-        <v>2.95</v>
-      </c>
-      <c r="W44">
-        <v>1.35</v>
-      </c>
-      <c r="X44">
-        <v>7.5</v>
-      </c>
-      <c r="Y44">
-        <v>1.07</v>
-      </c>
-      <c r="Z44">
-        <v>4.35</v>
-      </c>
-      <c r="AA44">
-        <v>3.7</v>
-      </c>
-      <c r="AB44">
-        <v>1.7</v>
-      </c>
-      <c r="AC44">
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.83</v>
+      </c>
+      <c r="AQ44">
+        <v>1.8</v>
+      </c>
+      <c r="AR44">
+        <v>0.87</v>
+      </c>
+      <c r="AS44">
         <v>1.06</v>
       </c>
-      <c r="AD44">
-        <v>8.5</v>
-      </c>
-      <c r="AE44">
-        <v>1.35</v>
-      </c>
-      <c r="AF44">
-        <v>3.1</v>
-      </c>
-      <c r="AG44">
-        <v>1.83</v>
-      </c>
-      <c r="AH44">
-        <v>1.88</v>
-      </c>
-      <c r="AI44">
-        <v>2.2</v>
-      </c>
-      <c r="AJ44">
-        <v>1.62</v>
-      </c>
-      <c r="AK44">
-        <v>2.05</v>
-      </c>
-      <c r="AL44">
-        <v>1.22</v>
-      </c>
-      <c r="AM44">
-        <v>1.17</v>
-      </c>
-      <c r="AN44">
-        <v>1.25</v>
-      </c>
-      <c r="AO44">
-        <v>0.75</v>
-      </c>
-      <c r="AP44">
-        <v>1.2</v>
-      </c>
-      <c r="AQ44">
-        <v>0.8</v>
-      </c>
-      <c r="AR44">
-        <v>1.32</v>
-      </c>
-      <c r="AS44">
-        <v>1.42</v>
-      </c>
       <c r="AT44">
-        <v>2.74</v>
+        <v>1.93</v>
       </c>
       <c r="AU44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW44">
         <v>5</v>
       </c>
       <c r="AX44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY44">
+        <v>11</v>
+      </c>
+      <c r="AZ44">
+        <v>7</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>3</v>
+      </c>
+      <c r="BC44">
+        <v>5</v>
+      </c>
+      <c r="BD44">
+        <v>1.7</v>
+      </c>
+      <c r="BE44">
         <v>9</v>
       </c>
-      <c r="AZ44">
-        <v>10</v>
-      </c>
-      <c r="BA44">
-        <v>1</v>
-      </c>
-      <c r="BB44">
-        <v>5</v>
-      </c>
-      <c r="BC44">
-        <v>6</v>
-      </c>
-      <c r="BD44">
-        <v>3.16</v>
-      </c>
-      <c r="BE44">
-        <v>9.9</v>
-      </c>
       <c r="BF44">
-        <v>1.48</v>
+        <v>2.54</v>
       </c>
       <c r="BG44">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="BH44">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="BI44">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BJ44">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="BK44">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BL44">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BM44">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="BN44">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="BO44">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="BP44">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9888,7 +9888,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7287058</v>
+        <v>7287057</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9903,190 +9903,190 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="Q45">
+        <v>5.5</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2.5</v>
+      </c>
+      <c r="T45">
+        <v>1.42</v>
+      </c>
+      <c r="U45">
+        <v>2.65</v>
+      </c>
+      <c r="V45">
+        <v>2.95</v>
+      </c>
+      <c r="W45">
+        <v>1.35</v>
+      </c>
+      <c r="X45">
+        <v>7.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.07</v>
+      </c>
+      <c r="Z45">
+        <v>4.35</v>
+      </c>
+      <c r="AA45">
+        <v>3.7</v>
+      </c>
+      <c r="AB45">
+        <v>1.7</v>
+      </c>
+      <c r="AC45">
+        <v>1.06</v>
+      </c>
+      <c r="AD45">
+        <v>8.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.35</v>
+      </c>
+      <c r="AF45">
+        <v>3.1</v>
+      </c>
+      <c r="AG45">
+        <v>1.83</v>
+      </c>
+      <c r="AH45">
+        <v>1.88</v>
+      </c>
+      <c r="AI45">
+        <v>2.2</v>
+      </c>
+      <c r="AJ45">
+        <v>1.62</v>
+      </c>
+      <c r="AK45">
+        <v>2.05</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.17</v>
+      </c>
+      <c r="AN45">
+        <v>1.25</v>
+      </c>
+      <c r="AO45">
+        <v>0.75</v>
+      </c>
+      <c r="AP45">
+        <v>1.2</v>
+      </c>
+      <c r="AQ45">
+        <v>0.8</v>
+      </c>
+      <c r="AR45">
+        <v>1.32</v>
+      </c>
+      <c r="AS45">
+        <v>1.42</v>
+      </c>
+      <c r="AT45">
+        <v>2.74</v>
+      </c>
+      <c r="AU45">
         <v>4</v>
-      </c>
-      <c r="R45">
-        <v>2.05</v>
-      </c>
-      <c r="S45">
-        <v>3</v>
-      </c>
-      <c r="T45">
-        <v>1.48</v>
-      </c>
-      <c r="U45">
-        <v>2.5</v>
-      </c>
-      <c r="V45">
-        <v>3.2</v>
-      </c>
-      <c r="W45">
-        <v>1.3</v>
-      </c>
-      <c r="X45">
-        <v>8.4</v>
-      </c>
-      <c r="Y45">
-        <v>1.05</v>
-      </c>
-      <c r="Z45">
-        <v>3.25</v>
-      </c>
-      <c r="AA45">
-        <v>3.25</v>
-      </c>
-      <c r="AB45">
-        <v>2.15</v>
-      </c>
-      <c r="AC45">
-        <v>1.07</v>
-      </c>
-      <c r="AD45">
-        <v>8</v>
-      </c>
-      <c r="AE45">
-        <v>1.38</v>
-      </c>
-      <c r="AF45">
-        <v>2.95</v>
-      </c>
-      <c r="AG45">
-        <v>1.97</v>
-      </c>
-      <c r="AH45">
-        <v>1.74</v>
-      </c>
-      <c r="AI45">
-        <v>1.95</v>
-      </c>
-      <c r="AJ45">
-        <v>1.8</v>
-      </c>
-      <c r="AK45">
-        <v>1.62</v>
-      </c>
-      <c r="AL45">
-        <v>1.28</v>
-      </c>
-      <c r="AM45">
-        <v>1.33</v>
-      </c>
-      <c r="AN45">
-        <v>0.5</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0.6</v>
-      </c>
-      <c r="AQ45">
-        <v>0.83</v>
-      </c>
-      <c r="AR45">
-        <v>1.26</v>
-      </c>
-      <c r="AS45">
-        <v>0.98</v>
-      </c>
-      <c r="AT45">
-        <v>2.24</v>
-      </c>
-      <c r="AU45">
-        <v>2</v>
       </c>
       <c r="AV45">
         <v>4</v>
       </c>
       <c r="AW45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY45">
         <v>9</v>
       </c>
       <c r="AZ45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC45">
         <v>6</v>
       </c>
       <c r="BD45">
-        <v>1.86</v>
+        <v>3.16</v>
       </c>
       <c r="BE45">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="BF45">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="BG45">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="BH45">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="BI45">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="BJ45">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="BK45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL45">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="BM45">
+        <v>1.88</v>
+      </c>
+      <c r="BN45">
+        <v>1.92</v>
+      </c>
+      <c r="BO45">
         <v>2.55</v>
       </c>
-      <c r="BN45">
-        <v>1.47</v>
-      </c>
-      <c r="BO45">
-        <v>3.4</v>
-      </c>
       <c r="BP45">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10094,7 +10094,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7287059</v>
+        <v>7287058</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10109,190 +10109,190 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
         <v>3</v>
       </c>
-      <c r="O46" t="s">
-        <v>106</v>
-      </c>
-      <c r="P46" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q46">
-        <v>2.63</v>
-      </c>
-      <c r="R46">
-        <v>2</v>
-      </c>
-      <c r="S46">
-        <v>5</v>
-      </c>
       <c r="T46">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U46">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="W46">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X46">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y46">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z46">
+        <v>3.25</v>
+      </c>
+      <c r="AA46">
+        <v>3.25</v>
+      </c>
+      <c r="AB46">
+        <v>2.15</v>
+      </c>
+      <c r="AC46">
+        <v>1.07</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>1.38</v>
+      </c>
+      <c r="AF46">
+        <v>2.95</v>
+      </c>
+      <c r="AG46">
+        <v>1.97</v>
+      </c>
+      <c r="AH46">
+        <v>1.74</v>
+      </c>
+      <c r="AI46">
         <v>1.95</v>
       </c>
-      <c r="AA46">
-        <v>3.15</v>
-      </c>
-      <c r="AB46">
-        <v>3.9</v>
-      </c>
-      <c r="AC46">
-        <v>1.09</v>
-      </c>
-      <c r="AD46">
-        <v>7</v>
-      </c>
-      <c r="AE46">
-        <v>1.45</v>
-      </c>
-      <c r="AF46">
-        <v>2.7</v>
-      </c>
-      <c r="AG46">
-        <v>2.3</v>
-      </c>
-      <c r="AH46">
-        <v>1.55</v>
-      </c>
-      <c r="AI46">
-        <v>2.1</v>
-      </c>
       <c r="AJ46">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK46">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AL46">
         <v>1.28</v>
       </c>
       <c r="AM46">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AN46">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>0.6</v>
       </c>
       <c r="AQ46">
-        <v>1.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
-        <v>0.87</v>
+        <v>1.26</v>
       </c>
       <c r="AS46">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="AT46">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="AU46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ46">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB46">
         <v>3</v>
       </c>
       <c r="BC46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD46">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="BE46">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF46">
-        <v>2.54</v>
+        <v>2.27</v>
       </c>
       <c r="BG46">
+        <v>1.34</v>
+      </c>
+      <c r="BH46">
+        <v>3.1</v>
+      </c>
+      <c r="BI46">
+        <v>1.6</v>
+      </c>
+      <c r="BJ46">
+        <v>2.25</v>
+      </c>
+      <c r="BK46">
+        <v>2</v>
+      </c>
+      <c r="BL46">
+        <v>1.76</v>
+      </c>
+      <c r="BM46">
+        <v>2.55</v>
+      </c>
+      <c r="BN46">
+        <v>1.47</v>
+      </c>
+      <c r="BO46">
+        <v>3.4</v>
+      </c>
+      <c r="BP46">
         <v>1.28</v>
-      </c>
-      <c r="BH46">
-        <v>3.5</v>
-      </c>
-      <c r="BI46">
-        <v>1.5</v>
-      </c>
-      <c r="BJ46">
-        <v>2.48</v>
-      </c>
-      <c r="BK46">
-        <v>2.25</v>
-      </c>
-      <c r="BL46">
-        <v>1.98</v>
-      </c>
-      <c r="BM46">
-        <v>2.33</v>
-      </c>
-      <c r="BN46">
-        <v>1.56</v>
-      </c>
-      <c r="BO46">
-        <v>3</v>
-      </c>
-      <c r="BP46">
-        <v>1.35</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P50" t="s">
         <v>82</v>
@@ -11330,7 +11330,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7287064</v>
+        <v>7287066</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11345,10 +11345,10 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -11363,172 +11363,172 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" t="s">
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="Q52">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T52">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U52">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="V52">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="W52">
+        <v>1.36</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>1.08</v>
+      </c>
+      <c r="Z52">
+        <v>2.15</v>
+      </c>
+      <c r="AA52">
+        <v>3.15</v>
+      </c>
+      <c r="AB52">
+        <v>3.51</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>8.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.33</v>
+      </c>
+      <c r="AF52">
+        <v>3.25</v>
+      </c>
+      <c r="AG52">
+        <v>2.35</v>
+      </c>
+      <c r="AH52">
+        <v>1.55</v>
+      </c>
+      <c r="AI52">
+        <v>2.05</v>
+      </c>
+      <c r="AJ52">
+        <v>1.7</v>
+      </c>
+      <c r="AK52">
         <v>1.3</v>
       </c>
-      <c r="X52">
-        <v>10</v>
-      </c>
-      <c r="Y52">
-        <v>1.06</v>
-      </c>
-      <c r="Z52">
-        <v>2.59</v>
-      </c>
-      <c r="AA52">
-        <v>2.91</v>
-      </c>
-      <c r="AB52">
-        <v>2.98</v>
-      </c>
-      <c r="AC52">
-        <v>1.07</v>
-      </c>
-      <c r="AD52">
-        <v>8</v>
-      </c>
-      <c r="AE52">
-        <v>1.5</v>
-      </c>
-      <c r="AF52">
-        <v>2.4</v>
-      </c>
-      <c r="AG52">
-        <v>2.15</v>
-      </c>
-      <c r="AH52">
-        <v>1.62</v>
-      </c>
-      <c r="AI52">
-        <v>2.25</v>
-      </c>
-      <c r="AJ52">
-        <v>1.57</v>
-      </c>
-      <c r="AK52">
-        <v>1.48</v>
-      </c>
       <c r="AL52">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM52">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AN52">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="AO52">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="AP52">
         <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>1.83</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AS52">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="AT52">
-        <v>2.41</v>
+        <v>2.11</v>
       </c>
       <c r="AU52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW52">
+        <v>11</v>
+      </c>
+      <c r="AX52">
         <v>5</v>
       </c>
-      <c r="AX52">
-        <v>3</v>
-      </c>
       <c r="AY52">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
         <v>9</v>
       </c>
       <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
         <v>3</v>
-      </c>
-      <c r="BB52">
-        <v>8</v>
       </c>
       <c r="BC52">
         <v>11</v>
       </c>
       <c r="BD52">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="BE52">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="BF52">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="BG52">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="BH52">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="BI52">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="BJ52">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="BK52">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BL52">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="BM52">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="BN52">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BO52">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="BP52">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11742,7 +11742,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7287066</v>
+        <v>7287064</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11757,10 +11757,10 @@
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -11775,172 +11775,172 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
         <v>112</v>
       </c>
       <c r="P54" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Q54">
+        <v>3.6</v>
+      </c>
+      <c r="R54">
+        <v>1.91</v>
+      </c>
+      <c r="S54">
+        <v>3.75</v>
+      </c>
+      <c r="T54">
+        <v>1.5</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>3.4</v>
+      </c>
+      <c r="W54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54">
+        <v>1.06</v>
+      </c>
+      <c r="Z54">
+        <v>2.59</v>
+      </c>
+      <c r="AA54">
+        <v>2.91</v>
+      </c>
+      <c r="AB54">
+        <v>2.98</v>
+      </c>
+      <c r="AC54">
+        <v>1.07</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.5</v>
+      </c>
+      <c r="AF54">
+        <v>2.4</v>
+      </c>
+      <c r="AG54">
+        <v>2.15</v>
+      </c>
+      <c r="AH54">
+        <v>1.62</v>
+      </c>
+      <c r="AI54">
+        <v>2.25</v>
+      </c>
+      <c r="AJ54">
+        <v>1.57</v>
+      </c>
+      <c r="AK54">
+        <v>1.48</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.45</v>
+      </c>
+      <c r="AN54">
+        <v>0.8</v>
+      </c>
+      <c r="AO54">
+        <v>2.2</v>
+      </c>
+      <c r="AP54">
+        <v>1.17</v>
+      </c>
+      <c r="AQ54">
+        <v>1.83</v>
+      </c>
+      <c r="AR54">
+        <v>1.33</v>
+      </c>
+      <c r="AS54">
+        <v>1.08</v>
+      </c>
+      <c r="AT54">
+        <v>2.41</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
         <v>3</v>
       </c>
-      <c r="R54">
-        <v>1.95</v>
-      </c>
-      <c r="S54">
-        <v>4</v>
-      </c>
-      <c r="T54">
-        <v>1.42</v>
-      </c>
-      <c r="U54">
-        <v>2.65</v>
-      </c>
-      <c r="V54">
-        <v>2.9</v>
-      </c>
-      <c r="W54">
-        <v>1.36</v>
-      </c>
-      <c r="X54">
-        <v>8</v>
-      </c>
-      <c r="Y54">
-        <v>1.08</v>
-      </c>
-      <c r="Z54">
-        <v>2.15</v>
-      </c>
-      <c r="AA54">
-        <v>3.15</v>
-      </c>
-      <c r="AB54">
-        <v>3.51</v>
-      </c>
-      <c r="AC54">
-        <v>1.06</v>
-      </c>
-      <c r="AD54">
-        <v>8.5</v>
-      </c>
-      <c r="AE54">
-        <v>1.33</v>
-      </c>
-      <c r="AF54">
-        <v>3.25</v>
-      </c>
-      <c r="AG54">
-        <v>2.35</v>
-      </c>
-      <c r="AH54">
-        <v>1.55</v>
-      </c>
-      <c r="AI54">
-        <v>2.05</v>
-      </c>
-      <c r="AJ54">
-        <v>1.7</v>
-      </c>
-      <c r="AK54">
-        <v>1.3</v>
-      </c>
-      <c r="AL54">
-        <v>1.25</v>
-      </c>
-      <c r="AM54">
-        <v>1.7</v>
-      </c>
-      <c r="AN54">
-        <v>1.25</v>
-      </c>
-      <c r="AO54">
-        <v>0.2</v>
-      </c>
-      <c r="AP54">
-        <v>1.2</v>
-      </c>
-      <c r="AQ54">
-        <v>0.33</v>
-      </c>
-      <c r="AR54">
-        <v>1.24</v>
-      </c>
-      <c r="AS54">
-        <v>0.87</v>
-      </c>
-      <c r="AT54">
-        <v>2.11</v>
-      </c>
-      <c r="AU54">
-        <v>5</v>
-      </c>
-      <c r="AV54">
-        <v>4</v>
-      </c>
-      <c r="AW54">
+      <c r="AY54">
         <v>11</v>
-      </c>
-      <c r="AX54">
-        <v>5</v>
-      </c>
-      <c r="AY54">
-        <v>16</v>
       </c>
       <c r="AZ54">
         <v>9</v>
       </c>
       <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
         <v>8</v>
-      </c>
-      <c r="BB54">
-        <v>3</v>
       </c>
       <c r="BC54">
         <v>11</v>
       </c>
       <c r="BD54">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="BE54">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="BF54">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="BG54">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="BH54">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="BI54">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="BJ54">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="BK54">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BL54">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="BM54">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="BN54">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BO54">
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="BP54">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -11948,7 +11948,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7287128</v>
+        <v>7287056</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -11960,13 +11960,13 @@
         <v>45404.65625</v>
       </c>
       <c r="F55">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -11993,13 +11993,13 @@
         <v>82</v>
       </c>
       <c r="Q55">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="T55">
         <v>1.5</v>
@@ -12008,145 +12008,145 @@
         <v>2.5</v>
       </c>
       <c r="V55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W55">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y55">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z55">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="AA55">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="AB55">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AC55">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD55">
-        <v>7.5</v>
+        <v>6.95</v>
       </c>
       <c r="AE55">
         <v>1.42</v>
       </c>
       <c r="AF55">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="AG55">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AH55">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AI55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ55">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AK55">
         <v>1.44</v>
       </c>
       <c r="AL55">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AM55">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AS55">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="AT55">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
         <v>6</v>
       </c>
-      <c r="AV55">
-        <v>2</v>
-      </c>
       <c r="AW55">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX55">
         <v>4</v>
       </c>
       <c r="AY55">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA55">
         <v>4</v>
       </c>
       <c r="BB55">
+        <v>5</v>
+      </c>
+      <c r="BC55">
         <v>9</v>
       </c>
-      <c r="BC55">
-        <v>13</v>
-      </c>
       <c r="BD55">
-        <v>2.81</v>
+        <v>1.8</v>
       </c>
       <c r="BE55">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="BF55">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="BG55">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BH55">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="BI55">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BJ55">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="BK55">
         <v>2.38</v>
       </c>
       <c r="BL55">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="BM55">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="BN55">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="BO55">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="BP55">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12352,6 +12352,212 @@
         <v>3.04</v>
       </c>
       <c r="BP56">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7287128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45404.65625</v>
+      </c>
+      <c r="F57">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q57">
+        <v>4.33</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>2.75</v>
+      </c>
+      <c r="T57">
+        <v>1.5</v>
+      </c>
+      <c r="U57">
+        <v>2.5</v>
+      </c>
+      <c r="V57">
+        <v>3.4</v>
+      </c>
+      <c r="W57">
+        <v>1.3</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>1.06</v>
+      </c>
+      <c r="Z57">
+        <v>3.3</v>
+      </c>
+      <c r="AA57">
+        <v>3.1</v>
+      </c>
+      <c r="AB57">
+        <v>2.1</v>
+      </c>
+      <c r="AC57">
+        <v>1.08</v>
+      </c>
+      <c r="AD57">
+        <v>7.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.42</v>
+      </c>
+      <c r="AF57">
+        <v>2.8</v>
+      </c>
+      <c r="AG57">
+        <v>2.2</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>2</v>
+      </c>
+      <c r="AJ57">
+        <v>1.75</v>
+      </c>
+      <c r="AK57">
+        <v>1.44</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.48</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>1.67</v>
+      </c>
+      <c r="AP57">
+        <v>1.83</v>
+      </c>
+      <c r="AQ57">
+        <v>1.57</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+      <c r="AS57">
+        <v>1.56</v>
+      </c>
+      <c r="AT57">
+        <v>2.56</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>6</v>
+      </c>
+      <c r="AZ57">
+        <v>6</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>9</v>
+      </c>
+      <c r="BC57">
+        <v>13</v>
+      </c>
+      <c r="BD57">
+        <v>2.81</v>
+      </c>
+      <c r="BE57">
+        <v>7.8</v>
+      </c>
+      <c r="BF57">
+        <v>1.65</v>
+      </c>
+      <c r="BG57">
+        <v>1.23</v>
+      </c>
+      <c r="BH57">
+        <v>3.56</v>
+      </c>
+      <c r="BI57">
+        <v>1.46</v>
+      </c>
+      <c r="BJ57">
+        <v>2.52</v>
+      </c>
+      <c r="BK57">
+        <v>2.38</v>
+      </c>
+      <c r="BL57">
+        <v>1.94</v>
+      </c>
+      <c r="BM57">
+        <v>2.29</v>
+      </c>
+      <c r="BN57">
+        <v>1.55</v>
+      </c>
+      <c r="BO57">
+        <v>3.04</v>
+      </c>
+      <c r="BP57">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,18 @@
     <t>['16', '51', '56']</t>
   </si>
   <si>
+    <t>['24', '69', '86']</t>
+  </si>
+  <si>
+    <t>['13', '35']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -367,9 +379,6 @@
     <t>['78']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
     <t>['14', '23', '62', '71']</t>
   </si>
   <si>
@@ -406,9 +415,6 @@
     <t>['48', '58']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -452,6 +458,15 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['38', '74']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1087,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1153,7 +1168,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1278,7 +1293,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1565,7 +1580,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1690,7 +1705,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1768,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
         <v>1.83</v>
@@ -1896,7 +1911,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1974,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2102,7 +2117,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2180,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2308,7 +2323,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2386,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2514,7 +2529,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2592,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.57</v>
@@ -2720,7 +2735,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2801,7 +2816,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3007,7 +3022,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3132,7 +3147,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3338,7 +3353,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3544,7 +3559,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3625,7 +3640,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -3828,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -3956,7 +3971,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4034,10 +4049,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4240,10 +4255,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4368,7 +4383,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4446,10 +4461,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4574,7 +4589,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4652,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4986,7 +5001,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5810,7 +5825,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6016,7 +6031,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6300,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6428,7 +6443,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6509,7 +6524,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6634,7 +6649,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6840,7 +6855,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -6921,7 +6936,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7124,10 +7139,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7252,7 +7267,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7330,7 +7345,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7458,7 +7473,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7536,10 +7551,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7664,7 +7679,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7742,10 +7757,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -7948,7 +7963,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.4</v>
@@ -8076,7 +8091,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8154,7 +8169,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
         <v>1.57</v>
@@ -8363,7 +8378,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8566,10 +8581,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8694,7 +8709,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8775,7 +8790,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -8900,7 +8915,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9106,7 +9121,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9312,7 +9327,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9390,7 +9405,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.83</v>
@@ -9518,7 +9533,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9724,7 +9739,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9802,10 +9817,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -9930,7 +9945,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10008,10 +10023,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10214,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10420,10 +10435,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10626,10 +10641,10 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -11166,7 +11181,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11372,7 +11387,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12071,7 +12086,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12196,7 +12211,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12277,7 +12292,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12480,7 +12495,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.57</v>
@@ -12559,6 +12574,1036 @@
       </c>
       <c r="BP57">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7287067</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45408.65625</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>114</v>
+      </c>
+      <c r="P58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q58">
+        <v>3.25</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>3.6</v>
+      </c>
+      <c r="T58">
+        <v>1.5</v>
+      </c>
+      <c r="U58">
+        <v>2.5</v>
+      </c>
+      <c r="V58">
+        <v>3.5</v>
+      </c>
+      <c r="W58">
+        <v>1.29</v>
+      </c>
+      <c r="X58">
+        <v>11</v>
+      </c>
+      <c r="Y58">
+        <v>1.05</v>
+      </c>
+      <c r="Z58">
+        <v>2.38</v>
+      </c>
+      <c r="AA58">
+        <v>3.2</v>
+      </c>
+      <c r="AB58">
+        <v>2.63</v>
+      </c>
+      <c r="AC58">
+        <v>1.07</v>
+      </c>
+      <c r="AD58">
+        <v>8</v>
+      </c>
+      <c r="AE58">
+        <v>1.42</v>
+      </c>
+      <c r="AF58">
+        <v>2.8</v>
+      </c>
+      <c r="AG58">
+        <v>2.25</v>
+      </c>
+      <c r="AH58">
+        <v>1.62</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>1.45</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.48</v>
+      </c>
+      <c r="AN58">
+        <v>1.2</v>
+      </c>
+      <c r="AO58">
+        <v>1.4</v>
+      </c>
+      <c r="AP58">
+        <v>1.5</v>
+      </c>
+      <c r="AQ58">
+        <v>1.17</v>
+      </c>
+      <c r="AR58">
+        <v>1.29</v>
+      </c>
+      <c r="AS58">
+        <v>1.08</v>
+      </c>
+      <c r="AT58">
+        <v>2.37</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>9</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>15</v>
+      </c>
+      <c r="AZ58">
+        <v>11</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>1</v>
+      </c>
+      <c r="BC58">
+        <v>4</v>
+      </c>
+      <c r="BD58">
+        <v>1.97</v>
+      </c>
+      <c r="BE58">
+        <v>7.3</v>
+      </c>
+      <c r="BF58">
+        <v>2.2</v>
+      </c>
+      <c r="BG58">
+        <v>1.25</v>
+      </c>
+      <c r="BH58">
+        <v>3.7</v>
+      </c>
+      <c r="BI58">
+        <v>1.46</v>
+      </c>
+      <c r="BJ58">
+        <v>2.6</v>
+      </c>
+      <c r="BK58">
+        <v>2.25</v>
+      </c>
+      <c r="BL58">
+        <v>1.98</v>
+      </c>
+      <c r="BM58">
+        <v>2.23</v>
+      </c>
+      <c r="BN58">
+        <v>1.61</v>
+      </c>
+      <c r="BO58">
+        <v>2.85</v>
+      </c>
+      <c r="BP58">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7287068</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45408.65625</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>115</v>
+      </c>
+      <c r="P59" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q59">
+        <v>3.5</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>3.25</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.67</v>
+      </c>
+      <c r="V59">
+        <v>3.05</v>
+      </c>
+      <c r="W59">
+        <v>1.35</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.06</v>
+      </c>
+      <c r="Z59">
+        <v>3.1</v>
+      </c>
+      <c r="AA59">
+        <v>3.25</v>
+      </c>
+      <c r="AB59">
+        <v>2.38</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.33</v>
+      </c>
+      <c r="AF59">
+        <v>2.93</v>
+      </c>
+      <c r="AG59">
+        <v>2.25</v>
+      </c>
+      <c r="AH59">
+        <v>1.62</v>
+      </c>
+      <c r="AI59">
+        <v>1.91</v>
+      </c>
+      <c r="AJ59">
+        <v>1.91</v>
+      </c>
+      <c r="AK59">
+        <v>1.53</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.42</v>
+      </c>
+      <c r="AN59">
+        <v>0.6</v>
+      </c>
+      <c r="AO59">
+        <v>1.8</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.21</v>
+      </c>
+      <c r="AS59">
+        <v>1.08</v>
+      </c>
+      <c r="AT59">
+        <v>2.29</v>
+      </c>
+      <c r="AU59">
+        <v>8</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>15</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
+        <v>8</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>1.87</v>
+      </c>
+      <c r="BE59">
+        <v>7.1</v>
+      </c>
+      <c r="BF59">
+        <v>2.42</v>
+      </c>
+      <c r="BG59">
+        <v>1.33</v>
+      </c>
+      <c r="BH59">
+        <v>3.1</v>
+      </c>
+      <c r="BI59">
+        <v>1.58</v>
+      </c>
+      <c r="BJ59">
+        <v>2.28</v>
+      </c>
+      <c r="BK59">
+        <v>2.25</v>
+      </c>
+      <c r="BL59">
+        <v>2</v>
+      </c>
+      <c r="BM59">
+        <v>2.5</v>
+      </c>
+      <c r="BN59">
+        <v>1.49</v>
+      </c>
+      <c r="BO59">
+        <v>3.4</v>
+      </c>
+      <c r="BP59">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7287069</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45408.65625</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>116</v>
+      </c>
+      <c r="P60" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q60">
+        <v>3.2</v>
+      </c>
+      <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>1.5</v>
+      </c>
+      <c r="U60">
+        <v>2.5</v>
+      </c>
+      <c r="V60">
+        <v>3.5</v>
+      </c>
+      <c r="W60">
+        <v>1.29</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>2.25</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <v>3.1</v>
+      </c>
+      <c r="AC60">
+        <v>1.07</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.44</v>
+      </c>
+      <c r="AF60">
+        <v>2.7</v>
+      </c>
+      <c r="AG60">
+        <v>2.6</v>
+      </c>
+      <c r="AH60">
+        <v>1.48</v>
+      </c>
+      <c r="AI60">
+        <v>2.1</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>1.45</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.5</v>
+      </c>
+      <c r="AN60">
+        <v>1.83</v>
+      </c>
+      <c r="AO60">
+        <v>0.83</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>0.71</v>
+      </c>
+      <c r="AR60">
+        <v>1.01</v>
+      </c>
+      <c r="AS60">
+        <v>1.09</v>
+      </c>
+      <c r="AT60">
+        <v>2.1</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>2</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>6</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.87</v>
+      </c>
+      <c r="BE60">
+        <v>7.1</v>
+      </c>
+      <c r="BF60">
+        <v>2.42</v>
+      </c>
+      <c r="BG60">
+        <v>1.32</v>
+      </c>
+      <c r="BH60">
+        <v>3.2</v>
+      </c>
+      <c r="BI60">
+        <v>1.56</v>
+      </c>
+      <c r="BJ60">
+        <v>2.33</v>
+      </c>
+      <c r="BK60">
+        <v>2.38</v>
+      </c>
+      <c r="BL60">
+        <v>1.95</v>
+      </c>
+      <c r="BM60">
+        <v>2.47</v>
+      </c>
+      <c r="BN60">
+        <v>1.51</v>
+      </c>
+      <c r="BO60">
+        <v>3.3</v>
+      </c>
+      <c r="BP60">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7287070</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45408.65625</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>82</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2.6</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.63</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>9</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>4</v>
+      </c>
+      <c r="AA61">
+        <v>3.25</v>
+      </c>
+      <c r="AB61">
+        <v>1.8</v>
+      </c>
+      <c r="AC61">
+        <v>1.07</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.38</v>
+      </c>
+      <c r="AF61">
+        <v>3</v>
+      </c>
+      <c r="AG61">
+        <v>2.35</v>
+      </c>
+      <c r="AH61">
+        <v>1.57</v>
+      </c>
+      <c r="AI61">
+        <v>2.1</v>
+      </c>
+      <c r="AJ61">
+        <v>1.67</v>
+      </c>
+      <c r="AK61">
+        <v>1.83</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.22</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0.8</v>
+      </c>
+      <c r="AP61">
+        <v>0.83</v>
+      </c>
+      <c r="AQ61">
+        <v>1.17</v>
+      </c>
+      <c r="AR61">
+        <v>1.27</v>
+      </c>
+      <c r="AS61">
+        <v>1.43</v>
+      </c>
+      <c r="AT61">
+        <v>2.7</v>
+      </c>
+      <c r="AU61">
+        <v>2</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>6</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>3.01</v>
+      </c>
+      <c r="BE61">
+        <v>7.5</v>
+      </c>
+      <c r="BF61">
+        <v>1.6</v>
+      </c>
+      <c r="BG61">
+        <v>1.25</v>
+      </c>
+      <c r="BH61">
+        <v>3.7</v>
+      </c>
+      <c r="BI61">
+        <v>1.46</v>
+      </c>
+      <c r="BJ61">
+        <v>2.6</v>
+      </c>
+      <c r="BK61">
+        <v>2.2</v>
+      </c>
+      <c r="BL61">
+        <v>1.98</v>
+      </c>
+      <c r="BM61">
+        <v>2.23</v>
+      </c>
+      <c r="BN61">
+        <v>1.61</v>
+      </c>
+      <c r="BO61">
+        <v>2.85</v>
+      </c>
+      <c r="BP61">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7287071</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45408.66666666666</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>117</v>
+      </c>
+      <c r="P62" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q62">
+        <v>2.38</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>9</v>
+      </c>
+      <c r="Y62">
+        <v>1.07</v>
+      </c>
+      <c r="Z62">
+        <v>1.73</v>
+      </c>
+      <c r="AA62">
+        <v>3.75</v>
+      </c>
+      <c r="AB62">
+        <v>4.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.35</v>
+      </c>
+      <c r="AF62">
+        <v>3.1</v>
+      </c>
+      <c r="AG62">
+        <v>1.94</v>
+      </c>
+      <c r="AH62">
+        <v>1.79</v>
+      </c>
+      <c r="AI62">
+        <v>1.95</v>
+      </c>
+      <c r="AJ62">
+        <v>1.8</v>
+      </c>
+      <c r="AK62">
+        <v>1.11</v>
+      </c>
+      <c r="AL62">
+        <v>1.2</v>
+      </c>
+      <c r="AM62">
+        <v>2.4</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1.6</v>
+      </c>
+      <c r="AP62">
+        <v>1.8</v>
+      </c>
+      <c r="AQ62">
+        <v>1.5</v>
+      </c>
+      <c r="AR62">
+        <v>1.75</v>
+      </c>
+      <c r="AS62">
+        <v>1.23</v>
+      </c>
+      <c r="AT62">
+        <v>2.98</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>11</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>15</v>
+      </c>
+      <c r="AZ62">
+        <v>4</v>
+      </c>
+      <c r="BA62">
+        <v>11</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
+        <v>12</v>
+      </c>
+      <c r="BD62">
+        <v>1.39</v>
+      </c>
+      <c r="BE62">
+        <v>8</v>
+      </c>
+      <c r="BF62">
+        <v>4.06</v>
+      </c>
+      <c r="BG62">
+        <v>1.14</v>
+      </c>
+      <c r="BH62">
+        <v>5.2</v>
+      </c>
+      <c r="BI62">
+        <v>1.28</v>
+      </c>
+      <c r="BJ62">
+        <v>3.5</v>
+      </c>
+      <c r="BK62">
+        <v>1.91</v>
+      </c>
+      <c r="BL62">
+        <v>2.5</v>
+      </c>
+      <c r="BM62">
+        <v>1.98</v>
+      </c>
+      <c r="BN62">
+        <v>1.82</v>
+      </c>
+      <c r="BO62">
+        <v>2.23</v>
+      </c>
+      <c r="BP62">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>
